--- a/ha-asset/01_design/05_rootapi/設計書_5.9.Top情報取得API.xlsx
+++ b/ha-asset/01_design/05_rootapi/設計書_5.9.Top情報取得API.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\app\git\work-3g\ha-asset\01_design\05_rootapi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80191F66-E07A-407E-A09A-071FF0628646}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{403DF2EE-2A40-4392-8C22-BCB4548F108B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="45" yWindow="180" windowWidth="19620" windowHeight="15165" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0.更新履歴" sheetId="1" r:id="rId1"/>
@@ -237,10 +237,6 @@
   </si>
   <si>
     <t>URL形式</t>
-  </si>
-  <si>
-    <t>エンドポイントURL</t>
-    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>レスポンスを返す</t>
@@ -570,6 +566,10 @@
     <rPh sb="2" eb="3">
       <t>アタイ</t>
     </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>エンドポイント</t>
     <phoneticPr fontId="8"/>
   </si>
 </sst>
@@ -1125,6 +1125,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1137,76 +1143,32 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1227,20 +1189,58 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1536,19 +1536,19 @@
     </row>
     <row r="3" spans="1:27">
       <c r="A3" s="2"/>
-      <c r="B3" s="46" t="s">
+      <c r="B3" s="48" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="44"/>
       <c r="D3" s="44"/>
       <c r="E3" s="45"/>
-      <c r="F3" s="46" t="s">
+      <c r="F3" s="48" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="44"/>
       <c r="H3" s="44"/>
       <c r="I3" s="45"/>
-      <c r="J3" s="46" t="s">
+      <c r="J3" s="48" t="s">
         <v>2</v>
       </c>
       <c r="K3" s="44"/>
@@ -1571,13 +1571,13 @@
     </row>
     <row r="4" spans="1:27">
       <c r="A4" s="2"/>
-      <c r="B4" s="47">
+      <c r="B4" s="49">
         <v>45543</v>
       </c>
       <c r="C4" s="44"/>
       <c r="D4" s="44"/>
       <c r="E4" s="45"/>
-      <c r="F4" s="48" t="s">
+      <c r="F4" s="50" t="s">
         <v>3</v>
       </c>
       <c r="G4" s="44"/>
@@ -1606,7 +1606,7 @@
     </row>
     <row r="5" spans="1:27">
       <c r="A5" s="2"/>
-      <c r="B5" s="49">
+      <c r="B5" s="51">
         <v>45880</v>
       </c>
       <c r="C5" s="44"/>
@@ -1616,11 +1616,11 @@
         <f t="shared" ref="F5:F25" si="0">IF(B5="","",F4+0.01)</f>
         <v>1.01</v>
       </c>
-      <c r="G5" s="91"/>
-      <c r="H5" s="91"/>
-      <c r="I5" s="92"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="47"/>
       <c r="J5" s="43" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K5" s="44"/>
       <c r="L5" s="44"/>
@@ -1650,9 +1650,9 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G6" s="91"/>
-      <c r="H6" s="91"/>
-      <c r="I6" s="92"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="47"/>
       <c r="J6" s="43"/>
       <c r="K6" s="44"/>
       <c r="L6" s="44"/>
@@ -1682,9 +1682,9 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G7" s="91"/>
-      <c r="H7" s="91"/>
-      <c r="I7" s="92"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="47"/>
       <c r="J7" s="43"/>
       <c r="K7" s="44"/>
       <c r="L7" s="44"/>
@@ -1714,9 +1714,9 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G8" s="91"/>
-      <c r="H8" s="91"/>
-      <c r="I8" s="92"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="47"/>
       <c r="J8" s="43"/>
       <c r="K8" s="44"/>
       <c r="L8" s="44"/>
@@ -1746,9 +1746,9 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G9" s="91"/>
-      <c r="H9" s="91"/>
-      <c r="I9" s="92"/>
+      <c r="G9" s="46"/>
+      <c r="H9" s="46"/>
+      <c r="I9" s="47"/>
       <c r="J9" s="43"/>
       <c r="K9" s="44"/>
       <c r="L9" s="44"/>
@@ -1778,9 +1778,9 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G10" s="91"/>
-      <c r="H10" s="91"/>
-      <c r="I10" s="92"/>
+      <c r="G10" s="46"/>
+      <c r="H10" s="46"/>
+      <c r="I10" s="47"/>
       <c r="J10" s="43"/>
       <c r="K10" s="44"/>
       <c r="L10" s="44"/>
@@ -1810,9 +1810,9 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G11" s="91"/>
-      <c r="H11" s="91"/>
-      <c r="I11" s="92"/>
+      <c r="G11" s="46"/>
+      <c r="H11" s="46"/>
+      <c r="I11" s="47"/>
       <c r="J11" s="43"/>
       <c r="K11" s="44"/>
       <c r="L11" s="44"/>
@@ -1842,9 +1842,9 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G12" s="91"/>
-      <c r="H12" s="91"/>
-      <c r="I12" s="92"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="46"/>
+      <c r="I12" s="47"/>
       <c r="J12" s="43"/>
       <c r="K12" s="44"/>
       <c r="L12" s="44"/>
@@ -2340,12 +2340,60 @@
     </row>
   </sheetData>
   <mergeCells count="69">
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="J24:Z24"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="J25:Z25"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="J14:Z14"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="J12:Z12"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="J13:Z13"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="J17:Z17"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="J15:Z15"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="J16:Z16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="J20:Z20"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="J18:Z18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="J19:Z19"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="J23:Z23"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="J21:Z21"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="J22:Z22"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="J5:Z5"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="J3:Z3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="J4:Z4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="J8:Z8"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="J6:Z6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="J7:Z7"/>
+    <mergeCell ref="B8:E8"/>
     <mergeCell ref="F11:I11"/>
     <mergeCell ref="J11:Z11"/>
     <mergeCell ref="B9:E9"/>
@@ -2355,60 +2403,12 @@
     <mergeCell ref="F10:I10"/>
     <mergeCell ref="J10:Z10"/>
     <mergeCell ref="B11:E11"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="J8:Z8"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="J6:Z6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="J7:Z7"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="F5:I5"/>
-    <mergeCell ref="J5:Z5"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="J3:Z3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="J4:Z4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="J23:Z23"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="J21:Z21"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="J22:Z22"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="J20:Z20"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="F18:I18"/>
-    <mergeCell ref="J18:Z18"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="J19:Z19"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="J17:Z17"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="J15:Z15"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="J16:Z16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="F14:I14"/>
-    <mergeCell ref="J14:Z14"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="J12:Z12"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="J13:Z13"/>
-    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="J24:Z24"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="J25:Z25"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2539,7 +2539,7 @@
     <row r="3" spans="1:49" ht="15.75" customHeight="1">
       <c r="A3" s="2"/>
       <c r="B3" s="36" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -2593,7 +2593,7 @@
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -2645,7 +2645,7 @@
     <row r="5" spans="1:49" ht="15.75" customHeight="1">
       <c r="A5" s="2"/>
       <c r="B5" s="36" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -2699,7 +2699,7 @@
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -2751,7 +2751,7 @@
     <row r="7" spans="1:49" ht="15.75" customHeight="1">
       <c r="A7" s="2"/>
       <c r="B7" s="36" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -2805,7 +2805,7 @@
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -4683,7 +4683,7 @@
     <row r="7" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A7" s="2"/>
       <c r="B7" s="13"/>
-      <c r="C7" s="67" t="s">
+      <c r="C7" s="74" t="s">
         <v>23</v>
       </c>
       <c r="D7" s="44"/>
@@ -4691,7 +4691,7 @@
       <c r="F7" s="44"/>
       <c r="G7" s="44"/>
       <c r="H7" s="45"/>
-      <c r="I7" s="51" t="s">
+      <c r="I7" s="62" t="s">
         <v>35</v>
       </c>
       <c r="J7" s="44"/>
@@ -4757,7 +4757,7 @@
     <row r="8" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A8" s="2"/>
       <c r="B8" s="13"/>
-      <c r="C8" s="67" t="s">
+      <c r="C8" s="74" t="s">
         <v>20</v>
       </c>
       <c r="D8" s="44"/>
@@ -4765,7 +4765,7 @@
       <c r="F8" s="44"/>
       <c r="G8" s="44"/>
       <c r="H8" s="45"/>
-      <c r="I8" s="51" t="s">
+      <c r="I8" s="62" t="s">
         <v>25</v>
       </c>
       <c r="J8" s="44"/>
@@ -4831,7 +4831,7 @@
     <row r="9" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A9" s="2"/>
       <c r="B9" s="13"/>
-      <c r="C9" s="67" t="s">
+      <c r="C9" s="74" t="s">
         <v>26</v>
       </c>
       <c r="D9" s="44"/>
@@ -4839,7 +4839,7 @@
       <c r="F9" s="44"/>
       <c r="G9" s="44"/>
       <c r="H9" s="45"/>
-      <c r="I9" s="51" t="s">
+      <c r="I9" s="62" t="s">
         <v>27</v>
       </c>
       <c r="J9" s="44"/>
@@ -4905,75 +4905,75 @@
     <row r="10" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A10" s="32"/>
       <c r="B10" s="33"/>
-      <c r="C10" s="67" t="s">
-        <v>68</v>
+      <c r="C10" s="74" t="s">
+        <v>128</v>
       </c>
-      <c r="D10" s="68"/>
-      <c r="E10" s="68"/>
-      <c r="F10" s="68"/>
-      <c r="G10" s="68"/>
-      <c r="H10" s="68"/>
-      <c r="I10" s="69" t="s">
-        <v>77</v>
+      <c r="D10" s="75"/>
+      <c r="E10" s="75"/>
+      <c r="F10" s="75"/>
+      <c r="G10" s="75"/>
+      <c r="H10" s="75"/>
+      <c r="I10" s="76" t="s">
+        <v>76</v>
       </c>
-      <c r="J10" s="69"/>
-      <c r="K10" s="69"/>
-      <c r="L10" s="69"/>
-      <c r="M10" s="69"/>
-      <c r="N10" s="69"/>
-      <c r="O10" s="69"/>
-      <c r="P10" s="69"/>
-      <c r="Q10" s="69"/>
-      <c r="R10" s="69"/>
-      <c r="S10" s="69"/>
-      <c r="T10" s="69"/>
-      <c r="U10" s="69"/>
-      <c r="V10" s="69"/>
-      <c r="W10" s="69"/>
-      <c r="X10" s="69"/>
-      <c r="Y10" s="69"/>
-      <c r="Z10" s="69"/>
-      <c r="AA10" s="69"/>
-      <c r="AB10" s="69"/>
-      <c r="AC10" s="69"/>
-      <c r="AD10" s="69"/>
-      <c r="AE10" s="69"/>
-      <c r="AF10" s="69"/>
-      <c r="AG10" s="69"/>
-      <c r="AH10" s="69"/>
-      <c r="AI10" s="69"/>
-      <c r="AJ10" s="69"/>
-      <c r="AK10" s="69"/>
-      <c r="AL10" s="69"/>
-      <c r="AM10" s="69"/>
-      <c r="AN10" s="69"/>
-      <c r="AO10" s="69"/>
-      <c r="AP10" s="69"/>
-      <c r="AQ10" s="69"/>
-      <c r="AR10" s="69"/>
-      <c r="AS10" s="69"/>
-      <c r="AT10" s="69"/>
-      <c r="AU10" s="69"/>
-      <c r="AV10" s="69"/>
-      <c r="AW10" s="69"/>
-      <c r="AX10" s="69"/>
-      <c r="AY10" s="69"/>
-      <c r="AZ10" s="69"/>
-      <c r="BA10" s="69"/>
-      <c r="BB10" s="69"/>
-      <c r="BC10" s="69"/>
-      <c r="BD10" s="69"/>
-      <c r="BE10" s="69"/>
-      <c r="BF10" s="69"/>
-      <c r="BG10" s="69"/>
-      <c r="BH10" s="69"/>
-      <c r="BI10" s="69"/>
-      <c r="BJ10" s="69"/>
-      <c r="BK10" s="69"/>
-      <c r="BL10" s="69"/>
-      <c r="BM10" s="69"/>
-      <c r="BN10" s="69"/>
-      <c r="BO10" s="69"/>
+      <c r="J10" s="76"/>
+      <c r="K10" s="76"/>
+      <c r="L10" s="76"/>
+      <c r="M10" s="76"/>
+      <c r="N10" s="76"/>
+      <c r="O10" s="76"/>
+      <c r="P10" s="76"/>
+      <c r="Q10" s="76"/>
+      <c r="R10" s="76"/>
+      <c r="S10" s="76"/>
+      <c r="T10" s="76"/>
+      <c r="U10" s="76"/>
+      <c r="V10" s="76"/>
+      <c r="W10" s="76"/>
+      <c r="X10" s="76"/>
+      <c r="Y10" s="76"/>
+      <c r="Z10" s="76"/>
+      <c r="AA10" s="76"/>
+      <c r="AB10" s="76"/>
+      <c r="AC10" s="76"/>
+      <c r="AD10" s="76"/>
+      <c r="AE10" s="76"/>
+      <c r="AF10" s="76"/>
+      <c r="AG10" s="76"/>
+      <c r="AH10" s="76"/>
+      <c r="AI10" s="76"/>
+      <c r="AJ10" s="76"/>
+      <c r="AK10" s="76"/>
+      <c r="AL10" s="76"/>
+      <c r="AM10" s="76"/>
+      <c r="AN10" s="76"/>
+      <c r="AO10" s="76"/>
+      <c r="AP10" s="76"/>
+      <c r="AQ10" s="76"/>
+      <c r="AR10" s="76"/>
+      <c r="AS10" s="76"/>
+      <c r="AT10" s="76"/>
+      <c r="AU10" s="76"/>
+      <c r="AV10" s="76"/>
+      <c r="AW10" s="76"/>
+      <c r="AX10" s="76"/>
+      <c r="AY10" s="76"/>
+      <c r="AZ10" s="76"/>
+      <c r="BA10" s="76"/>
+      <c r="BB10" s="76"/>
+      <c r="BC10" s="76"/>
+      <c r="BD10" s="76"/>
+      <c r="BE10" s="76"/>
+      <c r="BF10" s="76"/>
+      <c r="BG10" s="76"/>
+      <c r="BH10" s="76"/>
+      <c r="BI10" s="76"/>
+      <c r="BJ10" s="76"/>
+      <c r="BK10" s="76"/>
+      <c r="BL10" s="76"/>
+      <c r="BM10" s="76"/>
+      <c r="BN10" s="76"/>
+      <c r="BO10" s="76"/>
       <c r="BP10" s="32"/>
     </row>
     <row r="11" spans="1:68" ht="16.5" outlineLevel="1">
@@ -5052,15 +5052,15 @@
       <c r="A12" s="2"/>
       <c r="B12" s="13"/>
       <c r="C12" s="17"/>
-      <c r="D12" s="51" t="s">
-        <v>78</v>
+      <c r="D12" s="62" t="s">
+        <v>77</v>
       </c>
       <c r="E12" s="44"/>
       <c r="F12" s="44"/>
       <c r="G12" s="44"/>
       <c r="H12" s="45"/>
-      <c r="I12" s="55" t="s">
-        <v>79</v>
+      <c r="I12" s="64" t="s">
+        <v>78</v>
       </c>
       <c r="J12" s="44"/>
       <c r="K12" s="44"/>
@@ -5124,11 +5124,11 @@
     </row>
     <row r="13" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A13" s="2"/>
-      <c r="B13" s="76" t="s">
+      <c r="B13" s="80" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="71"/>
-      <c r="D13" s="71"/>
+      <c r="C13" s="55"/>
+      <c r="D13" s="55"/>
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
       <c r="G13" s="10"/>
@@ -5197,7 +5197,7 @@
     <row r="14" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A14" s="2"/>
       <c r="B14" s="18"/>
-      <c r="C14" s="46" t="s">
+      <c r="C14" s="48" t="s">
         <v>6</v>
       </c>
       <c r="D14" s="44"/>
@@ -5213,7 +5213,7 @@
       <c r="N14" s="44"/>
       <c r="O14" s="44"/>
       <c r="P14" s="45"/>
-      <c r="Q14" s="46" t="s">
+      <c r="Q14" s="48" t="s">
         <v>7</v>
       </c>
       <c r="R14" s="44"/>
@@ -5222,7 +5222,7 @@
       <c r="U14" s="44"/>
       <c r="V14" s="44"/>
       <c r="W14" s="45"/>
-      <c r="X14" s="46" t="s">
+      <c r="X14" s="48" t="s">
         <v>8</v>
       </c>
       <c r="Y14" s="44"/>
@@ -5231,7 +5231,7 @@
       <c r="AB14" s="44"/>
       <c r="AC14" s="44"/>
       <c r="AD14" s="45"/>
-      <c r="AE14" s="67" t="s">
+      <c r="AE14" s="74" t="s">
         <v>21</v>
       </c>
       <c r="AF14" s="44"/>
@@ -5241,7 +5241,7 @@
       </c>
       <c r="AI14" s="19"/>
       <c r="AJ14" s="19"/>
-      <c r="AK14" s="46" t="s">
+      <c r="AK14" s="48" t="s">
         <v>31</v>
       </c>
       <c r="AL14" s="44"/>
@@ -5280,7 +5280,7 @@
       <c r="A15" s="2"/>
       <c r="B15" s="13"/>
       <c r="C15" s="20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D15" s="21"/>
       <c r="E15" s="21"/>
@@ -5295,7 +5295,7 @@
       <c r="N15" s="22"/>
       <c r="O15" s="22"/>
       <c r="P15" s="23"/>
-      <c r="Q15" s="57" t="s">
+      <c r="Q15" s="82" t="s">
         <v>56</v>
       </c>
       <c r="R15" s="44"/>
@@ -5304,7 +5304,7 @@
       <c r="U15" s="44"/>
       <c r="V15" s="44"/>
       <c r="W15" s="45"/>
-      <c r="X15" s="50" t="s">
+      <c r="X15" s="81" t="s">
         <v>38</v>
       </c>
       <c r="Y15" s="44"/>
@@ -5313,15 +5313,15 @@
       <c r="AB15" s="44"/>
       <c r="AC15" s="44"/>
       <c r="AD15" s="45"/>
-      <c r="AE15" s="51">
+      <c r="AE15" s="62">
         <v>6</v>
       </c>
       <c r="AF15" s="44"/>
       <c r="AG15" s="45"/>
-      <c r="AH15" s="52"/>
-      <c r="AI15" s="53"/>
-      <c r="AJ15" s="54"/>
-      <c r="AK15" s="50"/>
+      <c r="AH15" s="83"/>
+      <c r="AI15" s="84"/>
+      <c r="AJ15" s="85"/>
+      <c r="AK15" s="81"/>
       <c r="AL15" s="44"/>
       <c r="AM15" s="44"/>
       <c r="AN15" s="44"/>
@@ -5356,11 +5356,11 @@
     </row>
     <row r="16" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A16" s="2"/>
-      <c r="B16" s="76" t="s">
+      <c r="B16" s="80" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="71"/>
-      <c r="D16" s="71"/>
+      <c r="C16" s="55"/>
+      <c r="D16" s="55"/>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
@@ -5429,7 +5429,7 @@
     <row r="17" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A17" s="2"/>
       <c r="B17" s="18"/>
-      <c r="C17" s="46" t="s">
+      <c r="C17" s="48" t="s">
         <v>6</v>
       </c>
       <c r="D17" s="44"/>
@@ -5445,7 +5445,7 @@
       <c r="N17" s="44"/>
       <c r="O17" s="44"/>
       <c r="P17" s="45"/>
-      <c r="Q17" s="46" t="s">
+      <c r="Q17" s="48" t="s">
         <v>7</v>
       </c>
       <c r="R17" s="44"/>
@@ -5454,7 +5454,7 @@
       <c r="U17" s="44"/>
       <c r="V17" s="44"/>
       <c r="W17" s="45"/>
-      <c r="X17" s="46" t="s">
+      <c r="X17" s="48" t="s">
         <v>8</v>
       </c>
       <c r="Y17" s="44"/>
@@ -5463,7 +5463,7 @@
       <c r="AB17" s="44"/>
       <c r="AC17" s="44"/>
       <c r="AD17" s="45"/>
-      <c r="AE17" s="67" t="s">
+      <c r="AE17" s="74" t="s">
         <v>21</v>
       </c>
       <c r="AF17" s="44"/>
@@ -5473,7 +5473,7 @@
       </c>
       <c r="AI17" s="19"/>
       <c r="AJ17" s="19"/>
-      <c r="AK17" s="46" t="s">
+      <c r="AK17" s="48" t="s">
         <v>31</v>
       </c>
       <c r="AL17" s="44"/>
@@ -5511,8 +5511,8 @@
     <row r="18" spans="1:68" ht="33" customHeight="1" outlineLevel="1">
       <c r="A18" s="2"/>
       <c r="B18" s="13"/>
-      <c r="C18" s="51" t="s">
-        <v>81</v>
+      <c r="C18" s="62" t="s">
+        <v>80</v>
       </c>
       <c r="D18" s="44"/>
       <c r="E18" s="44"/>
@@ -5527,7 +5527,7 @@
       <c r="N18" s="44"/>
       <c r="O18" s="44"/>
       <c r="P18" s="45"/>
-      <c r="Q18" s="57" t="s">
+      <c r="Q18" s="82" t="s">
         <v>33</v>
       </c>
       <c r="R18" s="44"/>
@@ -5536,7 +5536,7 @@
       <c r="U18" s="44"/>
       <c r="V18" s="44"/>
       <c r="W18" s="45"/>
-      <c r="X18" s="50" t="s">
+      <c r="X18" s="81" t="s">
         <v>34</v>
       </c>
       <c r="Y18" s="44"/>
@@ -5545,16 +5545,16 @@
       <c r="AB18" s="44"/>
       <c r="AC18" s="44"/>
       <c r="AD18" s="45"/>
-      <c r="AE18" s="51">
+      <c r="AE18" s="62">
         <v>1</v>
       </c>
       <c r="AF18" s="44"/>
       <c r="AG18" s="45"/>
-      <c r="AH18" s="52"/>
-      <c r="AI18" s="53"/>
-      <c r="AJ18" s="54"/>
-      <c r="AK18" s="58" t="s">
-        <v>82</v>
+      <c r="AH18" s="83"/>
+      <c r="AI18" s="84"/>
+      <c r="AJ18" s="85"/>
+      <c r="AK18" s="86" t="s">
+        <v>81</v>
       </c>
       <c r="AL18" s="44"/>
       <c r="AM18" s="44"/>
@@ -5592,7 +5592,7 @@
       <c r="A19" s="2"/>
       <c r="B19" s="13"/>
       <c r="C19" s="20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D19" s="21"/>
       <c r="E19" s="21"/>
@@ -5607,14 +5607,14 @@
       <c r="N19" s="22"/>
       <c r="O19" s="22"/>
       <c r="P19" s="23"/>
-      <c r="Q19" s="57"/>
+      <c r="Q19" s="82"/>
       <c r="R19" s="44"/>
       <c r="S19" s="44"/>
       <c r="T19" s="44"/>
       <c r="U19" s="44"/>
       <c r="V19" s="44"/>
       <c r="W19" s="45"/>
-      <c r="X19" s="50" t="s">
+      <c r="X19" s="81" t="s">
         <v>41</v>
       </c>
       <c r="Y19" s="44"/>
@@ -5623,14 +5623,14 @@
       <c r="AB19" s="44"/>
       <c r="AC19" s="44"/>
       <c r="AD19" s="45"/>
-      <c r="AE19" s="51"/>
+      <c r="AE19" s="62"/>
       <c r="AF19" s="44"/>
       <c r="AG19" s="45"/>
-      <c r="AH19" s="52"/>
-      <c r="AI19" s="53"/>
-      <c r="AJ19" s="54"/>
-      <c r="AK19" s="50" t="s">
-        <v>84</v>
+      <c r="AH19" s="83"/>
+      <c r="AI19" s="84"/>
+      <c r="AJ19" s="85"/>
+      <c r="AK19" s="81" t="s">
+        <v>83</v>
       </c>
       <c r="AL19" s="44"/>
       <c r="AM19" s="44"/>
@@ -5668,23 +5668,23 @@
       <c r="A20" s="2"/>
       <c r="B20" s="13"/>
       <c r="C20" s="37"/>
-      <c r="D20" s="51" t="s">
-        <v>85</v>
+      <c r="D20" s="62" t="s">
+        <v>84</v>
       </c>
-      <c r="E20" s="55"/>
-      <c r="F20" s="55"/>
-      <c r="G20" s="55"/>
-      <c r="H20" s="55"/>
-      <c r="I20" s="55"/>
-      <c r="J20" s="55"/>
-      <c r="K20" s="55"/>
-      <c r="L20" s="55"/>
-      <c r="M20" s="55"/>
-      <c r="N20" s="55"/>
-      <c r="O20" s="55"/>
-      <c r="P20" s="56"/>
-      <c r="Q20" s="57" t="s">
-        <v>127</v>
+      <c r="E20" s="64"/>
+      <c r="F20" s="64"/>
+      <c r="G20" s="64"/>
+      <c r="H20" s="64"/>
+      <c r="I20" s="64"/>
+      <c r="J20" s="64"/>
+      <c r="K20" s="64"/>
+      <c r="L20" s="64"/>
+      <c r="M20" s="64"/>
+      <c r="N20" s="64"/>
+      <c r="O20" s="64"/>
+      <c r="P20" s="65"/>
+      <c r="Q20" s="82" t="s">
+        <v>126</v>
       </c>
       <c r="R20" s="44"/>
       <c r="S20" s="44"/>
@@ -5692,20 +5692,20 @@
       <c r="U20" s="44"/>
       <c r="V20" s="44"/>
       <c r="W20" s="45"/>
-      <c r="X20" s="50"/>
+      <c r="X20" s="81"/>
       <c r="Y20" s="44"/>
       <c r="Z20" s="44"/>
       <c r="AA20" s="44"/>
       <c r="AB20" s="44"/>
       <c r="AC20" s="44"/>
       <c r="AD20" s="45"/>
-      <c r="AE20" s="51"/>
+      <c r="AE20" s="62"/>
       <c r="AF20" s="44"/>
       <c r="AG20" s="45"/>
-      <c r="AH20" s="52"/>
-      <c r="AI20" s="53"/>
-      <c r="AJ20" s="54"/>
-      <c r="AK20" s="50"/>
+      <c r="AH20" s="83"/>
+      <c r="AI20" s="84"/>
+      <c r="AJ20" s="85"/>
+      <c r="AK20" s="81"/>
       <c r="AL20" s="44"/>
       <c r="AM20" s="44"/>
       <c r="AN20" s="44"/>
@@ -5742,7 +5742,7 @@
       <c r="A21" s="2"/>
       <c r="B21" s="13"/>
       <c r="C21" s="38" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D21" s="21"/>
       <c r="E21" s="21"/>
@@ -5757,30 +5757,30 @@
       <c r="N21" s="22"/>
       <c r="O21" s="22"/>
       <c r="P21" s="23"/>
-      <c r="Q21" s="57"/>
+      <c r="Q21" s="82"/>
       <c r="R21" s="44"/>
       <c r="S21" s="44"/>
       <c r="T21" s="44"/>
       <c r="U21" s="44"/>
       <c r="V21" s="44"/>
       <c r="W21" s="45"/>
-      <c r="X21" s="50"/>
+      <c r="X21" s="81"/>
       <c r="Y21" s="44"/>
       <c r="Z21" s="44"/>
       <c r="AA21" s="44"/>
       <c r="AB21" s="44"/>
       <c r="AC21" s="44"/>
       <c r="AD21" s="45"/>
-      <c r="AE21" s="51"/>
+      <c r="AE21" s="62"/>
       <c r="AF21" s="44"/>
       <c r="AG21" s="45"/>
-      <c r="AH21" s="52" t="s">
-        <v>88</v>
+      <c r="AH21" s="83" t="s">
+        <v>87</v>
       </c>
-      <c r="AI21" s="53"/>
-      <c r="AJ21" s="54"/>
-      <c r="AK21" s="50" t="s">
-        <v>123</v>
+      <c r="AI21" s="84"/>
+      <c r="AJ21" s="85"/>
+      <c r="AK21" s="81" t="s">
+        <v>122</v>
       </c>
       <c r="AL21" s="44"/>
       <c r="AM21" s="44"/>
@@ -5818,22 +5818,22 @@
       <c r="A22" s="2"/>
       <c r="B22" s="13"/>
       <c r="C22" s="24"/>
-      <c r="D22" s="51" t="s">
-        <v>87</v>
+      <c r="D22" s="62" t="s">
+        <v>86</v>
       </c>
-      <c r="E22" s="55"/>
-      <c r="F22" s="55"/>
-      <c r="G22" s="55"/>
-      <c r="H22" s="55"/>
-      <c r="I22" s="55"/>
-      <c r="J22" s="55"/>
-      <c r="K22" s="55"/>
-      <c r="L22" s="55"/>
-      <c r="M22" s="55"/>
-      <c r="N22" s="55"/>
-      <c r="O22" s="55"/>
-      <c r="P22" s="56"/>
-      <c r="Q22" s="57" t="s">
+      <c r="E22" s="64"/>
+      <c r="F22" s="64"/>
+      <c r="G22" s="64"/>
+      <c r="H22" s="64"/>
+      <c r="I22" s="64"/>
+      <c r="J22" s="64"/>
+      <c r="K22" s="64"/>
+      <c r="L22" s="64"/>
+      <c r="M22" s="64"/>
+      <c r="N22" s="64"/>
+      <c r="O22" s="64"/>
+      <c r="P22" s="65"/>
+      <c r="Q22" s="82" t="s">
         <v>33</v>
       </c>
       <c r="R22" s="44"/>
@@ -5842,20 +5842,20 @@
       <c r="U22" s="44"/>
       <c r="V22" s="44"/>
       <c r="W22" s="45"/>
-      <c r="X22" s="50"/>
+      <c r="X22" s="81"/>
       <c r="Y22" s="44"/>
       <c r="Z22" s="44"/>
       <c r="AA22" s="44"/>
       <c r="AB22" s="44"/>
       <c r="AC22" s="44"/>
       <c r="AD22" s="45"/>
-      <c r="AE22" s="51"/>
+      <c r="AE22" s="62"/>
       <c r="AF22" s="44"/>
       <c r="AG22" s="45"/>
-      <c r="AH22" s="52"/>
-      <c r="AI22" s="53"/>
-      <c r="AJ22" s="54"/>
-      <c r="AK22" s="50"/>
+      <c r="AH22" s="83"/>
+      <c r="AI22" s="84"/>
+      <c r="AJ22" s="85"/>
+      <c r="AK22" s="81"/>
       <c r="AL22" s="44"/>
       <c r="AM22" s="44"/>
       <c r="AN22" s="44"/>
@@ -5892,22 +5892,22 @@
       <c r="A23" s="2"/>
       <c r="B23" s="13"/>
       <c r="C23" s="24"/>
-      <c r="D23" s="51" t="s">
-        <v>80</v>
+      <c r="D23" s="62" t="s">
+        <v>79</v>
       </c>
-      <c r="E23" s="55"/>
-      <c r="F23" s="55"/>
-      <c r="G23" s="55"/>
-      <c r="H23" s="55"/>
-      <c r="I23" s="55"/>
-      <c r="J23" s="55"/>
-      <c r="K23" s="55"/>
-      <c r="L23" s="55"/>
-      <c r="M23" s="55"/>
-      <c r="N23" s="55"/>
-      <c r="O23" s="55"/>
-      <c r="P23" s="56"/>
-      <c r="Q23" s="57" t="s">
+      <c r="E23" s="64"/>
+      <c r="F23" s="64"/>
+      <c r="G23" s="64"/>
+      <c r="H23" s="64"/>
+      <c r="I23" s="64"/>
+      <c r="J23" s="64"/>
+      <c r="K23" s="64"/>
+      <c r="L23" s="64"/>
+      <c r="M23" s="64"/>
+      <c r="N23" s="64"/>
+      <c r="O23" s="64"/>
+      <c r="P23" s="65"/>
+      <c r="Q23" s="82" t="s">
         <v>62</v>
       </c>
       <c r="R23" s="44"/>
@@ -5916,22 +5916,22 @@
       <c r="U23" s="44"/>
       <c r="V23" s="44"/>
       <c r="W23" s="45"/>
-      <c r="X23" s="50"/>
+      <c r="X23" s="81"/>
       <c r="Y23" s="44"/>
       <c r="Z23" s="44"/>
       <c r="AA23" s="44"/>
       <c r="AB23" s="44"/>
       <c r="AC23" s="44"/>
       <c r="AD23" s="45"/>
-      <c r="AE23" s="51">
+      <c r="AE23" s="62">
         <v>10</v>
       </c>
       <c r="AF23" s="44"/>
       <c r="AG23" s="45"/>
-      <c r="AH23" s="52"/>
-      <c r="AI23" s="53"/>
-      <c r="AJ23" s="54"/>
-      <c r="AK23" s="50"/>
+      <c r="AH23" s="83"/>
+      <c r="AI23" s="84"/>
+      <c r="AJ23" s="85"/>
+      <c r="AK23" s="81"/>
       <c r="AL23" s="44"/>
       <c r="AM23" s="44"/>
       <c r="AN23" s="44"/>
@@ -5968,7 +5968,7 @@
       <c r="A24" s="2"/>
       <c r="B24" s="13"/>
       <c r="C24" s="38" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D24" s="21"/>
       <c r="E24" s="21"/>
@@ -5983,30 +5983,30 @@
       <c r="N24" s="22"/>
       <c r="O24" s="22"/>
       <c r="P24" s="23"/>
-      <c r="Q24" s="57"/>
+      <c r="Q24" s="82"/>
       <c r="R24" s="44"/>
       <c r="S24" s="44"/>
       <c r="T24" s="44"/>
       <c r="U24" s="44"/>
       <c r="V24" s="44"/>
       <c r="W24" s="45"/>
-      <c r="X24" s="50"/>
+      <c r="X24" s="81"/>
       <c r="Y24" s="44"/>
       <c r="Z24" s="44"/>
       <c r="AA24" s="44"/>
       <c r="AB24" s="44"/>
       <c r="AC24" s="44"/>
       <c r="AD24" s="45"/>
-      <c r="AE24" s="51"/>
+      <c r="AE24" s="62"/>
       <c r="AF24" s="44"/>
       <c r="AG24" s="45"/>
-      <c r="AH24" s="52" t="s">
-        <v>88</v>
+      <c r="AH24" s="83" t="s">
+        <v>87</v>
       </c>
-      <c r="AI24" s="53"/>
-      <c r="AJ24" s="54"/>
-      <c r="AK24" s="50" t="s">
-        <v>122</v>
+      <c r="AI24" s="84"/>
+      <c r="AJ24" s="85"/>
+      <c r="AK24" s="81" t="s">
+        <v>121</v>
       </c>
       <c r="AL24" s="44"/>
       <c r="AM24" s="44"/>
@@ -6044,22 +6044,22 @@
       <c r="A25" s="2"/>
       <c r="B25" s="13"/>
       <c r="C25" s="24"/>
-      <c r="D25" s="51" t="s">
-        <v>87</v>
+      <c r="D25" s="62" t="s">
+        <v>86</v>
       </c>
-      <c r="E25" s="55"/>
-      <c r="F25" s="55"/>
-      <c r="G25" s="55"/>
-      <c r="H25" s="55"/>
-      <c r="I25" s="55"/>
-      <c r="J25" s="55"/>
-      <c r="K25" s="55"/>
-      <c r="L25" s="55"/>
-      <c r="M25" s="55"/>
-      <c r="N25" s="55"/>
-      <c r="O25" s="55"/>
-      <c r="P25" s="56"/>
-      <c r="Q25" s="57" t="s">
+      <c r="E25" s="64"/>
+      <c r="F25" s="64"/>
+      <c r="G25" s="64"/>
+      <c r="H25" s="64"/>
+      <c r="I25" s="64"/>
+      <c r="J25" s="64"/>
+      <c r="K25" s="64"/>
+      <c r="L25" s="64"/>
+      <c r="M25" s="64"/>
+      <c r="N25" s="64"/>
+      <c r="O25" s="64"/>
+      <c r="P25" s="65"/>
+      <c r="Q25" s="82" t="s">
         <v>33</v>
       </c>
       <c r="R25" s="44"/>
@@ -6068,20 +6068,20 @@
       <c r="U25" s="44"/>
       <c r="V25" s="44"/>
       <c r="W25" s="45"/>
-      <c r="X25" s="50"/>
+      <c r="X25" s="81"/>
       <c r="Y25" s="44"/>
       <c r="Z25" s="44"/>
       <c r="AA25" s="44"/>
       <c r="AB25" s="44"/>
       <c r="AC25" s="44"/>
       <c r="AD25" s="45"/>
-      <c r="AE25" s="51"/>
+      <c r="AE25" s="62"/>
       <c r="AF25" s="44"/>
       <c r="AG25" s="45"/>
-      <c r="AH25" s="52"/>
-      <c r="AI25" s="53"/>
-      <c r="AJ25" s="54"/>
-      <c r="AK25" s="50"/>
+      <c r="AH25" s="83"/>
+      <c r="AI25" s="84"/>
+      <c r="AJ25" s="85"/>
+      <c r="AK25" s="81"/>
       <c r="AL25" s="44"/>
       <c r="AM25" s="44"/>
       <c r="AN25" s="44"/>
@@ -6118,22 +6118,22 @@
       <c r="A26" s="2"/>
       <c r="B26" s="39"/>
       <c r="C26" s="37"/>
-      <c r="D26" s="51" t="s">
-        <v>80</v>
+      <c r="D26" s="62" t="s">
+        <v>79</v>
       </c>
-      <c r="E26" s="55"/>
-      <c r="F26" s="55"/>
-      <c r="G26" s="55"/>
-      <c r="H26" s="55"/>
-      <c r="I26" s="55"/>
-      <c r="J26" s="55"/>
-      <c r="K26" s="55"/>
-      <c r="L26" s="55"/>
-      <c r="M26" s="55"/>
-      <c r="N26" s="55"/>
-      <c r="O26" s="55"/>
-      <c r="P26" s="56"/>
-      <c r="Q26" s="57" t="s">
+      <c r="E26" s="64"/>
+      <c r="F26" s="64"/>
+      <c r="G26" s="64"/>
+      <c r="H26" s="64"/>
+      <c r="I26" s="64"/>
+      <c r="J26" s="64"/>
+      <c r="K26" s="64"/>
+      <c r="L26" s="64"/>
+      <c r="M26" s="64"/>
+      <c r="N26" s="64"/>
+      <c r="O26" s="64"/>
+      <c r="P26" s="65"/>
+      <c r="Q26" s="82" t="s">
         <v>62</v>
       </c>
       <c r="R26" s="44"/>
@@ -6142,22 +6142,22 @@
       <c r="U26" s="44"/>
       <c r="V26" s="44"/>
       <c r="W26" s="45"/>
-      <c r="X26" s="50"/>
+      <c r="X26" s="81"/>
       <c r="Y26" s="44"/>
       <c r="Z26" s="44"/>
       <c r="AA26" s="44"/>
       <c r="AB26" s="44"/>
       <c r="AC26" s="44"/>
       <c r="AD26" s="45"/>
-      <c r="AE26" s="51">
+      <c r="AE26" s="62">
         <v>10</v>
       </c>
       <c r="AF26" s="44"/>
       <c r="AG26" s="45"/>
-      <c r="AH26" s="52"/>
-      <c r="AI26" s="53"/>
-      <c r="AJ26" s="54"/>
-      <c r="AK26" s="50"/>
+      <c r="AH26" s="83"/>
+      <c r="AI26" s="84"/>
+      <c r="AJ26" s="85"/>
+      <c r="AK26" s="81"/>
       <c r="AL26" s="44"/>
       <c r="AM26" s="44"/>
       <c r="AN26" s="44"/>
@@ -6405,51 +6405,51 @@
     </row>
     <row r="30" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A30" s="5"/>
-      <c r="B30" s="86" t="s">
+      <c r="B30" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="C30" s="70" t="s">
+      <c r="C30" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="D30" s="71"/>
-      <c r="E30" s="71"/>
-      <c r="F30" s="71"/>
-      <c r="G30" s="71"/>
-      <c r="H30" s="71"/>
-      <c r="I30" s="71"/>
-      <c r="J30" s="71"/>
-      <c r="K30" s="72"/>
-      <c r="L30" s="70" t="s">
+      <c r="D30" s="55"/>
+      <c r="E30" s="55"/>
+      <c r="F30" s="55"/>
+      <c r="G30" s="55"/>
+      <c r="H30" s="55"/>
+      <c r="I30" s="55"/>
+      <c r="J30" s="55"/>
+      <c r="K30" s="56"/>
+      <c r="L30" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="M30" s="71"/>
-      <c r="N30" s="71"/>
-      <c r="O30" s="71"/>
-      <c r="P30" s="71"/>
-      <c r="Q30" s="71"/>
-      <c r="R30" s="71"/>
-      <c r="S30" s="71"/>
-      <c r="T30" s="71"/>
-      <c r="U30" s="71"/>
-      <c r="V30" s="71"/>
-      <c r="W30" s="71"/>
-      <c r="X30" s="71"/>
-      <c r="Y30" s="71"/>
-      <c r="Z30" s="71"/>
-      <c r="AA30" s="71"/>
-      <c r="AB30" s="72"/>
-      <c r="AC30" s="70" t="s">
+      <c r="M30" s="55"/>
+      <c r="N30" s="55"/>
+      <c r="O30" s="55"/>
+      <c r="P30" s="55"/>
+      <c r="Q30" s="55"/>
+      <c r="R30" s="55"/>
+      <c r="S30" s="55"/>
+      <c r="T30" s="55"/>
+      <c r="U30" s="55"/>
+      <c r="V30" s="55"/>
+      <c r="W30" s="55"/>
+      <c r="X30" s="55"/>
+      <c r="Y30" s="55"/>
+      <c r="Z30" s="55"/>
+      <c r="AA30" s="55"/>
+      <c r="AB30" s="56"/>
+      <c r="AC30" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="AD30" s="71"/>
-      <c r="AE30" s="71"/>
-      <c r="AF30" s="71"/>
-      <c r="AG30" s="71"/>
-      <c r="AH30" s="71"/>
-      <c r="AI30" s="71"/>
-      <c r="AJ30" s="71"/>
-      <c r="AK30" s="72"/>
-      <c r="AL30" s="65" t="s">
+      <c r="AD30" s="55"/>
+      <c r="AE30" s="55"/>
+      <c r="AF30" s="55"/>
+      <c r="AG30" s="55"/>
+      <c r="AH30" s="55"/>
+      <c r="AI30" s="55"/>
+      <c r="AJ30" s="55"/>
+      <c r="AK30" s="56"/>
+      <c r="AL30" s="91" t="s">
         <v>12</v>
       </c>
       <c r="AM30" s="44"/>
@@ -6485,43 +6485,43 @@
     </row>
     <row r="31" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A31" s="5"/>
-      <c r="B31" s="75"/>
-      <c r="C31" s="87"/>
-      <c r="D31" s="88"/>
-      <c r="E31" s="88"/>
-      <c r="F31" s="88"/>
-      <c r="G31" s="88"/>
-      <c r="H31" s="88"/>
-      <c r="I31" s="88"/>
-      <c r="J31" s="88"/>
-      <c r="K31" s="89"/>
-      <c r="L31" s="87"/>
-      <c r="M31" s="88"/>
-      <c r="N31" s="88"/>
-      <c r="O31" s="88"/>
-      <c r="P31" s="88"/>
-      <c r="Q31" s="88"/>
-      <c r="R31" s="88"/>
-      <c r="S31" s="88"/>
-      <c r="T31" s="88"/>
-      <c r="U31" s="88"/>
-      <c r="V31" s="88"/>
-      <c r="W31" s="88"/>
-      <c r="X31" s="88"/>
-      <c r="Y31" s="88"/>
-      <c r="Z31" s="88"/>
-      <c r="AA31" s="88"/>
-      <c r="AB31" s="89"/>
-      <c r="AC31" s="73"/>
-      <c r="AD31" s="74"/>
-      <c r="AE31" s="74"/>
-      <c r="AF31" s="74"/>
-      <c r="AG31" s="74"/>
-      <c r="AH31" s="74"/>
-      <c r="AI31" s="74"/>
-      <c r="AJ31" s="74"/>
-      <c r="AK31" s="75"/>
-      <c r="AL31" s="66" t="s">
+      <c r="B31" s="53"/>
+      <c r="C31" s="57"/>
+      <c r="D31" s="58"/>
+      <c r="E31" s="58"/>
+      <c r="F31" s="58"/>
+      <c r="G31" s="58"/>
+      <c r="H31" s="58"/>
+      <c r="I31" s="58"/>
+      <c r="J31" s="58"/>
+      <c r="K31" s="59"/>
+      <c r="L31" s="57"/>
+      <c r="M31" s="58"/>
+      <c r="N31" s="58"/>
+      <c r="O31" s="58"/>
+      <c r="P31" s="58"/>
+      <c r="Q31" s="58"/>
+      <c r="R31" s="58"/>
+      <c r="S31" s="58"/>
+      <c r="T31" s="58"/>
+      <c r="U31" s="58"/>
+      <c r="V31" s="58"/>
+      <c r="W31" s="58"/>
+      <c r="X31" s="58"/>
+      <c r="Y31" s="58"/>
+      <c r="Z31" s="58"/>
+      <c r="AA31" s="58"/>
+      <c r="AB31" s="59"/>
+      <c r="AC31" s="79"/>
+      <c r="AD31" s="61"/>
+      <c r="AE31" s="61"/>
+      <c r="AF31" s="61"/>
+      <c r="AG31" s="61"/>
+      <c r="AH31" s="61"/>
+      <c r="AI31" s="61"/>
+      <c r="AJ31" s="61"/>
+      <c r="AK31" s="53"/>
+      <c r="AL31" s="92" t="s">
         <v>13</v>
       </c>
       <c r="AM31" s="44"/>
@@ -6532,14 +6532,14 @@
       <c r="AR31" s="44"/>
       <c r="AS31" s="44"/>
       <c r="AT31" s="45"/>
-      <c r="AU31" s="66" t="s">
+      <c r="AU31" s="92" t="s">
         <v>14</v>
       </c>
       <c r="AV31" s="44"/>
       <c r="AW31" s="44"/>
       <c r="AX31" s="44"/>
       <c r="AY31" s="45"/>
-      <c r="AZ31" s="66" t="s">
+      <c r="AZ31" s="92" t="s">
         <v>15</v>
       </c>
       <c r="BA31" s="44"/>
@@ -6565,37 +6565,37 @@
         <f ca="1">MAX(B$30:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>1</v>
       </c>
-      <c r="C32" s="78" t="s">
+      <c r="C32" s="66" t="s">
+        <v>117</v>
+      </c>
+      <c r="D32" s="67"/>
+      <c r="E32" s="67"/>
+      <c r="F32" s="67"/>
+      <c r="G32" s="67"/>
+      <c r="H32" s="67"/>
+      <c r="I32" s="67"/>
+      <c r="J32" s="67"/>
+      <c r="K32" s="68"/>
+      <c r="L32" s="69" t="s">
         <v>118</v>
       </c>
-      <c r="D32" s="79"/>
-      <c r="E32" s="79"/>
-      <c r="F32" s="79"/>
-      <c r="G32" s="79"/>
-      <c r="H32" s="79"/>
-      <c r="I32" s="79"/>
-      <c r="J32" s="79"/>
-      <c r="K32" s="80"/>
-      <c r="L32" s="81" t="s">
-        <v>119</v>
-      </c>
-      <c r="M32" s="82"/>
-      <c r="N32" s="82"/>
-      <c r="O32" s="82"/>
-      <c r="P32" s="82"/>
-      <c r="Q32" s="82"/>
-      <c r="R32" s="82"/>
-      <c r="S32" s="82"/>
-      <c r="T32" s="82"/>
-      <c r="U32" s="82"/>
-      <c r="V32" s="82"/>
-      <c r="W32" s="82"/>
-      <c r="X32" s="82"/>
-      <c r="Y32" s="82"/>
-      <c r="Z32" s="82"/>
-      <c r="AA32" s="82"/>
-      <c r="AB32" s="82"/>
-      <c r="AC32" s="55"/>
+      <c r="M32" s="70"/>
+      <c r="N32" s="70"/>
+      <c r="O32" s="70"/>
+      <c r="P32" s="70"/>
+      <c r="Q32" s="70"/>
+      <c r="R32" s="70"/>
+      <c r="S32" s="70"/>
+      <c r="T32" s="70"/>
+      <c r="U32" s="70"/>
+      <c r="V32" s="70"/>
+      <c r="W32" s="70"/>
+      <c r="X32" s="70"/>
+      <c r="Y32" s="70"/>
+      <c r="Z32" s="70"/>
+      <c r="AA32" s="70"/>
+      <c r="AB32" s="70"/>
+      <c r="AC32" s="64"/>
       <c r="AD32" s="44"/>
       <c r="AE32" s="44"/>
       <c r="AF32" s="44"/>
@@ -6604,7 +6604,7 @@
       <c r="AI32" s="44"/>
       <c r="AJ32" s="44"/>
       <c r="AK32" s="45"/>
-      <c r="AL32" s="59"/>
+      <c r="AL32" s="77"/>
       <c r="AM32" s="44"/>
       <c r="AN32" s="44"/>
       <c r="AO32" s="44"/>
@@ -6613,12 +6613,12 @@
       <c r="AR32" s="44"/>
       <c r="AS32" s="44"/>
       <c r="AT32" s="45"/>
-      <c r="AU32" s="59"/>
+      <c r="AU32" s="77"/>
       <c r="AV32" s="44"/>
       <c r="AW32" s="44"/>
       <c r="AX32" s="44"/>
       <c r="AY32" s="45"/>
-      <c r="AZ32" s="62"/>
+      <c r="AZ32" s="78"/>
       <c r="BA32" s="44"/>
       <c r="BB32" s="44"/>
       <c r="BC32" s="44"/>
@@ -6642,37 +6642,37 @@
         <f ca="1">MAX(B$30:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>2</v>
       </c>
-      <c r="C33" s="78" t="s">
+      <c r="C33" s="66" t="s">
+        <v>119</v>
+      </c>
+      <c r="D33" s="67"/>
+      <c r="E33" s="67"/>
+      <c r="F33" s="67"/>
+      <c r="G33" s="67"/>
+      <c r="H33" s="67"/>
+      <c r="I33" s="67"/>
+      <c r="J33" s="67"/>
+      <c r="K33" s="68"/>
+      <c r="L33" s="69" t="s">
         <v>120</v>
       </c>
-      <c r="D33" s="79"/>
-      <c r="E33" s="79"/>
-      <c r="F33" s="79"/>
-      <c r="G33" s="79"/>
-      <c r="H33" s="79"/>
-      <c r="I33" s="79"/>
-      <c r="J33" s="79"/>
-      <c r="K33" s="80"/>
-      <c r="L33" s="81" t="s">
-        <v>121</v>
-      </c>
-      <c r="M33" s="82"/>
-      <c r="N33" s="82"/>
-      <c r="O33" s="82"/>
-      <c r="P33" s="82"/>
-      <c r="Q33" s="82"/>
-      <c r="R33" s="82"/>
-      <c r="S33" s="82"/>
-      <c r="T33" s="82"/>
-      <c r="U33" s="82"/>
-      <c r="V33" s="82"/>
-      <c r="W33" s="82"/>
-      <c r="X33" s="82"/>
-      <c r="Y33" s="82"/>
-      <c r="Z33" s="82"/>
-      <c r="AA33" s="82"/>
-      <c r="AB33" s="82"/>
-      <c r="AC33" s="55"/>
+      <c r="M33" s="70"/>
+      <c r="N33" s="70"/>
+      <c r="O33" s="70"/>
+      <c r="P33" s="70"/>
+      <c r="Q33" s="70"/>
+      <c r="R33" s="70"/>
+      <c r="S33" s="70"/>
+      <c r="T33" s="70"/>
+      <c r="U33" s="70"/>
+      <c r="V33" s="70"/>
+      <c r="W33" s="70"/>
+      <c r="X33" s="70"/>
+      <c r="Y33" s="70"/>
+      <c r="Z33" s="70"/>
+      <c r="AA33" s="70"/>
+      <c r="AB33" s="70"/>
+      <c r="AC33" s="64"/>
       <c r="AD33" s="44"/>
       <c r="AE33" s="44"/>
       <c r="AF33" s="44"/>
@@ -6681,7 +6681,7 @@
       <c r="AI33" s="44"/>
       <c r="AJ33" s="44"/>
       <c r="AK33" s="45"/>
-      <c r="AL33" s="59"/>
+      <c r="AL33" s="77"/>
       <c r="AM33" s="44"/>
       <c r="AN33" s="44"/>
       <c r="AO33" s="44"/>
@@ -6690,12 +6690,12 @@
       <c r="AR33" s="44"/>
       <c r="AS33" s="44"/>
       <c r="AT33" s="45"/>
-      <c r="AU33" s="59"/>
+      <c r="AU33" s="77"/>
       <c r="AV33" s="44"/>
       <c r="AW33" s="44"/>
       <c r="AX33" s="44"/>
       <c r="AY33" s="45"/>
-      <c r="AZ33" s="62"/>
+      <c r="AZ33" s="78"/>
       <c r="BA33" s="44"/>
       <c r="BB33" s="44"/>
       <c r="BC33" s="44"/>
@@ -6719,35 +6719,35 @@
         <f ca="1">MAX(B$30:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>3</v>
       </c>
-      <c r="C34" s="78" t="s">
-        <v>92</v>
+      <c r="C34" s="66" t="s">
+        <v>91</v>
       </c>
-      <c r="D34" s="79"/>
-      <c r="E34" s="79"/>
-      <c r="F34" s="79"/>
-      <c r="G34" s="79"/>
-      <c r="H34" s="79"/>
-      <c r="I34" s="79"/>
-      <c r="J34" s="79"/>
-      <c r="K34" s="80"/>
-      <c r="L34" s="83"/>
-      <c r="M34" s="84"/>
-      <c r="N34" s="84"/>
-      <c r="O34" s="84"/>
-      <c r="P34" s="84"/>
-      <c r="Q34" s="84"/>
-      <c r="R34" s="84"/>
-      <c r="S34" s="84"/>
-      <c r="T34" s="84"/>
-      <c r="U34" s="84"/>
-      <c r="V34" s="84"/>
-      <c r="W34" s="84"/>
-      <c r="X34" s="84"/>
-      <c r="Y34" s="84"/>
-      <c r="Z34" s="84"/>
-      <c r="AA34" s="84"/>
-      <c r="AB34" s="85"/>
-      <c r="AC34" s="55"/>
+      <c r="D34" s="67"/>
+      <c r="E34" s="67"/>
+      <c r="F34" s="67"/>
+      <c r="G34" s="67"/>
+      <c r="H34" s="67"/>
+      <c r="I34" s="67"/>
+      <c r="J34" s="67"/>
+      <c r="K34" s="68"/>
+      <c r="L34" s="71"/>
+      <c r="M34" s="72"/>
+      <c r="N34" s="72"/>
+      <c r="O34" s="72"/>
+      <c r="P34" s="72"/>
+      <c r="Q34" s="72"/>
+      <c r="R34" s="72"/>
+      <c r="S34" s="72"/>
+      <c r="T34" s="72"/>
+      <c r="U34" s="72"/>
+      <c r="V34" s="72"/>
+      <c r="W34" s="72"/>
+      <c r="X34" s="72"/>
+      <c r="Y34" s="72"/>
+      <c r="Z34" s="72"/>
+      <c r="AA34" s="72"/>
+      <c r="AB34" s="73"/>
+      <c r="AC34" s="64"/>
       <c r="AD34" s="44"/>
       <c r="AE34" s="44"/>
       <c r="AF34" s="44"/>
@@ -6756,7 +6756,7 @@
       <c r="AI34" s="44"/>
       <c r="AJ34" s="44"/>
       <c r="AK34" s="45"/>
-      <c r="AL34" s="59"/>
+      <c r="AL34" s="77"/>
       <c r="AM34" s="44"/>
       <c r="AN34" s="44"/>
       <c r="AO34" s="44"/>
@@ -6765,12 +6765,12 @@
       <c r="AR34" s="44"/>
       <c r="AS34" s="44"/>
       <c r="AT34" s="45"/>
-      <c r="AU34" s="59"/>
+      <c r="AU34" s="77"/>
       <c r="AV34" s="44"/>
       <c r="AW34" s="44"/>
       <c r="AX34" s="44"/>
       <c r="AY34" s="45"/>
-      <c r="AZ34" s="62"/>
+      <c r="AZ34" s="78"/>
       <c r="BA34" s="44"/>
       <c r="BB34" s="44"/>
       <c r="BC34" s="44"/>
@@ -6795,7 +6795,7 @@
         <v>4</v>
       </c>
       <c r="C35" s="40" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D35" s="41"/>
       <c r="E35" s="41"/>
@@ -6805,24 +6805,24 @@
       <c r="I35" s="41"/>
       <c r="J35" s="41"/>
       <c r="K35" s="42"/>
-      <c r="L35" s="90"/>
-      <c r="M35" s="74"/>
-      <c r="N35" s="74"/>
-      <c r="O35" s="74"/>
-      <c r="P35" s="74"/>
-      <c r="Q35" s="74"/>
-      <c r="R35" s="74"/>
-      <c r="S35" s="74"/>
-      <c r="T35" s="74"/>
-      <c r="U35" s="74"/>
-      <c r="V35" s="74"/>
-      <c r="W35" s="74"/>
-      <c r="X35" s="74"/>
-      <c r="Y35" s="74"/>
-      <c r="Z35" s="74"/>
-      <c r="AA35" s="74"/>
-      <c r="AB35" s="74"/>
-      <c r="AC35" s="51"/>
+      <c r="L35" s="60"/>
+      <c r="M35" s="61"/>
+      <c r="N35" s="61"/>
+      <c r="O35" s="61"/>
+      <c r="P35" s="61"/>
+      <c r="Q35" s="61"/>
+      <c r="R35" s="61"/>
+      <c r="S35" s="61"/>
+      <c r="T35" s="61"/>
+      <c r="U35" s="61"/>
+      <c r="V35" s="61"/>
+      <c r="W35" s="61"/>
+      <c r="X35" s="61"/>
+      <c r="Y35" s="61"/>
+      <c r="Z35" s="61"/>
+      <c r="AA35" s="61"/>
+      <c r="AB35" s="61"/>
+      <c r="AC35" s="62"/>
       <c r="AD35" s="44"/>
       <c r="AE35" s="44"/>
       <c r="AF35" s="44"/>
@@ -6831,7 +6831,7 @@
       <c r="AI35" s="44"/>
       <c r="AJ35" s="44"/>
       <c r="AK35" s="45"/>
-      <c r="AL35" s="59"/>
+      <c r="AL35" s="77"/>
       <c r="AM35" s="44"/>
       <c r="AN35" s="44"/>
       <c r="AO35" s="44"/>
@@ -6840,12 +6840,12 @@
       <c r="AR35" s="44"/>
       <c r="AS35" s="44"/>
       <c r="AT35" s="45"/>
-      <c r="AU35" s="59"/>
+      <c r="AU35" s="77"/>
       <c r="AV35" s="44"/>
       <c r="AW35" s="44"/>
       <c r="AX35" s="44"/>
       <c r="AY35" s="45"/>
-      <c r="AZ35" s="62"/>
+      <c r="AZ35" s="78"/>
       <c r="BA35" s="44"/>
       <c r="BB35" s="44"/>
       <c r="BC35" s="44"/>
@@ -6869,75 +6869,75 @@
         <f ca="1">MAX(B$30:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>5</v>
       </c>
-      <c r="C36" s="77" t="s">
+      <c r="C36" s="63" t="s">
+        <v>68</v>
+      </c>
+      <c r="D36" s="64"/>
+      <c r="E36" s="64"/>
+      <c r="F36" s="64"/>
+      <c r="G36" s="64"/>
+      <c r="H36" s="64"/>
+      <c r="I36" s="64"/>
+      <c r="J36" s="64"/>
+      <c r="K36" s="65"/>
+      <c r="L36" s="62" t="s">
         <v>69</v>
       </c>
-      <c r="D36" s="55"/>
-      <c r="E36" s="55"/>
-      <c r="F36" s="55"/>
-      <c r="G36" s="55"/>
-      <c r="H36" s="55"/>
-      <c r="I36" s="55"/>
-      <c r="J36" s="55"/>
-      <c r="K36" s="56"/>
-      <c r="L36" s="51" t="s">
-        <v>70</v>
-      </c>
-      <c r="M36" s="55"/>
-      <c r="N36" s="55"/>
-      <c r="O36" s="55"/>
-      <c r="P36" s="55"/>
-      <c r="Q36" s="55"/>
-      <c r="R36" s="55"/>
-      <c r="S36" s="55"/>
-      <c r="T36" s="55"/>
-      <c r="U36" s="55"/>
-      <c r="V36" s="55"/>
-      <c r="W36" s="55"/>
-      <c r="X36" s="55"/>
-      <c r="Y36" s="55"/>
-      <c r="Z36" s="55"/>
-      <c r="AA36" s="55"/>
-      <c r="AB36" s="56"/>
-      <c r="AC36" s="51"/>
-      <c r="AD36" s="55"/>
-      <c r="AE36" s="55"/>
-      <c r="AF36" s="55"/>
-      <c r="AG36" s="55"/>
-      <c r="AH36" s="55"/>
-      <c r="AI36" s="55"/>
-      <c r="AJ36" s="55"/>
-      <c r="AK36" s="56"/>
-      <c r="AL36" s="59"/>
-      <c r="AM36" s="60"/>
-      <c r="AN36" s="60"/>
-      <c r="AO36" s="60"/>
-      <c r="AP36" s="60"/>
-      <c r="AQ36" s="60"/>
-      <c r="AR36" s="60"/>
-      <c r="AS36" s="60"/>
-      <c r="AT36" s="61"/>
-      <c r="AU36" s="59"/>
-      <c r="AV36" s="60"/>
-      <c r="AW36" s="60"/>
-      <c r="AX36" s="60"/>
-      <c r="AY36" s="61"/>
-      <c r="AZ36" s="62"/>
-      <c r="BA36" s="63"/>
-      <c r="BB36" s="63"/>
-      <c r="BC36" s="63"/>
-      <c r="BD36" s="63"/>
-      <c r="BE36" s="63"/>
-      <c r="BF36" s="63"/>
-      <c r="BG36" s="63"/>
-      <c r="BH36" s="63"/>
-      <c r="BI36" s="63"/>
-      <c r="BJ36" s="63"/>
-      <c r="BK36" s="63"/>
-      <c r="BL36" s="63"/>
-      <c r="BM36" s="63"/>
-      <c r="BN36" s="63"/>
-      <c r="BO36" s="64"/>
+      <c r="M36" s="64"/>
+      <c r="N36" s="64"/>
+      <c r="O36" s="64"/>
+      <c r="P36" s="64"/>
+      <c r="Q36" s="64"/>
+      <c r="R36" s="64"/>
+      <c r="S36" s="64"/>
+      <c r="T36" s="64"/>
+      <c r="U36" s="64"/>
+      <c r="V36" s="64"/>
+      <c r="W36" s="64"/>
+      <c r="X36" s="64"/>
+      <c r="Y36" s="64"/>
+      <c r="Z36" s="64"/>
+      <c r="AA36" s="64"/>
+      <c r="AB36" s="65"/>
+      <c r="AC36" s="62"/>
+      <c r="AD36" s="64"/>
+      <c r="AE36" s="64"/>
+      <c r="AF36" s="64"/>
+      <c r="AG36" s="64"/>
+      <c r="AH36" s="64"/>
+      <c r="AI36" s="64"/>
+      <c r="AJ36" s="64"/>
+      <c r="AK36" s="65"/>
+      <c r="AL36" s="77"/>
+      <c r="AM36" s="87"/>
+      <c r="AN36" s="87"/>
+      <c r="AO36" s="87"/>
+      <c r="AP36" s="87"/>
+      <c r="AQ36" s="87"/>
+      <c r="AR36" s="87"/>
+      <c r="AS36" s="87"/>
+      <c r="AT36" s="88"/>
+      <c r="AU36" s="77"/>
+      <c r="AV36" s="87"/>
+      <c r="AW36" s="87"/>
+      <c r="AX36" s="87"/>
+      <c r="AY36" s="88"/>
+      <c r="AZ36" s="78"/>
+      <c r="BA36" s="89"/>
+      <c r="BB36" s="89"/>
+      <c r="BC36" s="89"/>
+      <c r="BD36" s="89"/>
+      <c r="BE36" s="89"/>
+      <c r="BF36" s="89"/>
+      <c r="BG36" s="89"/>
+      <c r="BH36" s="89"/>
+      <c r="BI36" s="89"/>
+      <c r="BJ36" s="89"/>
+      <c r="BK36" s="89"/>
+      <c r="BL36" s="89"/>
+      <c r="BM36" s="89"/>
+      <c r="BN36" s="89"/>
+      <c r="BO36" s="90"/>
       <c r="BP36" s="2"/>
     </row>
     <row r="37" spans="1:68" ht="16.5">
@@ -7156,7 +7156,7 @@
     <row r="40" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A40" s="2"/>
       <c r="B40" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
@@ -7301,7 +7301,7 @@
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D42" s="7"/>
       <c r="E42" s="7"/>
@@ -7373,7 +7373,7 @@
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D43" s="7"/>
       <c r="E43" s="7"/>
@@ -7517,7 +7517,7 @@
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D45" s="7"/>
       <c r="E45" s="7"/>
@@ -7589,7 +7589,7 @@
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D46" s="7"/>
       <c r="E46" s="7"/>
@@ -7661,7 +7661,7 @@
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D47" s="7"/>
       <c r="E47" s="7"/>
@@ -7733,7 +7733,7 @@
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D48" s="7"/>
       <c r="E48" s="7"/>
@@ -7805,7 +7805,7 @@
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D49" s="7"/>
       <c r="E49" s="7"/>
@@ -7877,7 +7877,7 @@
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D50" s="7"/>
       <c r="E50" s="7"/>
@@ -7949,7 +7949,7 @@
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D51" s="7"/>
       <c r="E51" s="7"/>
@@ -8021,7 +8021,7 @@
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D52" s="7"/>
       <c r="E52" s="7"/>
@@ -8093,7 +8093,7 @@
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D53" s="7"/>
       <c r="E53" s="7"/>
@@ -8165,7 +8165,7 @@
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D54" s="7"/>
       <c r="E54" s="7"/>
@@ -8309,7 +8309,7 @@
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D56" s="7"/>
       <c r="E56" s="7"/>
@@ -8381,7 +8381,7 @@
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D57" s="7"/>
       <c r="E57" s="7"/>
@@ -8453,7 +8453,7 @@
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D58" s="7"/>
       <c r="E58" s="7"/>
@@ -8525,7 +8525,7 @@
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D59" s="7"/>
       <c r="E59" s="7"/>
@@ -8736,7 +8736,7 @@
     <row r="62" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A62" s="2"/>
       <c r="B62" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
@@ -8881,7 +8881,7 @@
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D64" s="7"/>
       <c r="E64" s="7"/>
@@ -8953,7 +8953,7 @@
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D65" s="7"/>
       <c r="E65" s="7"/>
@@ -9097,7 +9097,7 @@
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D67" s="7"/>
       <c r="E67" s="7"/>
@@ -9169,7 +9169,7 @@
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D68" s="7"/>
       <c r="E68" s="7"/>
@@ -9241,7 +9241,7 @@
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D69" s="7"/>
       <c r="E69" s="7"/>
@@ -9313,7 +9313,7 @@
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D70" s="7"/>
       <c r="E70" s="7"/>
@@ -9385,7 +9385,7 @@
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D71" s="7"/>
       <c r="E71" s="7"/>
@@ -9457,7 +9457,7 @@
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D72" s="7"/>
       <c r="E72" s="7"/>
@@ -9529,7 +9529,7 @@
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D73" s="7"/>
       <c r="E73" s="7"/>
@@ -9601,7 +9601,7 @@
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D74" s="7"/>
       <c r="E74" s="7"/>
@@ -9673,7 +9673,7 @@
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D75" s="7"/>
       <c r="E75" s="7"/>
@@ -9745,7 +9745,7 @@
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D76" s="7"/>
       <c r="E76" s="7"/>
@@ -9889,7 +9889,7 @@
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D78" s="7"/>
       <c r="E78" s="7"/>
@@ -9961,7 +9961,7 @@
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D79" s="7"/>
       <c r="E79" s="7"/>
@@ -10033,7 +10033,7 @@
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D80" s="7"/>
       <c r="E80" s="7"/>
@@ -10105,7 +10105,7 @@
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D81" s="7"/>
       <c r="E81" s="7"/>
@@ -11018,23 +11018,80 @@
     </row>
   </sheetData>
   <mergeCells count="115">
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C30:K31"/>
-    <mergeCell ref="L30:AB31"/>
-    <mergeCell ref="L35:AB35"/>
-    <mergeCell ref="AC35:AK35"/>
-    <mergeCell ref="C36:K36"/>
-    <mergeCell ref="L36:AB36"/>
-    <mergeCell ref="AC36:AK36"/>
-    <mergeCell ref="C32:K32"/>
-    <mergeCell ref="L32:AB32"/>
-    <mergeCell ref="AC32:AK32"/>
-    <mergeCell ref="C34:K34"/>
-    <mergeCell ref="L34:AB34"/>
-    <mergeCell ref="AC34:AK34"/>
-    <mergeCell ref="C33:K33"/>
-    <mergeCell ref="L33:AB33"/>
-    <mergeCell ref="AC33:AK33"/>
+    <mergeCell ref="X23:AD23"/>
+    <mergeCell ref="AE23:AG23"/>
+    <mergeCell ref="AH23:AJ23"/>
+    <mergeCell ref="AK23:BO23"/>
+    <mergeCell ref="Q24:W24"/>
+    <mergeCell ref="X24:AD24"/>
+    <mergeCell ref="AE24:AG24"/>
+    <mergeCell ref="AH24:AJ24"/>
+    <mergeCell ref="AK24:BO24"/>
+    <mergeCell ref="AK26:BO26"/>
+    <mergeCell ref="D26:P26"/>
+    <mergeCell ref="Q26:W26"/>
+    <mergeCell ref="X26:AD26"/>
+    <mergeCell ref="AE26:AG26"/>
+    <mergeCell ref="AH26:AJ26"/>
+    <mergeCell ref="AK21:BO21"/>
+    <mergeCell ref="Q25:W25"/>
+    <mergeCell ref="X25:AD25"/>
+    <mergeCell ref="AE25:AG25"/>
+    <mergeCell ref="AH25:AJ25"/>
+    <mergeCell ref="AK25:BO25"/>
+    <mergeCell ref="D25:P25"/>
+    <mergeCell ref="D22:P22"/>
+    <mergeCell ref="Q22:W22"/>
+    <mergeCell ref="X22:AD22"/>
+    <mergeCell ref="AE22:AG22"/>
+    <mergeCell ref="AH22:AJ22"/>
+    <mergeCell ref="AK22:BO22"/>
+    <mergeCell ref="D23:P23"/>
+    <mergeCell ref="Q23:W23"/>
+    <mergeCell ref="Q21:W21"/>
+    <mergeCell ref="X21:AD21"/>
+    <mergeCell ref="AE21:AG21"/>
+    <mergeCell ref="AH21:AJ21"/>
+    <mergeCell ref="AE19:AG19"/>
+    <mergeCell ref="AH19:AJ19"/>
+    <mergeCell ref="AK19:BO19"/>
+    <mergeCell ref="D20:P20"/>
+    <mergeCell ref="Q20:W20"/>
+    <mergeCell ref="X20:AD20"/>
+    <mergeCell ref="AE20:AG20"/>
+    <mergeCell ref="AH20:AJ20"/>
+    <mergeCell ref="AK20:BO20"/>
+    <mergeCell ref="Q19:W19"/>
+    <mergeCell ref="X19:AD19"/>
+    <mergeCell ref="AL36:AT36"/>
+    <mergeCell ref="AU36:AY36"/>
+    <mergeCell ref="AZ36:BO36"/>
+    <mergeCell ref="AL30:BO30"/>
+    <mergeCell ref="AL31:AT31"/>
+    <mergeCell ref="AU31:AY31"/>
+    <mergeCell ref="AZ31:BO31"/>
+    <mergeCell ref="AL32:AT32"/>
+    <mergeCell ref="AU32:AY32"/>
+    <mergeCell ref="AZ32:BO32"/>
+    <mergeCell ref="AL34:AT34"/>
+    <mergeCell ref="AU34:AY34"/>
+    <mergeCell ref="AZ34:BO34"/>
+    <mergeCell ref="AL33:AT33"/>
+    <mergeCell ref="AU33:AY33"/>
+    <mergeCell ref="AZ33:BO33"/>
+    <mergeCell ref="AE14:AG14"/>
+    <mergeCell ref="Q17:W17"/>
+    <mergeCell ref="X17:AD17"/>
+    <mergeCell ref="AE17:AG17"/>
+    <mergeCell ref="AK17:BO17"/>
+    <mergeCell ref="D12:H12"/>
+    <mergeCell ref="I12:BO12"/>
+    <mergeCell ref="C18:P18"/>
+    <mergeCell ref="Q18:W18"/>
+    <mergeCell ref="X18:AD18"/>
+    <mergeCell ref="AE18:AG18"/>
+    <mergeCell ref="AH18:AJ18"/>
+    <mergeCell ref="AK18:BO18"/>
     <mergeCell ref="C7:H7"/>
     <mergeCell ref="I7:BO7"/>
     <mergeCell ref="C8:H8"/>
@@ -11059,80 +11116,23 @@
     <mergeCell ref="X15:AD15"/>
     <mergeCell ref="AE15:AG15"/>
     <mergeCell ref="AH15:AJ15"/>
-    <mergeCell ref="AE14:AG14"/>
-    <mergeCell ref="Q17:W17"/>
-    <mergeCell ref="X17:AD17"/>
-    <mergeCell ref="AE17:AG17"/>
-    <mergeCell ref="AK17:BO17"/>
-    <mergeCell ref="D12:H12"/>
-    <mergeCell ref="I12:BO12"/>
-    <mergeCell ref="C18:P18"/>
-    <mergeCell ref="Q18:W18"/>
-    <mergeCell ref="X18:AD18"/>
-    <mergeCell ref="AE18:AG18"/>
-    <mergeCell ref="AH18:AJ18"/>
-    <mergeCell ref="AK18:BO18"/>
-    <mergeCell ref="AL36:AT36"/>
-    <mergeCell ref="AU36:AY36"/>
-    <mergeCell ref="AZ36:BO36"/>
-    <mergeCell ref="AL30:BO30"/>
-    <mergeCell ref="AL31:AT31"/>
-    <mergeCell ref="AU31:AY31"/>
-    <mergeCell ref="AZ31:BO31"/>
-    <mergeCell ref="AL32:AT32"/>
-    <mergeCell ref="AU32:AY32"/>
-    <mergeCell ref="AZ32:BO32"/>
-    <mergeCell ref="AL34:AT34"/>
-    <mergeCell ref="AU34:AY34"/>
-    <mergeCell ref="AZ34:BO34"/>
-    <mergeCell ref="AL33:AT33"/>
-    <mergeCell ref="AU33:AY33"/>
-    <mergeCell ref="AZ33:BO33"/>
-    <mergeCell ref="AH21:AJ21"/>
-    <mergeCell ref="AE19:AG19"/>
-    <mergeCell ref="AH19:AJ19"/>
-    <mergeCell ref="AK19:BO19"/>
-    <mergeCell ref="D20:P20"/>
-    <mergeCell ref="Q20:W20"/>
-    <mergeCell ref="X20:AD20"/>
-    <mergeCell ref="AE20:AG20"/>
-    <mergeCell ref="AH20:AJ20"/>
-    <mergeCell ref="AK20:BO20"/>
-    <mergeCell ref="Q19:W19"/>
-    <mergeCell ref="X19:AD19"/>
-    <mergeCell ref="AK26:BO26"/>
-    <mergeCell ref="D26:P26"/>
-    <mergeCell ref="Q26:W26"/>
-    <mergeCell ref="X26:AD26"/>
-    <mergeCell ref="AE26:AG26"/>
-    <mergeCell ref="AH26:AJ26"/>
-    <mergeCell ref="AK21:BO21"/>
-    <mergeCell ref="Q25:W25"/>
-    <mergeCell ref="X25:AD25"/>
-    <mergeCell ref="AE25:AG25"/>
-    <mergeCell ref="AH25:AJ25"/>
-    <mergeCell ref="AK25:BO25"/>
-    <mergeCell ref="D25:P25"/>
-    <mergeCell ref="D22:P22"/>
-    <mergeCell ref="Q22:W22"/>
-    <mergeCell ref="X22:AD22"/>
-    <mergeCell ref="AE22:AG22"/>
-    <mergeCell ref="AH22:AJ22"/>
-    <mergeCell ref="AK22:BO22"/>
-    <mergeCell ref="D23:P23"/>
-    <mergeCell ref="Q23:W23"/>
-    <mergeCell ref="Q21:W21"/>
-    <mergeCell ref="X21:AD21"/>
-    <mergeCell ref="AE21:AG21"/>
-    <mergeCell ref="X23:AD23"/>
-    <mergeCell ref="AE23:AG23"/>
-    <mergeCell ref="AH23:AJ23"/>
-    <mergeCell ref="AK23:BO23"/>
-    <mergeCell ref="Q24:W24"/>
-    <mergeCell ref="X24:AD24"/>
-    <mergeCell ref="AE24:AG24"/>
-    <mergeCell ref="AH24:AJ24"/>
-    <mergeCell ref="AK24:BO24"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:K31"/>
+    <mergeCell ref="L30:AB31"/>
+    <mergeCell ref="L35:AB35"/>
+    <mergeCell ref="AC35:AK35"/>
+    <mergeCell ref="C36:K36"/>
+    <mergeCell ref="L36:AB36"/>
+    <mergeCell ref="AC36:AK36"/>
+    <mergeCell ref="C32:K32"/>
+    <mergeCell ref="L32:AB32"/>
+    <mergeCell ref="AC32:AK32"/>
+    <mergeCell ref="C34:K34"/>
+    <mergeCell ref="L34:AB34"/>
+    <mergeCell ref="AC34:AK34"/>
+    <mergeCell ref="C33:K33"/>
+    <mergeCell ref="L33:AB33"/>
+    <mergeCell ref="AC33:AK33"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <dataValidations count="1">
@@ -11620,7 +11620,7 @@
     <row r="7" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A7" s="2"/>
       <c r="B7" s="13"/>
-      <c r="C7" s="67" t="s">
+      <c r="C7" s="74" t="s">
         <v>23</v>
       </c>
       <c r="D7" s="44"/>
@@ -11628,7 +11628,7 @@
       <c r="F7" s="44"/>
       <c r="G7" s="44"/>
       <c r="H7" s="45"/>
-      <c r="I7" s="51" t="s">
+      <c r="I7" s="62" t="s">
         <v>35</v>
       </c>
       <c r="J7" s="44"/>
@@ -11694,7 +11694,7 @@
     <row r="8" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A8" s="2"/>
       <c r="B8" s="13"/>
-      <c r="C8" s="67" t="s">
+      <c r="C8" s="74" t="s">
         <v>20</v>
       </c>
       <c r="D8" s="44"/>
@@ -11702,7 +11702,7 @@
       <c r="F8" s="44"/>
       <c r="G8" s="44"/>
       <c r="H8" s="45"/>
-      <c r="I8" s="51" t="s">
+      <c r="I8" s="62" t="s">
         <v>25</v>
       </c>
       <c r="J8" s="44"/>
@@ -11768,7 +11768,7 @@
     <row r="9" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A9" s="2"/>
       <c r="B9" s="13"/>
-      <c r="C9" s="67" t="s">
+      <c r="C9" s="74" t="s">
         <v>26</v>
       </c>
       <c r="D9" s="44"/>
@@ -11776,7 +11776,7 @@
       <c r="F9" s="44"/>
       <c r="G9" s="44"/>
       <c r="H9" s="45"/>
-      <c r="I9" s="51" t="s">
+      <c r="I9" s="62" t="s">
         <v>27</v>
       </c>
       <c r="J9" s="44"/>
@@ -11842,75 +11842,75 @@
     <row r="10" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A10" s="32"/>
       <c r="B10" s="33"/>
-      <c r="C10" s="67" t="s">
-        <v>68</v>
+      <c r="C10" s="74" t="s">
+        <v>128</v>
       </c>
-      <c r="D10" s="68"/>
-      <c r="E10" s="68"/>
-      <c r="F10" s="68"/>
-      <c r="G10" s="68"/>
-      <c r="H10" s="68"/>
-      <c r="I10" s="69" t="s">
-        <v>124</v>
+      <c r="D10" s="75"/>
+      <c r="E10" s="75"/>
+      <c r="F10" s="75"/>
+      <c r="G10" s="75"/>
+      <c r="H10" s="75"/>
+      <c r="I10" s="76" t="s">
+        <v>123</v>
       </c>
-      <c r="J10" s="69"/>
-      <c r="K10" s="69"/>
-      <c r="L10" s="69"/>
-      <c r="M10" s="69"/>
-      <c r="N10" s="69"/>
-      <c r="O10" s="69"/>
-      <c r="P10" s="69"/>
-      <c r="Q10" s="69"/>
-      <c r="R10" s="69"/>
-      <c r="S10" s="69"/>
-      <c r="T10" s="69"/>
-      <c r="U10" s="69"/>
-      <c r="V10" s="69"/>
-      <c r="W10" s="69"/>
-      <c r="X10" s="69"/>
-      <c r="Y10" s="69"/>
-      <c r="Z10" s="69"/>
-      <c r="AA10" s="69"/>
-      <c r="AB10" s="69"/>
-      <c r="AC10" s="69"/>
-      <c r="AD10" s="69"/>
-      <c r="AE10" s="69"/>
-      <c r="AF10" s="69"/>
-      <c r="AG10" s="69"/>
-      <c r="AH10" s="69"/>
-      <c r="AI10" s="69"/>
-      <c r="AJ10" s="69"/>
-      <c r="AK10" s="69"/>
-      <c r="AL10" s="69"/>
-      <c r="AM10" s="69"/>
-      <c r="AN10" s="69"/>
-      <c r="AO10" s="69"/>
-      <c r="AP10" s="69"/>
-      <c r="AQ10" s="69"/>
-      <c r="AR10" s="69"/>
-      <c r="AS10" s="69"/>
-      <c r="AT10" s="69"/>
-      <c r="AU10" s="69"/>
-      <c r="AV10" s="69"/>
-      <c r="AW10" s="69"/>
-      <c r="AX10" s="69"/>
-      <c r="AY10" s="69"/>
-      <c r="AZ10" s="69"/>
-      <c r="BA10" s="69"/>
-      <c r="BB10" s="69"/>
-      <c r="BC10" s="69"/>
-      <c r="BD10" s="69"/>
-      <c r="BE10" s="69"/>
-      <c r="BF10" s="69"/>
-      <c r="BG10" s="69"/>
-      <c r="BH10" s="69"/>
-      <c r="BI10" s="69"/>
-      <c r="BJ10" s="69"/>
-      <c r="BK10" s="69"/>
-      <c r="BL10" s="69"/>
-      <c r="BM10" s="69"/>
-      <c r="BN10" s="69"/>
-      <c r="BO10" s="69"/>
+      <c r="J10" s="76"/>
+      <c r="K10" s="76"/>
+      <c r="L10" s="76"/>
+      <c r="M10" s="76"/>
+      <c r="N10" s="76"/>
+      <c r="O10" s="76"/>
+      <c r="P10" s="76"/>
+      <c r="Q10" s="76"/>
+      <c r="R10" s="76"/>
+      <c r="S10" s="76"/>
+      <c r="T10" s="76"/>
+      <c r="U10" s="76"/>
+      <c r="V10" s="76"/>
+      <c r="W10" s="76"/>
+      <c r="X10" s="76"/>
+      <c r="Y10" s="76"/>
+      <c r="Z10" s="76"/>
+      <c r="AA10" s="76"/>
+      <c r="AB10" s="76"/>
+      <c r="AC10" s="76"/>
+      <c r="AD10" s="76"/>
+      <c r="AE10" s="76"/>
+      <c r="AF10" s="76"/>
+      <c r="AG10" s="76"/>
+      <c r="AH10" s="76"/>
+      <c r="AI10" s="76"/>
+      <c r="AJ10" s="76"/>
+      <c r="AK10" s="76"/>
+      <c r="AL10" s="76"/>
+      <c r="AM10" s="76"/>
+      <c r="AN10" s="76"/>
+      <c r="AO10" s="76"/>
+      <c r="AP10" s="76"/>
+      <c r="AQ10" s="76"/>
+      <c r="AR10" s="76"/>
+      <c r="AS10" s="76"/>
+      <c r="AT10" s="76"/>
+      <c r="AU10" s="76"/>
+      <c r="AV10" s="76"/>
+      <c r="AW10" s="76"/>
+      <c r="AX10" s="76"/>
+      <c r="AY10" s="76"/>
+      <c r="AZ10" s="76"/>
+      <c r="BA10" s="76"/>
+      <c r="BB10" s="76"/>
+      <c r="BC10" s="76"/>
+      <c r="BD10" s="76"/>
+      <c r="BE10" s="76"/>
+      <c r="BF10" s="76"/>
+      <c r="BG10" s="76"/>
+      <c r="BH10" s="76"/>
+      <c r="BI10" s="76"/>
+      <c r="BJ10" s="76"/>
+      <c r="BK10" s="76"/>
+      <c r="BL10" s="76"/>
+      <c r="BM10" s="76"/>
+      <c r="BN10" s="76"/>
+      <c r="BO10" s="76"/>
       <c r="BP10" s="32"/>
     </row>
     <row r="11" spans="1:68" ht="16.5" outlineLevel="1">
@@ -11989,15 +11989,15 @@
       <c r="A12" s="2"/>
       <c r="B12" s="13"/>
       <c r="C12" s="17"/>
-      <c r="D12" s="51" t="s">
-        <v>78</v>
+      <c r="D12" s="62" t="s">
+        <v>77</v>
       </c>
       <c r="E12" s="44"/>
       <c r="F12" s="44"/>
       <c r="G12" s="44"/>
       <c r="H12" s="45"/>
-      <c r="I12" s="55" t="s">
-        <v>79</v>
+      <c r="I12" s="64" t="s">
+        <v>78</v>
       </c>
       <c r="J12" s="44"/>
       <c r="K12" s="44"/>
@@ -12061,11 +12061,11 @@
     </row>
     <row r="13" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A13" s="2"/>
-      <c r="B13" s="76" t="s">
+      <c r="B13" s="80" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="71"/>
-      <c r="D13" s="71"/>
+      <c r="C13" s="55"/>
+      <c r="D13" s="55"/>
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
       <c r="G13" s="10"/>
@@ -12134,7 +12134,7 @@
     <row r="14" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A14" s="2"/>
       <c r="B14" s="18"/>
-      <c r="C14" s="46" t="s">
+      <c r="C14" s="48" t="s">
         <v>6</v>
       </c>
       <c r="D14" s="44"/>
@@ -12150,7 +12150,7 @@
       <c r="N14" s="44"/>
       <c r="O14" s="44"/>
       <c r="P14" s="45"/>
-      <c r="Q14" s="46" t="s">
+      <c r="Q14" s="48" t="s">
         <v>7</v>
       </c>
       <c r="R14" s="44"/>
@@ -12159,7 +12159,7 @@
       <c r="U14" s="44"/>
       <c r="V14" s="44"/>
       <c r="W14" s="45"/>
-      <c r="X14" s="46" t="s">
+      <c r="X14" s="48" t="s">
         <v>8</v>
       </c>
       <c r="Y14" s="44"/>
@@ -12168,7 +12168,7 @@
       <c r="AB14" s="44"/>
       <c r="AC14" s="44"/>
       <c r="AD14" s="45"/>
-      <c r="AE14" s="67" t="s">
+      <c r="AE14" s="74" t="s">
         <v>21</v>
       </c>
       <c r="AF14" s="44"/>
@@ -12178,7 +12178,7 @@
       </c>
       <c r="AI14" s="19"/>
       <c r="AJ14" s="19"/>
-      <c r="AK14" s="46" t="s">
+      <c r="AK14" s="48" t="s">
         <v>31</v>
       </c>
       <c r="AL14" s="44"/>
@@ -12217,7 +12217,7 @@
       <c r="A15" s="2"/>
       <c r="B15" s="13"/>
       <c r="C15" s="20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D15" s="21"/>
       <c r="E15" s="21"/>
@@ -12232,7 +12232,7 @@
       <c r="N15" s="22"/>
       <c r="O15" s="22"/>
       <c r="P15" s="23"/>
-      <c r="Q15" s="57" t="s">
+      <c r="Q15" s="82" t="s">
         <v>56</v>
       </c>
       <c r="R15" s="44"/>
@@ -12241,7 +12241,7 @@
       <c r="U15" s="44"/>
       <c r="V15" s="44"/>
       <c r="W15" s="45"/>
-      <c r="X15" s="50" t="s">
+      <c r="X15" s="81" t="s">
         <v>38</v>
       </c>
       <c r="Y15" s="44"/>
@@ -12250,15 +12250,15 @@
       <c r="AB15" s="44"/>
       <c r="AC15" s="44"/>
       <c r="AD15" s="45"/>
-      <c r="AE15" s="51">
+      <c r="AE15" s="62">
         <v>6</v>
       </c>
       <c r="AF15" s="44"/>
       <c r="AG15" s="45"/>
-      <c r="AH15" s="52"/>
-      <c r="AI15" s="53"/>
-      <c r="AJ15" s="54"/>
-      <c r="AK15" s="50"/>
+      <c r="AH15" s="83"/>
+      <c r="AI15" s="84"/>
+      <c r="AJ15" s="85"/>
+      <c r="AK15" s="81"/>
       <c r="AL15" s="44"/>
       <c r="AM15" s="44"/>
       <c r="AN15" s="44"/>
@@ -12293,11 +12293,11 @@
     </row>
     <row r="16" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A16" s="2"/>
-      <c r="B16" s="76" t="s">
+      <c r="B16" s="80" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="71"/>
-      <c r="D16" s="71"/>
+      <c r="C16" s="55"/>
+      <c r="D16" s="55"/>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
@@ -12366,7 +12366,7 @@
     <row r="17" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A17" s="2"/>
       <c r="B17" s="18"/>
-      <c r="C17" s="46" t="s">
+      <c r="C17" s="48" t="s">
         <v>6</v>
       </c>
       <c r="D17" s="44"/>
@@ -12382,7 +12382,7 @@
       <c r="N17" s="44"/>
       <c r="O17" s="44"/>
       <c r="P17" s="45"/>
-      <c r="Q17" s="46" t="s">
+      <c r="Q17" s="48" t="s">
         <v>7</v>
       </c>
       <c r="R17" s="44"/>
@@ -12391,7 +12391,7 @@
       <c r="U17" s="44"/>
       <c r="V17" s="44"/>
       <c r="W17" s="45"/>
-      <c r="X17" s="46" t="s">
+      <c r="X17" s="48" t="s">
         <v>8</v>
       </c>
       <c r="Y17" s="44"/>
@@ -12400,7 +12400,7 @@
       <c r="AB17" s="44"/>
       <c r="AC17" s="44"/>
       <c r="AD17" s="45"/>
-      <c r="AE17" s="67" t="s">
+      <c r="AE17" s="74" t="s">
         <v>21</v>
       </c>
       <c r="AF17" s="44"/>
@@ -12410,7 +12410,7 @@
       </c>
       <c r="AI17" s="19"/>
       <c r="AJ17" s="19"/>
-      <c r="AK17" s="46" t="s">
+      <c r="AK17" s="48" t="s">
         <v>31</v>
       </c>
       <c r="AL17" s="44"/>
@@ -12448,8 +12448,8 @@
     <row r="18" spans="1:68" ht="33" customHeight="1" outlineLevel="1">
       <c r="A18" s="2"/>
       <c r="B18" s="13"/>
-      <c r="C18" s="51" t="s">
-        <v>81</v>
+      <c r="C18" s="62" t="s">
+        <v>80</v>
       </c>
       <c r="D18" s="44"/>
       <c r="E18" s="44"/>
@@ -12464,7 +12464,7 @@
       <c r="N18" s="44"/>
       <c r="O18" s="44"/>
       <c r="P18" s="45"/>
-      <c r="Q18" s="57" t="s">
+      <c r="Q18" s="82" t="s">
         <v>33</v>
       </c>
       <c r="R18" s="44"/>
@@ -12473,7 +12473,7 @@
       <c r="U18" s="44"/>
       <c r="V18" s="44"/>
       <c r="W18" s="45"/>
-      <c r="X18" s="50" t="s">
+      <c r="X18" s="81" t="s">
         <v>34</v>
       </c>
       <c r="Y18" s="44"/>
@@ -12482,16 +12482,16 @@
       <c r="AB18" s="44"/>
       <c r="AC18" s="44"/>
       <c r="AD18" s="45"/>
-      <c r="AE18" s="51">
+      <c r="AE18" s="62">
         <v>1</v>
       </c>
       <c r="AF18" s="44"/>
       <c r="AG18" s="45"/>
-      <c r="AH18" s="52"/>
-      <c r="AI18" s="53"/>
-      <c r="AJ18" s="54"/>
-      <c r="AK18" s="58" t="s">
-        <v>82</v>
+      <c r="AH18" s="83"/>
+      <c r="AI18" s="84"/>
+      <c r="AJ18" s="85"/>
+      <c r="AK18" s="86" t="s">
+        <v>81</v>
       </c>
       <c r="AL18" s="44"/>
       <c r="AM18" s="44"/>
@@ -12529,7 +12529,7 @@
       <c r="A19" s="2"/>
       <c r="B19" s="13"/>
       <c r="C19" s="20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D19" s="21"/>
       <c r="E19" s="21"/>
@@ -12544,14 +12544,14 @@
       <c r="N19" s="22"/>
       <c r="O19" s="22"/>
       <c r="P19" s="23"/>
-      <c r="Q19" s="57"/>
+      <c r="Q19" s="82"/>
       <c r="R19" s="44"/>
       <c r="S19" s="44"/>
       <c r="T19" s="44"/>
       <c r="U19" s="44"/>
       <c r="V19" s="44"/>
       <c r="W19" s="45"/>
-      <c r="X19" s="50" t="s">
+      <c r="X19" s="81" t="s">
         <v>41</v>
       </c>
       <c r="Y19" s="44"/>
@@ -12560,14 +12560,14 @@
       <c r="AB19" s="44"/>
       <c r="AC19" s="44"/>
       <c r="AD19" s="45"/>
-      <c r="AE19" s="51"/>
+      <c r="AE19" s="62"/>
       <c r="AF19" s="44"/>
       <c r="AG19" s="45"/>
-      <c r="AH19" s="52"/>
-      <c r="AI19" s="53"/>
-      <c r="AJ19" s="54"/>
-      <c r="AK19" s="50" t="s">
-        <v>84</v>
+      <c r="AH19" s="83"/>
+      <c r="AI19" s="84"/>
+      <c r="AJ19" s="85"/>
+      <c r="AK19" s="81" t="s">
+        <v>83</v>
       </c>
       <c r="AL19" s="44"/>
       <c r="AM19" s="44"/>
@@ -12605,23 +12605,23 @@
       <c r="A20" s="2"/>
       <c r="B20" s="13"/>
       <c r="C20" s="37"/>
-      <c r="D20" s="51" t="s">
-        <v>85</v>
+      <c r="D20" s="62" t="s">
+        <v>84</v>
       </c>
-      <c r="E20" s="55"/>
-      <c r="F20" s="55"/>
-      <c r="G20" s="55"/>
-      <c r="H20" s="55"/>
-      <c r="I20" s="55"/>
-      <c r="J20" s="55"/>
-      <c r="K20" s="55"/>
-      <c r="L20" s="55"/>
-      <c r="M20" s="55"/>
-      <c r="N20" s="55"/>
-      <c r="O20" s="55"/>
-      <c r="P20" s="56"/>
-      <c r="Q20" s="57" t="s">
-        <v>127</v>
+      <c r="E20" s="64"/>
+      <c r="F20" s="64"/>
+      <c r="G20" s="64"/>
+      <c r="H20" s="64"/>
+      <c r="I20" s="64"/>
+      <c r="J20" s="64"/>
+      <c r="K20" s="64"/>
+      <c r="L20" s="64"/>
+      <c r="M20" s="64"/>
+      <c r="N20" s="64"/>
+      <c r="O20" s="64"/>
+      <c r="P20" s="65"/>
+      <c r="Q20" s="82" t="s">
+        <v>126</v>
       </c>
       <c r="R20" s="44"/>
       <c r="S20" s="44"/>
@@ -12629,20 +12629,20 @@
       <c r="U20" s="44"/>
       <c r="V20" s="44"/>
       <c r="W20" s="45"/>
-      <c r="X20" s="50"/>
+      <c r="X20" s="81"/>
       <c r="Y20" s="44"/>
       <c r="Z20" s="44"/>
       <c r="AA20" s="44"/>
       <c r="AB20" s="44"/>
       <c r="AC20" s="44"/>
       <c r="AD20" s="45"/>
-      <c r="AE20" s="51"/>
+      <c r="AE20" s="62"/>
       <c r="AF20" s="44"/>
       <c r="AG20" s="45"/>
-      <c r="AH20" s="52"/>
-      <c r="AI20" s="53"/>
-      <c r="AJ20" s="54"/>
-      <c r="AK20" s="50"/>
+      <c r="AH20" s="83"/>
+      <c r="AI20" s="84"/>
+      <c r="AJ20" s="85"/>
+      <c r="AK20" s="81"/>
       <c r="AL20" s="44"/>
       <c r="AM20" s="44"/>
       <c r="AN20" s="44"/>
@@ -12679,7 +12679,7 @@
       <c r="A21" s="2"/>
       <c r="B21" s="13"/>
       <c r="C21" s="38" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D21" s="21"/>
       <c r="E21" s="21"/>
@@ -12694,30 +12694,30 @@
       <c r="N21" s="22"/>
       <c r="O21" s="22"/>
       <c r="P21" s="23"/>
-      <c r="Q21" s="50"/>
+      <c r="Q21" s="81"/>
       <c r="R21" s="44"/>
       <c r="S21" s="44"/>
       <c r="T21" s="44"/>
       <c r="U21" s="44"/>
       <c r="V21" s="44"/>
       <c r="W21" s="45"/>
-      <c r="X21" s="50"/>
+      <c r="X21" s="81"/>
       <c r="Y21" s="44"/>
       <c r="Z21" s="44"/>
       <c r="AA21" s="44"/>
       <c r="AB21" s="44"/>
       <c r="AC21" s="44"/>
       <c r="AD21" s="45"/>
-      <c r="AE21" s="51"/>
+      <c r="AE21" s="62"/>
       <c r="AF21" s="44"/>
       <c r="AG21" s="45"/>
-      <c r="AH21" s="52" t="s">
-        <v>88</v>
+      <c r="AH21" s="83" t="s">
+        <v>87</v>
       </c>
-      <c r="AI21" s="53"/>
-      <c r="AJ21" s="54"/>
-      <c r="AK21" s="50" t="s">
-        <v>123</v>
+      <c r="AI21" s="84"/>
+      <c r="AJ21" s="85"/>
+      <c r="AK21" s="81" t="s">
+        <v>122</v>
       </c>
       <c r="AL21" s="44"/>
       <c r="AM21" s="44"/>
@@ -12755,22 +12755,22 @@
       <c r="A22" s="2"/>
       <c r="B22" s="13"/>
       <c r="C22" s="24"/>
-      <c r="D22" s="51" t="s">
-        <v>87</v>
+      <c r="D22" s="62" t="s">
+        <v>86</v>
       </c>
-      <c r="E22" s="55"/>
-      <c r="F22" s="55"/>
-      <c r="G22" s="55"/>
-      <c r="H22" s="55"/>
-      <c r="I22" s="55"/>
-      <c r="J22" s="55"/>
-      <c r="K22" s="55"/>
-      <c r="L22" s="55"/>
-      <c r="M22" s="55"/>
-      <c r="N22" s="55"/>
-      <c r="O22" s="55"/>
-      <c r="P22" s="56"/>
-      <c r="Q22" s="50" t="s">
+      <c r="E22" s="64"/>
+      <c r="F22" s="64"/>
+      <c r="G22" s="64"/>
+      <c r="H22" s="64"/>
+      <c r="I22" s="64"/>
+      <c r="J22" s="64"/>
+      <c r="K22" s="64"/>
+      <c r="L22" s="64"/>
+      <c r="M22" s="64"/>
+      <c r="N22" s="64"/>
+      <c r="O22" s="64"/>
+      <c r="P22" s="65"/>
+      <c r="Q22" s="81" t="s">
         <v>33</v>
       </c>
       <c r="R22" s="44"/>
@@ -12779,20 +12779,20 @@
       <c r="U22" s="44"/>
       <c r="V22" s="44"/>
       <c r="W22" s="45"/>
-      <c r="X22" s="50"/>
+      <c r="X22" s="81"/>
       <c r="Y22" s="44"/>
       <c r="Z22" s="44"/>
       <c r="AA22" s="44"/>
       <c r="AB22" s="44"/>
       <c r="AC22" s="44"/>
       <c r="AD22" s="45"/>
-      <c r="AE22" s="51"/>
+      <c r="AE22" s="62"/>
       <c r="AF22" s="44"/>
       <c r="AG22" s="45"/>
-      <c r="AH22" s="52"/>
-      <c r="AI22" s="53"/>
-      <c r="AJ22" s="54"/>
-      <c r="AK22" s="50"/>
+      <c r="AH22" s="83"/>
+      <c r="AI22" s="84"/>
+      <c r="AJ22" s="85"/>
+      <c r="AK22" s="81"/>
       <c r="AL22" s="44"/>
       <c r="AM22" s="44"/>
       <c r="AN22" s="44"/>
@@ -12829,22 +12829,22 @@
       <c r="A23" s="2"/>
       <c r="B23" s="39"/>
       <c r="C23" s="37"/>
-      <c r="D23" s="51" t="s">
-        <v>80</v>
+      <c r="D23" s="62" t="s">
+        <v>79</v>
       </c>
-      <c r="E23" s="55"/>
-      <c r="F23" s="55"/>
-      <c r="G23" s="55"/>
-      <c r="H23" s="55"/>
-      <c r="I23" s="55"/>
-      <c r="J23" s="55"/>
-      <c r="K23" s="55"/>
-      <c r="L23" s="55"/>
-      <c r="M23" s="55"/>
-      <c r="N23" s="55"/>
-      <c r="O23" s="55"/>
-      <c r="P23" s="56"/>
-      <c r="Q23" s="50" t="s">
+      <c r="E23" s="64"/>
+      <c r="F23" s="64"/>
+      <c r="G23" s="64"/>
+      <c r="H23" s="64"/>
+      <c r="I23" s="64"/>
+      <c r="J23" s="64"/>
+      <c r="K23" s="64"/>
+      <c r="L23" s="64"/>
+      <c r="M23" s="64"/>
+      <c r="N23" s="64"/>
+      <c r="O23" s="64"/>
+      <c r="P23" s="65"/>
+      <c r="Q23" s="81" t="s">
         <v>62</v>
       </c>
       <c r="R23" s="44"/>
@@ -12853,22 +12853,22 @@
       <c r="U23" s="44"/>
       <c r="V23" s="44"/>
       <c r="W23" s="45"/>
-      <c r="X23" s="50"/>
+      <c r="X23" s="81"/>
       <c r="Y23" s="44"/>
       <c r="Z23" s="44"/>
       <c r="AA23" s="44"/>
       <c r="AB23" s="44"/>
       <c r="AC23" s="44"/>
       <c r="AD23" s="45"/>
-      <c r="AE23" s="51">
+      <c r="AE23" s="62">
         <v>10</v>
       </c>
       <c r="AF23" s="44"/>
       <c r="AG23" s="45"/>
-      <c r="AH23" s="52"/>
-      <c r="AI23" s="53"/>
-      <c r="AJ23" s="54"/>
-      <c r="AK23" s="50"/>
+      <c r="AH23" s="83"/>
+      <c r="AI23" s="84"/>
+      <c r="AJ23" s="85"/>
+      <c r="AK23" s="81"/>
       <c r="AL23" s="44"/>
       <c r="AM23" s="44"/>
       <c r="AN23" s="44"/>
@@ -13116,51 +13116,51 @@
     </row>
     <row r="27" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A27" s="5"/>
-      <c r="B27" s="86" t="s">
+      <c r="B27" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="C27" s="70" t="s">
+      <c r="C27" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="D27" s="71"/>
-      <c r="E27" s="71"/>
-      <c r="F27" s="71"/>
-      <c r="G27" s="71"/>
-      <c r="H27" s="71"/>
-      <c r="I27" s="71"/>
-      <c r="J27" s="71"/>
-      <c r="K27" s="72"/>
-      <c r="L27" s="70" t="s">
+      <c r="D27" s="55"/>
+      <c r="E27" s="55"/>
+      <c r="F27" s="55"/>
+      <c r="G27" s="55"/>
+      <c r="H27" s="55"/>
+      <c r="I27" s="55"/>
+      <c r="J27" s="55"/>
+      <c r="K27" s="56"/>
+      <c r="L27" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="M27" s="71"/>
-      <c r="N27" s="71"/>
-      <c r="O27" s="71"/>
-      <c r="P27" s="71"/>
-      <c r="Q27" s="71"/>
-      <c r="R27" s="71"/>
-      <c r="S27" s="71"/>
-      <c r="T27" s="71"/>
-      <c r="U27" s="71"/>
-      <c r="V27" s="71"/>
-      <c r="W27" s="71"/>
-      <c r="X27" s="71"/>
-      <c r="Y27" s="71"/>
-      <c r="Z27" s="71"/>
-      <c r="AA27" s="71"/>
-      <c r="AB27" s="72"/>
-      <c r="AC27" s="70" t="s">
+      <c r="M27" s="55"/>
+      <c r="N27" s="55"/>
+      <c r="O27" s="55"/>
+      <c r="P27" s="55"/>
+      <c r="Q27" s="55"/>
+      <c r="R27" s="55"/>
+      <c r="S27" s="55"/>
+      <c r="T27" s="55"/>
+      <c r="U27" s="55"/>
+      <c r="V27" s="55"/>
+      <c r="W27" s="55"/>
+      <c r="X27" s="55"/>
+      <c r="Y27" s="55"/>
+      <c r="Z27" s="55"/>
+      <c r="AA27" s="55"/>
+      <c r="AB27" s="56"/>
+      <c r="AC27" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="AD27" s="71"/>
-      <c r="AE27" s="71"/>
-      <c r="AF27" s="71"/>
-      <c r="AG27" s="71"/>
-      <c r="AH27" s="71"/>
-      <c r="AI27" s="71"/>
-      <c r="AJ27" s="71"/>
-      <c r="AK27" s="72"/>
-      <c r="AL27" s="65" t="s">
+      <c r="AD27" s="55"/>
+      <c r="AE27" s="55"/>
+      <c r="AF27" s="55"/>
+      <c r="AG27" s="55"/>
+      <c r="AH27" s="55"/>
+      <c r="AI27" s="55"/>
+      <c r="AJ27" s="55"/>
+      <c r="AK27" s="56"/>
+      <c r="AL27" s="91" t="s">
         <v>12</v>
       </c>
       <c r="AM27" s="44"/>
@@ -13196,43 +13196,43 @@
     </row>
     <row r="28" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A28" s="5"/>
-      <c r="B28" s="75"/>
-      <c r="C28" s="87"/>
-      <c r="D28" s="88"/>
-      <c r="E28" s="88"/>
-      <c r="F28" s="88"/>
-      <c r="G28" s="88"/>
-      <c r="H28" s="88"/>
-      <c r="I28" s="88"/>
-      <c r="J28" s="88"/>
-      <c r="K28" s="89"/>
-      <c r="L28" s="87"/>
-      <c r="M28" s="88"/>
-      <c r="N28" s="88"/>
-      <c r="O28" s="88"/>
-      <c r="P28" s="88"/>
-      <c r="Q28" s="88"/>
-      <c r="R28" s="88"/>
-      <c r="S28" s="88"/>
-      <c r="T28" s="88"/>
-      <c r="U28" s="88"/>
-      <c r="V28" s="88"/>
-      <c r="W28" s="88"/>
-      <c r="X28" s="88"/>
-      <c r="Y28" s="88"/>
-      <c r="Z28" s="88"/>
-      <c r="AA28" s="88"/>
-      <c r="AB28" s="89"/>
-      <c r="AC28" s="73"/>
-      <c r="AD28" s="74"/>
-      <c r="AE28" s="74"/>
-      <c r="AF28" s="74"/>
-      <c r="AG28" s="74"/>
-      <c r="AH28" s="74"/>
-      <c r="AI28" s="74"/>
-      <c r="AJ28" s="74"/>
-      <c r="AK28" s="75"/>
-      <c r="AL28" s="66" t="s">
+      <c r="B28" s="53"/>
+      <c r="C28" s="57"/>
+      <c r="D28" s="58"/>
+      <c r="E28" s="58"/>
+      <c r="F28" s="58"/>
+      <c r="G28" s="58"/>
+      <c r="H28" s="58"/>
+      <c r="I28" s="58"/>
+      <c r="J28" s="58"/>
+      <c r="K28" s="59"/>
+      <c r="L28" s="57"/>
+      <c r="M28" s="58"/>
+      <c r="N28" s="58"/>
+      <c r="O28" s="58"/>
+      <c r="P28" s="58"/>
+      <c r="Q28" s="58"/>
+      <c r="R28" s="58"/>
+      <c r="S28" s="58"/>
+      <c r="T28" s="58"/>
+      <c r="U28" s="58"/>
+      <c r="V28" s="58"/>
+      <c r="W28" s="58"/>
+      <c r="X28" s="58"/>
+      <c r="Y28" s="58"/>
+      <c r="Z28" s="58"/>
+      <c r="AA28" s="58"/>
+      <c r="AB28" s="59"/>
+      <c r="AC28" s="79"/>
+      <c r="AD28" s="61"/>
+      <c r="AE28" s="61"/>
+      <c r="AF28" s="61"/>
+      <c r="AG28" s="61"/>
+      <c r="AH28" s="61"/>
+      <c r="AI28" s="61"/>
+      <c r="AJ28" s="61"/>
+      <c r="AK28" s="53"/>
+      <c r="AL28" s="92" t="s">
         <v>13</v>
       </c>
       <c r="AM28" s="44"/>
@@ -13243,14 +13243,14 @@
       <c r="AR28" s="44"/>
       <c r="AS28" s="44"/>
       <c r="AT28" s="45"/>
-      <c r="AU28" s="66" t="s">
+      <c r="AU28" s="92" t="s">
         <v>14</v>
       </c>
       <c r="AV28" s="44"/>
       <c r="AW28" s="44"/>
       <c r="AX28" s="44"/>
       <c r="AY28" s="45"/>
-      <c r="AZ28" s="66" t="s">
+      <c r="AZ28" s="92" t="s">
         <v>15</v>
       </c>
       <c r="BA28" s="44"/>
@@ -13276,37 +13276,37 @@
         <f ca="1">MAX(B$27:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>1</v>
       </c>
-      <c r="C29" s="78" t="s">
+      <c r="C29" s="66" t="s">
+        <v>117</v>
+      </c>
+      <c r="D29" s="67"/>
+      <c r="E29" s="67"/>
+      <c r="F29" s="67"/>
+      <c r="G29" s="67"/>
+      <c r="H29" s="67"/>
+      <c r="I29" s="67"/>
+      <c r="J29" s="67"/>
+      <c r="K29" s="68"/>
+      <c r="L29" s="69" t="s">
         <v>118</v>
       </c>
-      <c r="D29" s="79"/>
-      <c r="E29" s="79"/>
-      <c r="F29" s="79"/>
-      <c r="G29" s="79"/>
-      <c r="H29" s="79"/>
-      <c r="I29" s="79"/>
-      <c r="J29" s="79"/>
-      <c r="K29" s="80"/>
-      <c r="L29" s="81" t="s">
-        <v>119</v>
-      </c>
-      <c r="M29" s="82"/>
-      <c r="N29" s="82"/>
-      <c r="O29" s="82"/>
-      <c r="P29" s="82"/>
-      <c r="Q29" s="82"/>
-      <c r="R29" s="82"/>
-      <c r="S29" s="82"/>
-      <c r="T29" s="82"/>
-      <c r="U29" s="82"/>
-      <c r="V29" s="82"/>
-      <c r="W29" s="82"/>
-      <c r="X29" s="82"/>
-      <c r="Y29" s="82"/>
-      <c r="Z29" s="82"/>
-      <c r="AA29" s="82"/>
-      <c r="AB29" s="82"/>
-      <c r="AC29" s="55"/>
+      <c r="M29" s="70"/>
+      <c r="N29" s="70"/>
+      <c r="O29" s="70"/>
+      <c r="P29" s="70"/>
+      <c r="Q29" s="70"/>
+      <c r="R29" s="70"/>
+      <c r="S29" s="70"/>
+      <c r="T29" s="70"/>
+      <c r="U29" s="70"/>
+      <c r="V29" s="70"/>
+      <c r="W29" s="70"/>
+      <c r="X29" s="70"/>
+      <c r="Y29" s="70"/>
+      <c r="Z29" s="70"/>
+      <c r="AA29" s="70"/>
+      <c r="AB29" s="70"/>
+      <c r="AC29" s="64"/>
       <c r="AD29" s="44"/>
       <c r="AE29" s="44"/>
       <c r="AF29" s="44"/>
@@ -13315,7 +13315,7 @@
       <c r="AI29" s="44"/>
       <c r="AJ29" s="44"/>
       <c r="AK29" s="45"/>
-      <c r="AL29" s="59"/>
+      <c r="AL29" s="77"/>
       <c r="AM29" s="44"/>
       <c r="AN29" s="44"/>
       <c r="AO29" s="44"/>
@@ -13324,12 +13324,12 @@
       <c r="AR29" s="44"/>
       <c r="AS29" s="44"/>
       <c r="AT29" s="45"/>
-      <c r="AU29" s="59"/>
+      <c r="AU29" s="77"/>
       <c r="AV29" s="44"/>
       <c r="AW29" s="44"/>
       <c r="AX29" s="44"/>
       <c r="AY29" s="45"/>
-      <c r="AZ29" s="62"/>
+      <c r="AZ29" s="78"/>
       <c r="BA29" s="44"/>
       <c r="BB29" s="44"/>
       <c r="BC29" s="44"/>
@@ -13353,37 +13353,37 @@
         <f ca="1">MAX(B$27:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>2</v>
       </c>
-      <c r="C30" s="78" t="s">
+      <c r="C30" s="66" t="s">
+        <v>119</v>
+      </c>
+      <c r="D30" s="67"/>
+      <c r="E30" s="67"/>
+      <c r="F30" s="67"/>
+      <c r="G30" s="67"/>
+      <c r="H30" s="67"/>
+      <c r="I30" s="67"/>
+      <c r="J30" s="67"/>
+      <c r="K30" s="68"/>
+      <c r="L30" s="69" t="s">
         <v>120</v>
       </c>
-      <c r="D30" s="79"/>
-      <c r="E30" s="79"/>
-      <c r="F30" s="79"/>
-      <c r="G30" s="79"/>
-      <c r="H30" s="79"/>
-      <c r="I30" s="79"/>
-      <c r="J30" s="79"/>
-      <c r="K30" s="80"/>
-      <c r="L30" s="81" t="s">
-        <v>121</v>
-      </c>
-      <c r="M30" s="82"/>
-      <c r="N30" s="82"/>
-      <c r="O30" s="82"/>
-      <c r="P30" s="82"/>
-      <c r="Q30" s="82"/>
-      <c r="R30" s="82"/>
-      <c r="S30" s="82"/>
-      <c r="T30" s="82"/>
-      <c r="U30" s="82"/>
-      <c r="V30" s="82"/>
-      <c r="W30" s="82"/>
-      <c r="X30" s="82"/>
-      <c r="Y30" s="82"/>
-      <c r="Z30" s="82"/>
-      <c r="AA30" s="82"/>
-      <c r="AB30" s="82"/>
-      <c r="AC30" s="55"/>
+      <c r="M30" s="70"/>
+      <c r="N30" s="70"/>
+      <c r="O30" s="70"/>
+      <c r="P30" s="70"/>
+      <c r="Q30" s="70"/>
+      <c r="R30" s="70"/>
+      <c r="S30" s="70"/>
+      <c r="T30" s="70"/>
+      <c r="U30" s="70"/>
+      <c r="V30" s="70"/>
+      <c r="W30" s="70"/>
+      <c r="X30" s="70"/>
+      <c r="Y30" s="70"/>
+      <c r="Z30" s="70"/>
+      <c r="AA30" s="70"/>
+      <c r="AB30" s="70"/>
+      <c r="AC30" s="64"/>
       <c r="AD30" s="44"/>
       <c r="AE30" s="44"/>
       <c r="AF30" s="44"/>
@@ -13392,7 +13392,7 @@
       <c r="AI30" s="44"/>
       <c r="AJ30" s="44"/>
       <c r="AK30" s="45"/>
-      <c r="AL30" s="59"/>
+      <c r="AL30" s="77"/>
       <c r="AM30" s="44"/>
       <c r="AN30" s="44"/>
       <c r="AO30" s="44"/>
@@ -13401,12 +13401,12 @@
       <c r="AR30" s="44"/>
       <c r="AS30" s="44"/>
       <c r="AT30" s="45"/>
-      <c r="AU30" s="59"/>
+      <c r="AU30" s="77"/>
       <c r="AV30" s="44"/>
       <c r="AW30" s="44"/>
       <c r="AX30" s="44"/>
       <c r="AY30" s="45"/>
-      <c r="AZ30" s="62"/>
+      <c r="AZ30" s="78"/>
       <c r="BA30" s="44"/>
       <c r="BB30" s="44"/>
       <c r="BC30" s="44"/>
@@ -13431,7 +13431,7 @@
         <v>3</v>
       </c>
       <c r="C31" s="40" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D31" s="41"/>
       <c r="E31" s="41"/>
@@ -13441,24 +13441,24 @@
       <c r="I31" s="41"/>
       <c r="J31" s="41"/>
       <c r="K31" s="42"/>
-      <c r="L31" s="90"/>
-      <c r="M31" s="74"/>
-      <c r="N31" s="74"/>
-      <c r="O31" s="74"/>
-      <c r="P31" s="74"/>
-      <c r="Q31" s="74"/>
-      <c r="R31" s="74"/>
-      <c r="S31" s="74"/>
-      <c r="T31" s="74"/>
-      <c r="U31" s="74"/>
-      <c r="V31" s="74"/>
-      <c r="W31" s="74"/>
-      <c r="X31" s="74"/>
-      <c r="Y31" s="74"/>
-      <c r="Z31" s="74"/>
-      <c r="AA31" s="74"/>
-      <c r="AB31" s="74"/>
-      <c r="AC31" s="51"/>
+      <c r="L31" s="60"/>
+      <c r="M31" s="61"/>
+      <c r="N31" s="61"/>
+      <c r="O31" s="61"/>
+      <c r="P31" s="61"/>
+      <c r="Q31" s="61"/>
+      <c r="R31" s="61"/>
+      <c r="S31" s="61"/>
+      <c r="T31" s="61"/>
+      <c r="U31" s="61"/>
+      <c r="V31" s="61"/>
+      <c r="W31" s="61"/>
+      <c r="X31" s="61"/>
+      <c r="Y31" s="61"/>
+      <c r="Z31" s="61"/>
+      <c r="AA31" s="61"/>
+      <c r="AB31" s="61"/>
+      <c r="AC31" s="62"/>
       <c r="AD31" s="44"/>
       <c r="AE31" s="44"/>
       <c r="AF31" s="44"/>
@@ -13467,7 +13467,7 @@
       <c r="AI31" s="44"/>
       <c r="AJ31" s="44"/>
       <c r="AK31" s="45"/>
-      <c r="AL31" s="59"/>
+      <c r="AL31" s="77"/>
       <c r="AM31" s="44"/>
       <c r="AN31" s="44"/>
       <c r="AO31" s="44"/>
@@ -13476,12 +13476,12 @@
       <c r="AR31" s="44"/>
       <c r="AS31" s="44"/>
       <c r="AT31" s="45"/>
-      <c r="AU31" s="59"/>
+      <c r="AU31" s="77"/>
       <c r="AV31" s="44"/>
       <c r="AW31" s="44"/>
       <c r="AX31" s="44"/>
       <c r="AY31" s="45"/>
-      <c r="AZ31" s="62"/>
+      <c r="AZ31" s="78"/>
       <c r="BA31" s="44"/>
       <c r="BB31" s="44"/>
       <c r="BC31" s="44"/>
@@ -13505,75 +13505,75 @@
         <f ca="1">MAX(B$27:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>4</v>
       </c>
-      <c r="C32" s="77" t="s">
+      <c r="C32" s="63" t="s">
+        <v>68</v>
+      </c>
+      <c r="D32" s="64"/>
+      <c r="E32" s="64"/>
+      <c r="F32" s="64"/>
+      <c r="G32" s="64"/>
+      <c r="H32" s="64"/>
+      <c r="I32" s="64"/>
+      <c r="J32" s="64"/>
+      <c r="K32" s="65"/>
+      <c r="L32" s="62" t="s">
         <v>69</v>
       </c>
-      <c r="D32" s="55"/>
-      <c r="E32" s="55"/>
-      <c r="F32" s="55"/>
-      <c r="G32" s="55"/>
-      <c r="H32" s="55"/>
-      <c r="I32" s="55"/>
-      <c r="J32" s="55"/>
-      <c r="K32" s="56"/>
-      <c r="L32" s="51" t="s">
-        <v>70</v>
-      </c>
-      <c r="M32" s="55"/>
-      <c r="N32" s="55"/>
-      <c r="O32" s="55"/>
-      <c r="P32" s="55"/>
-      <c r="Q32" s="55"/>
-      <c r="R32" s="55"/>
-      <c r="S32" s="55"/>
-      <c r="T32" s="55"/>
-      <c r="U32" s="55"/>
-      <c r="V32" s="55"/>
-      <c r="W32" s="55"/>
-      <c r="X32" s="55"/>
-      <c r="Y32" s="55"/>
-      <c r="Z32" s="55"/>
-      <c r="AA32" s="55"/>
-      <c r="AB32" s="56"/>
-      <c r="AC32" s="51"/>
-      <c r="AD32" s="55"/>
-      <c r="AE32" s="55"/>
-      <c r="AF32" s="55"/>
-      <c r="AG32" s="55"/>
-      <c r="AH32" s="55"/>
-      <c r="AI32" s="55"/>
-      <c r="AJ32" s="55"/>
-      <c r="AK32" s="56"/>
-      <c r="AL32" s="59"/>
-      <c r="AM32" s="60"/>
-      <c r="AN32" s="60"/>
-      <c r="AO32" s="60"/>
-      <c r="AP32" s="60"/>
-      <c r="AQ32" s="60"/>
-      <c r="AR32" s="60"/>
-      <c r="AS32" s="60"/>
-      <c r="AT32" s="61"/>
-      <c r="AU32" s="59"/>
-      <c r="AV32" s="60"/>
-      <c r="AW32" s="60"/>
-      <c r="AX32" s="60"/>
-      <c r="AY32" s="61"/>
-      <c r="AZ32" s="62"/>
-      <c r="BA32" s="63"/>
-      <c r="BB32" s="63"/>
-      <c r="BC32" s="63"/>
-      <c r="BD32" s="63"/>
-      <c r="BE32" s="63"/>
-      <c r="BF32" s="63"/>
-      <c r="BG32" s="63"/>
-      <c r="BH32" s="63"/>
-      <c r="BI32" s="63"/>
-      <c r="BJ32" s="63"/>
-      <c r="BK32" s="63"/>
-      <c r="BL32" s="63"/>
-      <c r="BM32" s="63"/>
-      <c r="BN32" s="63"/>
-      <c r="BO32" s="64"/>
+      <c r="M32" s="64"/>
+      <c r="N32" s="64"/>
+      <c r="O32" s="64"/>
+      <c r="P32" s="64"/>
+      <c r="Q32" s="64"/>
+      <c r="R32" s="64"/>
+      <c r="S32" s="64"/>
+      <c r="T32" s="64"/>
+      <c r="U32" s="64"/>
+      <c r="V32" s="64"/>
+      <c r="W32" s="64"/>
+      <c r="X32" s="64"/>
+      <c r="Y32" s="64"/>
+      <c r="Z32" s="64"/>
+      <c r="AA32" s="64"/>
+      <c r="AB32" s="65"/>
+      <c r="AC32" s="62"/>
+      <c r="AD32" s="64"/>
+      <c r="AE32" s="64"/>
+      <c r="AF32" s="64"/>
+      <c r="AG32" s="64"/>
+      <c r="AH32" s="64"/>
+      <c r="AI32" s="64"/>
+      <c r="AJ32" s="64"/>
+      <c r="AK32" s="65"/>
+      <c r="AL32" s="77"/>
+      <c r="AM32" s="87"/>
+      <c r="AN32" s="87"/>
+      <c r="AO32" s="87"/>
+      <c r="AP32" s="87"/>
+      <c r="AQ32" s="87"/>
+      <c r="AR32" s="87"/>
+      <c r="AS32" s="87"/>
+      <c r="AT32" s="88"/>
+      <c r="AU32" s="77"/>
+      <c r="AV32" s="87"/>
+      <c r="AW32" s="87"/>
+      <c r="AX32" s="87"/>
+      <c r="AY32" s="88"/>
+      <c r="AZ32" s="78"/>
+      <c r="BA32" s="89"/>
+      <c r="BB32" s="89"/>
+      <c r="BC32" s="89"/>
+      <c r="BD32" s="89"/>
+      <c r="BE32" s="89"/>
+      <c r="BF32" s="89"/>
+      <c r="BG32" s="89"/>
+      <c r="BH32" s="89"/>
+      <c r="BI32" s="89"/>
+      <c r="BJ32" s="89"/>
+      <c r="BK32" s="89"/>
+      <c r="BL32" s="89"/>
+      <c r="BM32" s="89"/>
+      <c r="BN32" s="89"/>
+      <c r="BO32" s="90"/>
       <c r="BP32" s="2"/>
     </row>
     <row r="33" spans="1:68" ht="16.5">
@@ -14564,12 +14564,76 @@
     </row>
   </sheetData>
   <mergeCells count="92">
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="I7:BO7"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="I8:BO8"/>
-    <mergeCell ref="C9:H9"/>
-    <mergeCell ref="I9:BO9"/>
+    <mergeCell ref="AZ32:BO32"/>
+    <mergeCell ref="L31:AB31"/>
+    <mergeCell ref="AC31:AK31"/>
+    <mergeCell ref="AL31:AT31"/>
+    <mergeCell ref="AU31:AY31"/>
+    <mergeCell ref="AZ31:BO31"/>
+    <mergeCell ref="C32:K32"/>
+    <mergeCell ref="L32:AB32"/>
+    <mergeCell ref="AC32:AK32"/>
+    <mergeCell ref="AL32:AT32"/>
+    <mergeCell ref="AU32:AY32"/>
+    <mergeCell ref="AZ30:BO30"/>
+    <mergeCell ref="C29:K29"/>
+    <mergeCell ref="L29:AB29"/>
+    <mergeCell ref="AC29:AK29"/>
+    <mergeCell ref="AL29:AT29"/>
+    <mergeCell ref="AU29:AY29"/>
+    <mergeCell ref="AZ29:BO29"/>
+    <mergeCell ref="C30:K30"/>
+    <mergeCell ref="L30:AB30"/>
+    <mergeCell ref="AC30:AK30"/>
+    <mergeCell ref="AL30:AT30"/>
+    <mergeCell ref="AU30:AY30"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:K28"/>
+    <mergeCell ref="L27:AB28"/>
+    <mergeCell ref="AC27:AK28"/>
+    <mergeCell ref="AL27:BO27"/>
+    <mergeCell ref="AL28:AT28"/>
+    <mergeCell ref="AU28:AY28"/>
+    <mergeCell ref="AZ28:BO28"/>
+    <mergeCell ref="AK22:BO22"/>
+    <mergeCell ref="D23:P23"/>
+    <mergeCell ref="Q23:W23"/>
+    <mergeCell ref="X23:AD23"/>
+    <mergeCell ref="AE23:AG23"/>
+    <mergeCell ref="AH23:AJ23"/>
+    <mergeCell ref="AK23:BO23"/>
+    <mergeCell ref="D22:P22"/>
+    <mergeCell ref="Q22:W22"/>
+    <mergeCell ref="X22:AD22"/>
+    <mergeCell ref="AE22:AG22"/>
+    <mergeCell ref="AH22:AJ22"/>
+    <mergeCell ref="Q21:W21"/>
+    <mergeCell ref="X21:AD21"/>
+    <mergeCell ref="AE21:AG21"/>
+    <mergeCell ref="AH21:AJ21"/>
+    <mergeCell ref="AK21:BO21"/>
+    <mergeCell ref="D20:P20"/>
+    <mergeCell ref="Q20:W20"/>
+    <mergeCell ref="X20:AD20"/>
+    <mergeCell ref="AE20:AG20"/>
+    <mergeCell ref="AH20:AJ20"/>
+    <mergeCell ref="AK20:BO20"/>
+    <mergeCell ref="AK18:BO18"/>
+    <mergeCell ref="Q19:W19"/>
+    <mergeCell ref="X19:AD19"/>
+    <mergeCell ref="AE19:AG19"/>
+    <mergeCell ref="AH19:AJ19"/>
+    <mergeCell ref="AK19:BO19"/>
+    <mergeCell ref="C17:P17"/>
+    <mergeCell ref="Q17:W17"/>
+    <mergeCell ref="X17:AD17"/>
+    <mergeCell ref="AE17:AG17"/>
+    <mergeCell ref="AK17:BO17"/>
+    <mergeCell ref="C18:P18"/>
+    <mergeCell ref="Q18:W18"/>
+    <mergeCell ref="X18:AD18"/>
+    <mergeCell ref="AE18:AG18"/>
+    <mergeCell ref="AH18:AJ18"/>
     <mergeCell ref="C10:H10"/>
     <mergeCell ref="I10:BO10"/>
     <mergeCell ref="B16:D16"/>
@@ -14586,76 +14650,12 @@
     <mergeCell ref="AE15:AG15"/>
     <mergeCell ref="AH15:AJ15"/>
     <mergeCell ref="AK15:BO15"/>
-    <mergeCell ref="C18:P18"/>
-    <mergeCell ref="Q18:W18"/>
-    <mergeCell ref="X18:AD18"/>
-    <mergeCell ref="AE18:AG18"/>
-    <mergeCell ref="AH18:AJ18"/>
-    <mergeCell ref="C17:P17"/>
-    <mergeCell ref="Q17:W17"/>
-    <mergeCell ref="X17:AD17"/>
-    <mergeCell ref="AE17:AG17"/>
-    <mergeCell ref="AK17:BO17"/>
-    <mergeCell ref="AK20:BO20"/>
-    <mergeCell ref="AK18:BO18"/>
-    <mergeCell ref="Q19:W19"/>
-    <mergeCell ref="X19:AD19"/>
-    <mergeCell ref="AE19:AG19"/>
-    <mergeCell ref="AH19:AJ19"/>
-    <mergeCell ref="AK19:BO19"/>
-    <mergeCell ref="D20:P20"/>
-    <mergeCell ref="Q20:W20"/>
-    <mergeCell ref="X20:AD20"/>
-    <mergeCell ref="AE20:AG20"/>
-    <mergeCell ref="AH20:AJ20"/>
-    <mergeCell ref="Q21:W21"/>
-    <mergeCell ref="X21:AD21"/>
-    <mergeCell ref="AE21:AG21"/>
-    <mergeCell ref="AH21:AJ21"/>
-    <mergeCell ref="AK21:BO21"/>
-    <mergeCell ref="AK22:BO22"/>
-    <mergeCell ref="D23:P23"/>
-    <mergeCell ref="Q23:W23"/>
-    <mergeCell ref="X23:AD23"/>
-    <mergeCell ref="AE23:AG23"/>
-    <mergeCell ref="AH23:AJ23"/>
-    <mergeCell ref="AK23:BO23"/>
-    <mergeCell ref="D22:P22"/>
-    <mergeCell ref="Q22:W22"/>
-    <mergeCell ref="X22:AD22"/>
-    <mergeCell ref="AE22:AG22"/>
-    <mergeCell ref="AH22:AJ22"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:K28"/>
-    <mergeCell ref="L27:AB28"/>
-    <mergeCell ref="AC27:AK28"/>
-    <mergeCell ref="AL27:BO27"/>
-    <mergeCell ref="AL28:AT28"/>
-    <mergeCell ref="AU28:AY28"/>
-    <mergeCell ref="AZ28:BO28"/>
-    <mergeCell ref="AZ30:BO30"/>
-    <mergeCell ref="C29:K29"/>
-    <mergeCell ref="L29:AB29"/>
-    <mergeCell ref="AC29:AK29"/>
-    <mergeCell ref="AL29:AT29"/>
-    <mergeCell ref="AU29:AY29"/>
-    <mergeCell ref="AZ29:BO29"/>
-    <mergeCell ref="C30:K30"/>
-    <mergeCell ref="L30:AB30"/>
-    <mergeCell ref="AC30:AK30"/>
-    <mergeCell ref="AL30:AT30"/>
-    <mergeCell ref="AU30:AY30"/>
-    <mergeCell ref="C32:K32"/>
-    <mergeCell ref="L32:AB32"/>
-    <mergeCell ref="AC32:AK32"/>
-    <mergeCell ref="AL32:AT32"/>
-    <mergeCell ref="AU32:AY32"/>
-    <mergeCell ref="AZ32:BO32"/>
-    <mergeCell ref="L31:AB31"/>
-    <mergeCell ref="AC31:AK31"/>
-    <mergeCell ref="AL31:AT31"/>
-    <mergeCell ref="AU31:AY31"/>
-    <mergeCell ref="AZ31:BO31"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="I7:BO7"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="I8:BO8"/>
+    <mergeCell ref="C9:H9"/>
+    <mergeCell ref="I9:BO9"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <dataValidations count="1">
@@ -15143,7 +15143,7 @@
     <row r="7" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A7" s="2"/>
       <c r="B7" s="13"/>
-      <c r="C7" s="67" t="s">
+      <c r="C7" s="74" t="s">
         <v>23</v>
       </c>
       <c r="D7" s="44"/>
@@ -15151,7 +15151,7 @@
       <c r="F7" s="44"/>
       <c r="G7" s="44"/>
       <c r="H7" s="45"/>
-      <c r="I7" s="51" t="s">
+      <c r="I7" s="62" t="s">
         <v>35</v>
       </c>
       <c r="J7" s="44"/>
@@ -15217,7 +15217,7 @@
     <row r="8" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A8" s="2"/>
       <c r="B8" s="13"/>
-      <c r="C8" s="67" t="s">
+      <c r="C8" s="74" t="s">
         <v>20</v>
       </c>
       <c r="D8" s="44"/>
@@ -15225,7 +15225,7 @@
       <c r="F8" s="44"/>
       <c r="G8" s="44"/>
       <c r="H8" s="45"/>
-      <c r="I8" s="51" t="s">
+      <c r="I8" s="62" t="s">
         <v>25</v>
       </c>
       <c r="J8" s="44"/>
@@ -15291,7 +15291,7 @@
     <row r="9" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A9" s="2"/>
       <c r="B9" s="13"/>
-      <c r="C9" s="67" t="s">
+      <c r="C9" s="74" t="s">
         <v>26</v>
       </c>
       <c r="D9" s="44"/>
@@ -15299,7 +15299,7 @@
       <c r="F9" s="44"/>
       <c r="G9" s="44"/>
       <c r="H9" s="45"/>
-      <c r="I9" s="51" t="s">
+      <c r="I9" s="62" t="s">
         <v>27</v>
       </c>
       <c r="J9" s="44"/>
@@ -15365,75 +15365,75 @@
     <row r="10" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A10" s="32"/>
       <c r="B10" s="33"/>
-      <c r="C10" s="67" t="s">
-        <v>68</v>
+      <c r="C10" s="74" t="s">
+        <v>128</v>
       </c>
-      <c r="D10" s="68"/>
-      <c r="E10" s="68"/>
-      <c r="F10" s="68"/>
-      <c r="G10" s="68"/>
-      <c r="H10" s="68"/>
-      <c r="I10" s="69" t="s">
-        <v>125</v>
+      <c r="D10" s="75"/>
+      <c r="E10" s="75"/>
+      <c r="F10" s="75"/>
+      <c r="G10" s="75"/>
+      <c r="H10" s="75"/>
+      <c r="I10" s="76" t="s">
+        <v>124</v>
       </c>
-      <c r="J10" s="69"/>
-      <c r="K10" s="69"/>
-      <c r="L10" s="69"/>
-      <c r="M10" s="69"/>
-      <c r="N10" s="69"/>
-      <c r="O10" s="69"/>
-      <c r="P10" s="69"/>
-      <c r="Q10" s="69"/>
-      <c r="R10" s="69"/>
-      <c r="S10" s="69"/>
-      <c r="T10" s="69"/>
-      <c r="U10" s="69"/>
-      <c r="V10" s="69"/>
-      <c r="W10" s="69"/>
-      <c r="X10" s="69"/>
-      <c r="Y10" s="69"/>
-      <c r="Z10" s="69"/>
-      <c r="AA10" s="69"/>
-      <c r="AB10" s="69"/>
-      <c r="AC10" s="69"/>
-      <c r="AD10" s="69"/>
-      <c r="AE10" s="69"/>
-      <c r="AF10" s="69"/>
-      <c r="AG10" s="69"/>
-      <c r="AH10" s="69"/>
-      <c r="AI10" s="69"/>
-      <c r="AJ10" s="69"/>
-      <c r="AK10" s="69"/>
-      <c r="AL10" s="69"/>
-      <c r="AM10" s="69"/>
-      <c r="AN10" s="69"/>
-      <c r="AO10" s="69"/>
-      <c r="AP10" s="69"/>
-      <c r="AQ10" s="69"/>
-      <c r="AR10" s="69"/>
-      <c r="AS10" s="69"/>
-      <c r="AT10" s="69"/>
-      <c r="AU10" s="69"/>
-      <c r="AV10" s="69"/>
-      <c r="AW10" s="69"/>
-      <c r="AX10" s="69"/>
-      <c r="AY10" s="69"/>
-      <c r="AZ10" s="69"/>
-      <c r="BA10" s="69"/>
-      <c r="BB10" s="69"/>
-      <c r="BC10" s="69"/>
-      <c r="BD10" s="69"/>
-      <c r="BE10" s="69"/>
-      <c r="BF10" s="69"/>
-      <c r="BG10" s="69"/>
-      <c r="BH10" s="69"/>
-      <c r="BI10" s="69"/>
-      <c r="BJ10" s="69"/>
-      <c r="BK10" s="69"/>
-      <c r="BL10" s="69"/>
-      <c r="BM10" s="69"/>
-      <c r="BN10" s="69"/>
-      <c r="BO10" s="69"/>
+      <c r="J10" s="76"/>
+      <c r="K10" s="76"/>
+      <c r="L10" s="76"/>
+      <c r="M10" s="76"/>
+      <c r="N10" s="76"/>
+      <c r="O10" s="76"/>
+      <c r="P10" s="76"/>
+      <c r="Q10" s="76"/>
+      <c r="R10" s="76"/>
+      <c r="S10" s="76"/>
+      <c r="T10" s="76"/>
+      <c r="U10" s="76"/>
+      <c r="V10" s="76"/>
+      <c r="W10" s="76"/>
+      <c r="X10" s="76"/>
+      <c r="Y10" s="76"/>
+      <c r="Z10" s="76"/>
+      <c r="AA10" s="76"/>
+      <c r="AB10" s="76"/>
+      <c r="AC10" s="76"/>
+      <c r="AD10" s="76"/>
+      <c r="AE10" s="76"/>
+      <c r="AF10" s="76"/>
+      <c r="AG10" s="76"/>
+      <c r="AH10" s="76"/>
+      <c r="AI10" s="76"/>
+      <c r="AJ10" s="76"/>
+      <c r="AK10" s="76"/>
+      <c r="AL10" s="76"/>
+      <c r="AM10" s="76"/>
+      <c r="AN10" s="76"/>
+      <c r="AO10" s="76"/>
+      <c r="AP10" s="76"/>
+      <c r="AQ10" s="76"/>
+      <c r="AR10" s="76"/>
+      <c r="AS10" s="76"/>
+      <c r="AT10" s="76"/>
+      <c r="AU10" s="76"/>
+      <c r="AV10" s="76"/>
+      <c r="AW10" s="76"/>
+      <c r="AX10" s="76"/>
+      <c r="AY10" s="76"/>
+      <c r="AZ10" s="76"/>
+      <c r="BA10" s="76"/>
+      <c r="BB10" s="76"/>
+      <c r="BC10" s="76"/>
+      <c r="BD10" s="76"/>
+      <c r="BE10" s="76"/>
+      <c r="BF10" s="76"/>
+      <c r="BG10" s="76"/>
+      <c r="BH10" s="76"/>
+      <c r="BI10" s="76"/>
+      <c r="BJ10" s="76"/>
+      <c r="BK10" s="76"/>
+      <c r="BL10" s="76"/>
+      <c r="BM10" s="76"/>
+      <c r="BN10" s="76"/>
+      <c r="BO10" s="76"/>
       <c r="BP10" s="32"/>
     </row>
     <row r="11" spans="1:68" ht="16.5" outlineLevel="1">
@@ -15512,15 +15512,15 @@
       <c r="A12" s="2"/>
       <c r="B12" s="13"/>
       <c r="C12" s="17"/>
-      <c r="D12" s="51" t="s">
-        <v>78</v>
+      <c r="D12" s="62" t="s">
+        <v>77</v>
       </c>
       <c r="E12" s="44"/>
       <c r="F12" s="44"/>
       <c r="G12" s="44"/>
       <c r="H12" s="45"/>
-      <c r="I12" s="55" t="s">
-        <v>79</v>
+      <c r="I12" s="64" t="s">
+        <v>78</v>
       </c>
       <c r="J12" s="44"/>
       <c r="K12" s="44"/>
@@ -15584,11 +15584,11 @@
     </row>
     <row r="13" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A13" s="2"/>
-      <c r="B13" s="76" t="s">
+      <c r="B13" s="80" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="71"/>
-      <c r="D13" s="71"/>
+      <c r="C13" s="55"/>
+      <c r="D13" s="55"/>
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
       <c r="G13" s="10"/>
@@ -15657,7 +15657,7 @@
     <row r="14" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A14" s="2"/>
       <c r="B14" s="18"/>
-      <c r="C14" s="46" t="s">
+      <c r="C14" s="48" t="s">
         <v>6</v>
       </c>
       <c r="D14" s="44"/>
@@ -15673,7 +15673,7 @@
       <c r="N14" s="44"/>
       <c r="O14" s="44"/>
       <c r="P14" s="45"/>
-      <c r="Q14" s="46" t="s">
+      <c r="Q14" s="48" t="s">
         <v>7</v>
       </c>
       <c r="R14" s="44"/>
@@ -15682,7 +15682,7 @@
       <c r="U14" s="44"/>
       <c r="V14" s="44"/>
       <c r="W14" s="45"/>
-      <c r="X14" s="46" t="s">
+      <c r="X14" s="48" t="s">
         <v>8</v>
       </c>
       <c r="Y14" s="44"/>
@@ -15691,7 +15691,7 @@
       <c r="AB14" s="44"/>
       <c r="AC14" s="44"/>
       <c r="AD14" s="45"/>
-      <c r="AE14" s="67" t="s">
+      <c r="AE14" s="74" t="s">
         <v>21</v>
       </c>
       <c r="AF14" s="44"/>
@@ -15701,7 +15701,7 @@
       </c>
       <c r="AI14" s="19"/>
       <c r="AJ14" s="19"/>
-      <c r="AK14" s="46" t="s">
+      <c r="AK14" s="48" t="s">
         <v>31</v>
       </c>
       <c r="AL14" s="44"/>
@@ -15740,7 +15740,7 @@
       <c r="A15" s="2"/>
       <c r="B15" s="13"/>
       <c r="C15" s="20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D15" s="21"/>
       <c r="E15" s="21"/>
@@ -15755,7 +15755,7 @@
       <c r="N15" s="22"/>
       <c r="O15" s="22"/>
       <c r="P15" s="23"/>
-      <c r="Q15" s="57" t="s">
+      <c r="Q15" s="82" t="s">
         <v>56</v>
       </c>
       <c r="R15" s="44"/>
@@ -15764,7 +15764,7 @@
       <c r="U15" s="44"/>
       <c r="V15" s="44"/>
       <c r="W15" s="45"/>
-      <c r="X15" s="50" t="s">
+      <c r="X15" s="81" t="s">
         <v>38</v>
       </c>
       <c r="Y15" s="44"/>
@@ -15773,15 +15773,15 @@
       <c r="AB15" s="44"/>
       <c r="AC15" s="44"/>
       <c r="AD15" s="45"/>
-      <c r="AE15" s="51">
+      <c r="AE15" s="62">
         <v>6</v>
       </c>
       <c r="AF15" s="44"/>
       <c r="AG15" s="45"/>
-      <c r="AH15" s="52"/>
-      <c r="AI15" s="53"/>
-      <c r="AJ15" s="54"/>
-      <c r="AK15" s="50"/>
+      <c r="AH15" s="83"/>
+      <c r="AI15" s="84"/>
+      <c r="AJ15" s="85"/>
+      <c r="AK15" s="81"/>
       <c r="AL15" s="44"/>
       <c r="AM15" s="44"/>
       <c r="AN15" s="44"/>
@@ -15816,11 +15816,11 @@
     </row>
     <row r="16" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A16" s="2"/>
-      <c r="B16" s="76" t="s">
+      <c r="B16" s="80" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="71"/>
-      <c r="D16" s="71"/>
+      <c r="C16" s="55"/>
+      <c r="D16" s="55"/>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
@@ -15889,7 +15889,7 @@
     <row r="17" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A17" s="2"/>
       <c r="B17" s="18"/>
-      <c r="C17" s="46" t="s">
+      <c r="C17" s="48" t="s">
         <v>6</v>
       </c>
       <c r="D17" s="44"/>
@@ -15905,7 +15905,7 @@
       <c r="N17" s="44"/>
       <c r="O17" s="44"/>
       <c r="P17" s="45"/>
-      <c r="Q17" s="46" t="s">
+      <c r="Q17" s="48" t="s">
         <v>7</v>
       </c>
       <c r="R17" s="44"/>
@@ -15914,7 +15914,7 @@
       <c r="U17" s="44"/>
       <c r="V17" s="44"/>
       <c r="W17" s="45"/>
-      <c r="X17" s="46" t="s">
+      <c r="X17" s="48" t="s">
         <v>8</v>
       </c>
       <c r="Y17" s="44"/>
@@ -15923,7 +15923,7 @@
       <c r="AB17" s="44"/>
       <c r="AC17" s="44"/>
       <c r="AD17" s="45"/>
-      <c r="AE17" s="67" t="s">
+      <c r="AE17" s="74" t="s">
         <v>21</v>
       </c>
       <c r="AF17" s="44"/>
@@ -15933,7 +15933,7 @@
       </c>
       <c r="AI17" s="19"/>
       <c r="AJ17" s="19"/>
-      <c r="AK17" s="46" t="s">
+      <c r="AK17" s="48" t="s">
         <v>31</v>
       </c>
       <c r="AL17" s="44"/>
@@ -15971,8 +15971,8 @@
     <row r="18" spans="1:68" ht="33" customHeight="1" outlineLevel="1">
       <c r="A18" s="2"/>
       <c r="B18" s="13"/>
-      <c r="C18" s="51" t="s">
-        <v>81</v>
+      <c r="C18" s="62" t="s">
+        <v>80</v>
       </c>
       <c r="D18" s="44"/>
       <c r="E18" s="44"/>
@@ -15987,7 +15987,7 @@
       <c r="N18" s="44"/>
       <c r="O18" s="44"/>
       <c r="P18" s="45"/>
-      <c r="Q18" s="57" t="s">
+      <c r="Q18" s="82" t="s">
         <v>33</v>
       </c>
       <c r="R18" s="44"/>
@@ -15996,7 +15996,7 @@
       <c r="U18" s="44"/>
       <c r="V18" s="44"/>
       <c r="W18" s="45"/>
-      <c r="X18" s="50" t="s">
+      <c r="X18" s="81" t="s">
         <v>34</v>
       </c>
       <c r="Y18" s="44"/>
@@ -16005,16 +16005,16 @@
       <c r="AB18" s="44"/>
       <c r="AC18" s="44"/>
       <c r="AD18" s="45"/>
-      <c r="AE18" s="51">
+      <c r="AE18" s="62">
         <v>1</v>
       </c>
       <c r="AF18" s="44"/>
       <c r="AG18" s="45"/>
-      <c r="AH18" s="52"/>
-      <c r="AI18" s="53"/>
-      <c r="AJ18" s="54"/>
-      <c r="AK18" s="58" t="s">
-        <v>82</v>
+      <c r="AH18" s="83"/>
+      <c r="AI18" s="84"/>
+      <c r="AJ18" s="85"/>
+      <c r="AK18" s="86" t="s">
+        <v>81</v>
       </c>
       <c r="AL18" s="44"/>
       <c r="AM18" s="44"/>
@@ -16052,7 +16052,7 @@
       <c r="A19" s="2"/>
       <c r="B19" s="13"/>
       <c r="C19" s="20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D19" s="21"/>
       <c r="E19" s="21"/>
@@ -16067,14 +16067,14 @@
       <c r="N19" s="22"/>
       <c r="O19" s="22"/>
       <c r="P19" s="23"/>
-      <c r="Q19" s="57"/>
+      <c r="Q19" s="82"/>
       <c r="R19" s="44"/>
       <c r="S19" s="44"/>
       <c r="T19" s="44"/>
       <c r="U19" s="44"/>
       <c r="V19" s="44"/>
       <c r="W19" s="45"/>
-      <c r="X19" s="50" t="s">
+      <c r="X19" s="81" t="s">
         <v>41</v>
       </c>
       <c r="Y19" s="44"/>
@@ -16083,14 +16083,14 @@
       <c r="AB19" s="44"/>
       <c r="AC19" s="44"/>
       <c r="AD19" s="45"/>
-      <c r="AE19" s="51"/>
+      <c r="AE19" s="62"/>
       <c r="AF19" s="44"/>
       <c r="AG19" s="45"/>
-      <c r="AH19" s="52"/>
-      <c r="AI19" s="53"/>
-      <c r="AJ19" s="54"/>
-      <c r="AK19" s="50" t="s">
-        <v>84</v>
+      <c r="AH19" s="83"/>
+      <c r="AI19" s="84"/>
+      <c r="AJ19" s="85"/>
+      <c r="AK19" s="81" t="s">
+        <v>83</v>
       </c>
       <c r="AL19" s="44"/>
       <c r="AM19" s="44"/>
@@ -16128,23 +16128,23 @@
       <c r="A20" s="2"/>
       <c r="B20" s="13"/>
       <c r="C20" s="37"/>
-      <c r="D20" s="51" t="s">
-        <v>85</v>
+      <c r="D20" s="62" t="s">
+        <v>84</v>
       </c>
-      <c r="E20" s="55"/>
-      <c r="F20" s="55"/>
-      <c r="G20" s="55"/>
-      <c r="H20" s="55"/>
-      <c r="I20" s="55"/>
-      <c r="J20" s="55"/>
-      <c r="K20" s="55"/>
-      <c r="L20" s="55"/>
-      <c r="M20" s="55"/>
-      <c r="N20" s="55"/>
-      <c r="O20" s="55"/>
-      <c r="P20" s="56"/>
-      <c r="Q20" s="57" t="s">
-        <v>127</v>
+      <c r="E20" s="64"/>
+      <c r="F20" s="64"/>
+      <c r="G20" s="64"/>
+      <c r="H20" s="64"/>
+      <c r="I20" s="64"/>
+      <c r="J20" s="64"/>
+      <c r="K20" s="64"/>
+      <c r="L20" s="64"/>
+      <c r="M20" s="64"/>
+      <c r="N20" s="64"/>
+      <c r="O20" s="64"/>
+      <c r="P20" s="65"/>
+      <c r="Q20" s="82" t="s">
+        <v>126</v>
       </c>
       <c r="R20" s="44"/>
       <c r="S20" s="44"/>
@@ -16152,20 +16152,20 @@
       <c r="U20" s="44"/>
       <c r="V20" s="44"/>
       <c r="W20" s="45"/>
-      <c r="X20" s="50"/>
+      <c r="X20" s="81"/>
       <c r="Y20" s="44"/>
       <c r="Z20" s="44"/>
       <c r="AA20" s="44"/>
       <c r="AB20" s="44"/>
       <c r="AC20" s="44"/>
       <c r="AD20" s="45"/>
-      <c r="AE20" s="51"/>
+      <c r="AE20" s="62"/>
       <c r="AF20" s="44"/>
       <c r="AG20" s="45"/>
-      <c r="AH20" s="52"/>
-      <c r="AI20" s="53"/>
-      <c r="AJ20" s="54"/>
-      <c r="AK20" s="50"/>
+      <c r="AH20" s="83"/>
+      <c r="AI20" s="84"/>
+      <c r="AJ20" s="85"/>
+      <c r="AK20" s="81"/>
       <c r="AL20" s="44"/>
       <c r="AM20" s="44"/>
       <c r="AN20" s="44"/>
@@ -16202,7 +16202,7 @@
       <c r="A21" s="2"/>
       <c r="B21" s="13"/>
       <c r="C21" s="38" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D21" s="21"/>
       <c r="E21" s="21"/>
@@ -16217,30 +16217,30 @@
       <c r="N21" s="22"/>
       <c r="O21" s="22"/>
       <c r="P21" s="23"/>
-      <c r="Q21" s="57"/>
+      <c r="Q21" s="82"/>
       <c r="R21" s="44"/>
       <c r="S21" s="44"/>
       <c r="T21" s="44"/>
       <c r="U21" s="44"/>
       <c r="V21" s="44"/>
       <c r="W21" s="45"/>
-      <c r="X21" s="50"/>
+      <c r="X21" s="81"/>
       <c r="Y21" s="44"/>
       <c r="Z21" s="44"/>
       <c r="AA21" s="44"/>
       <c r="AB21" s="44"/>
       <c r="AC21" s="44"/>
       <c r="AD21" s="45"/>
-      <c r="AE21" s="51"/>
+      <c r="AE21" s="62"/>
       <c r="AF21" s="44"/>
       <c r="AG21" s="45"/>
-      <c r="AH21" s="52" t="s">
-        <v>88</v>
+      <c r="AH21" s="83" t="s">
+        <v>87</v>
       </c>
-      <c r="AI21" s="53"/>
-      <c r="AJ21" s="54"/>
-      <c r="AK21" s="50" t="s">
-        <v>122</v>
+      <c r="AI21" s="84"/>
+      <c r="AJ21" s="85"/>
+      <c r="AK21" s="81" t="s">
+        <v>121</v>
       </c>
       <c r="AL21" s="44"/>
       <c r="AM21" s="44"/>
@@ -16278,22 +16278,22 @@
       <c r="A22" s="2"/>
       <c r="B22" s="13"/>
       <c r="C22" s="24"/>
-      <c r="D22" s="51" t="s">
-        <v>87</v>
+      <c r="D22" s="62" t="s">
+        <v>86</v>
       </c>
-      <c r="E22" s="55"/>
-      <c r="F22" s="55"/>
-      <c r="G22" s="55"/>
-      <c r="H22" s="55"/>
-      <c r="I22" s="55"/>
-      <c r="J22" s="55"/>
-      <c r="K22" s="55"/>
-      <c r="L22" s="55"/>
-      <c r="M22" s="55"/>
-      <c r="N22" s="55"/>
-      <c r="O22" s="55"/>
-      <c r="P22" s="56"/>
-      <c r="Q22" s="57" t="s">
+      <c r="E22" s="64"/>
+      <c r="F22" s="64"/>
+      <c r="G22" s="64"/>
+      <c r="H22" s="64"/>
+      <c r="I22" s="64"/>
+      <c r="J22" s="64"/>
+      <c r="K22" s="64"/>
+      <c r="L22" s="64"/>
+      <c r="M22" s="64"/>
+      <c r="N22" s="64"/>
+      <c r="O22" s="64"/>
+      <c r="P22" s="65"/>
+      <c r="Q22" s="82" t="s">
         <v>33</v>
       </c>
       <c r="R22" s="44"/>
@@ -16302,20 +16302,20 @@
       <c r="U22" s="44"/>
       <c r="V22" s="44"/>
       <c r="W22" s="45"/>
-      <c r="X22" s="50"/>
+      <c r="X22" s="81"/>
       <c r="Y22" s="44"/>
       <c r="Z22" s="44"/>
       <c r="AA22" s="44"/>
       <c r="AB22" s="44"/>
       <c r="AC22" s="44"/>
       <c r="AD22" s="45"/>
-      <c r="AE22" s="51"/>
+      <c r="AE22" s="62"/>
       <c r="AF22" s="44"/>
       <c r="AG22" s="45"/>
-      <c r="AH22" s="52"/>
-      <c r="AI22" s="53"/>
-      <c r="AJ22" s="54"/>
-      <c r="AK22" s="50"/>
+      <c r="AH22" s="83"/>
+      <c r="AI22" s="84"/>
+      <c r="AJ22" s="85"/>
+      <c r="AK22" s="81"/>
       <c r="AL22" s="44"/>
       <c r="AM22" s="44"/>
       <c r="AN22" s="44"/>
@@ -16352,22 +16352,22 @@
       <c r="A23" s="2"/>
       <c r="B23" s="39"/>
       <c r="C23" s="37"/>
-      <c r="D23" s="51" t="s">
-        <v>80</v>
+      <c r="D23" s="62" t="s">
+        <v>79</v>
       </c>
-      <c r="E23" s="55"/>
-      <c r="F23" s="55"/>
-      <c r="G23" s="55"/>
-      <c r="H23" s="55"/>
-      <c r="I23" s="55"/>
-      <c r="J23" s="55"/>
-      <c r="K23" s="55"/>
-      <c r="L23" s="55"/>
-      <c r="M23" s="55"/>
-      <c r="N23" s="55"/>
-      <c r="O23" s="55"/>
-      <c r="P23" s="56"/>
-      <c r="Q23" s="57" t="s">
+      <c r="E23" s="64"/>
+      <c r="F23" s="64"/>
+      <c r="G23" s="64"/>
+      <c r="H23" s="64"/>
+      <c r="I23" s="64"/>
+      <c r="J23" s="64"/>
+      <c r="K23" s="64"/>
+      <c r="L23" s="64"/>
+      <c r="M23" s="64"/>
+      <c r="N23" s="64"/>
+      <c r="O23" s="64"/>
+      <c r="P23" s="65"/>
+      <c r="Q23" s="82" t="s">
         <v>62</v>
       </c>
       <c r="R23" s="44"/>
@@ -16376,22 +16376,22 @@
       <c r="U23" s="44"/>
       <c r="V23" s="44"/>
       <c r="W23" s="45"/>
-      <c r="X23" s="50"/>
+      <c r="X23" s="81"/>
       <c r="Y23" s="44"/>
       <c r="Z23" s="44"/>
       <c r="AA23" s="44"/>
       <c r="AB23" s="44"/>
       <c r="AC23" s="44"/>
       <c r="AD23" s="45"/>
-      <c r="AE23" s="51">
+      <c r="AE23" s="62">
         <v>10</v>
       </c>
       <c r="AF23" s="44"/>
       <c r="AG23" s="45"/>
-      <c r="AH23" s="52"/>
-      <c r="AI23" s="53"/>
-      <c r="AJ23" s="54"/>
-      <c r="AK23" s="50"/>
+      <c r="AH23" s="83"/>
+      <c r="AI23" s="84"/>
+      <c r="AJ23" s="85"/>
+      <c r="AK23" s="81"/>
       <c r="AL23" s="44"/>
       <c r="AM23" s="44"/>
       <c r="AN23" s="44"/>
@@ -16639,51 +16639,51 @@
     </row>
     <row r="27" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A27" s="5"/>
-      <c r="B27" s="86" t="s">
+      <c r="B27" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="C27" s="70" t="s">
+      <c r="C27" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="D27" s="71"/>
-      <c r="E27" s="71"/>
-      <c r="F27" s="71"/>
-      <c r="G27" s="71"/>
-      <c r="H27" s="71"/>
-      <c r="I27" s="71"/>
-      <c r="J27" s="71"/>
-      <c r="K27" s="72"/>
-      <c r="L27" s="70" t="s">
+      <c r="D27" s="55"/>
+      <c r="E27" s="55"/>
+      <c r="F27" s="55"/>
+      <c r="G27" s="55"/>
+      <c r="H27" s="55"/>
+      <c r="I27" s="55"/>
+      <c r="J27" s="55"/>
+      <c r="K27" s="56"/>
+      <c r="L27" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="M27" s="71"/>
-      <c r="N27" s="71"/>
-      <c r="O27" s="71"/>
-      <c r="P27" s="71"/>
-      <c r="Q27" s="71"/>
-      <c r="R27" s="71"/>
-      <c r="S27" s="71"/>
-      <c r="T27" s="71"/>
-      <c r="U27" s="71"/>
-      <c r="V27" s="71"/>
-      <c r="W27" s="71"/>
-      <c r="X27" s="71"/>
-      <c r="Y27" s="71"/>
-      <c r="Z27" s="71"/>
-      <c r="AA27" s="71"/>
-      <c r="AB27" s="72"/>
-      <c r="AC27" s="70" t="s">
+      <c r="M27" s="55"/>
+      <c r="N27" s="55"/>
+      <c r="O27" s="55"/>
+      <c r="P27" s="55"/>
+      <c r="Q27" s="55"/>
+      <c r="R27" s="55"/>
+      <c r="S27" s="55"/>
+      <c r="T27" s="55"/>
+      <c r="U27" s="55"/>
+      <c r="V27" s="55"/>
+      <c r="W27" s="55"/>
+      <c r="X27" s="55"/>
+      <c r="Y27" s="55"/>
+      <c r="Z27" s="55"/>
+      <c r="AA27" s="55"/>
+      <c r="AB27" s="56"/>
+      <c r="AC27" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="AD27" s="71"/>
-      <c r="AE27" s="71"/>
-      <c r="AF27" s="71"/>
-      <c r="AG27" s="71"/>
-      <c r="AH27" s="71"/>
-      <c r="AI27" s="71"/>
-      <c r="AJ27" s="71"/>
-      <c r="AK27" s="72"/>
-      <c r="AL27" s="65" t="s">
+      <c r="AD27" s="55"/>
+      <c r="AE27" s="55"/>
+      <c r="AF27" s="55"/>
+      <c r="AG27" s="55"/>
+      <c r="AH27" s="55"/>
+      <c r="AI27" s="55"/>
+      <c r="AJ27" s="55"/>
+      <c r="AK27" s="56"/>
+      <c r="AL27" s="91" t="s">
         <v>12</v>
       </c>
       <c r="AM27" s="44"/>
@@ -16719,43 +16719,43 @@
     </row>
     <row r="28" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A28" s="5"/>
-      <c r="B28" s="75"/>
-      <c r="C28" s="87"/>
-      <c r="D28" s="88"/>
-      <c r="E28" s="88"/>
-      <c r="F28" s="88"/>
-      <c r="G28" s="88"/>
-      <c r="H28" s="88"/>
-      <c r="I28" s="88"/>
-      <c r="J28" s="88"/>
-      <c r="K28" s="89"/>
-      <c r="L28" s="87"/>
-      <c r="M28" s="88"/>
-      <c r="N28" s="88"/>
-      <c r="O28" s="88"/>
-      <c r="P28" s="88"/>
-      <c r="Q28" s="88"/>
-      <c r="R28" s="88"/>
-      <c r="S28" s="88"/>
-      <c r="T28" s="88"/>
-      <c r="U28" s="88"/>
-      <c r="V28" s="88"/>
-      <c r="W28" s="88"/>
-      <c r="X28" s="88"/>
-      <c r="Y28" s="88"/>
-      <c r="Z28" s="88"/>
-      <c r="AA28" s="88"/>
-      <c r="AB28" s="89"/>
-      <c r="AC28" s="73"/>
-      <c r="AD28" s="74"/>
-      <c r="AE28" s="74"/>
-      <c r="AF28" s="74"/>
-      <c r="AG28" s="74"/>
-      <c r="AH28" s="74"/>
-      <c r="AI28" s="74"/>
-      <c r="AJ28" s="74"/>
-      <c r="AK28" s="75"/>
-      <c r="AL28" s="66" t="s">
+      <c r="B28" s="53"/>
+      <c r="C28" s="57"/>
+      <c r="D28" s="58"/>
+      <c r="E28" s="58"/>
+      <c r="F28" s="58"/>
+      <c r="G28" s="58"/>
+      <c r="H28" s="58"/>
+      <c r="I28" s="58"/>
+      <c r="J28" s="58"/>
+      <c r="K28" s="59"/>
+      <c r="L28" s="57"/>
+      <c r="M28" s="58"/>
+      <c r="N28" s="58"/>
+      <c r="O28" s="58"/>
+      <c r="P28" s="58"/>
+      <c r="Q28" s="58"/>
+      <c r="R28" s="58"/>
+      <c r="S28" s="58"/>
+      <c r="T28" s="58"/>
+      <c r="U28" s="58"/>
+      <c r="V28" s="58"/>
+      <c r="W28" s="58"/>
+      <c r="X28" s="58"/>
+      <c r="Y28" s="58"/>
+      <c r="Z28" s="58"/>
+      <c r="AA28" s="58"/>
+      <c r="AB28" s="59"/>
+      <c r="AC28" s="79"/>
+      <c r="AD28" s="61"/>
+      <c r="AE28" s="61"/>
+      <c r="AF28" s="61"/>
+      <c r="AG28" s="61"/>
+      <c r="AH28" s="61"/>
+      <c r="AI28" s="61"/>
+      <c r="AJ28" s="61"/>
+      <c r="AK28" s="53"/>
+      <c r="AL28" s="92" t="s">
         <v>13</v>
       </c>
       <c r="AM28" s="44"/>
@@ -16766,14 +16766,14 @@
       <c r="AR28" s="44"/>
       <c r="AS28" s="44"/>
       <c r="AT28" s="45"/>
-      <c r="AU28" s="66" t="s">
+      <c r="AU28" s="92" t="s">
         <v>14</v>
       </c>
       <c r="AV28" s="44"/>
       <c r="AW28" s="44"/>
       <c r="AX28" s="44"/>
       <c r="AY28" s="45"/>
-      <c r="AZ28" s="66" t="s">
+      <c r="AZ28" s="92" t="s">
         <v>15</v>
       </c>
       <c r="BA28" s="44"/>
@@ -16799,37 +16799,37 @@
         <f ca="1">MAX(B$27:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>1</v>
       </c>
-      <c r="C29" s="78" t="s">
+      <c r="C29" s="66" t="s">
+        <v>117</v>
+      </c>
+      <c r="D29" s="67"/>
+      <c r="E29" s="67"/>
+      <c r="F29" s="67"/>
+      <c r="G29" s="67"/>
+      <c r="H29" s="67"/>
+      <c r="I29" s="67"/>
+      <c r="J29" s="67"/>
+      <c r="K29" s="68"/>
+      <c r="L29" s="69" t="s">
         <v>118</v>
       </c>
-      <c r="D29" s="79"/>
-      <c r="E29" s="79"/>
-      <c r="F29" s="79"/>
-      <c r="G29" s="79"/>
-      <c r="H29" s="79"/>
-      <c r="I29" s="79"/>
-      <c r="J29" s="79"/>
-      <c r="K29" s="80"/>
-      <c r="L29" s="81" t="s">
-        <v>119</v>
-      </c>
-      <c r="M29" s="82"/>
-      <c r="N29" s="82"/>
-      <c r="O29" s="82"/>
-      <c r="P29" s="82"/>
-      <c r="Q29" s="82"/>
-      <c r="R29" s="82"/>
-      <c r="S29" s="82"/>
-      <c r="T29" s="82"/>
-      <c r="U29" s="82"/>
-      <c r="V29" s="82"/>
-      <c r="W29" s="82"/>
-      <c r="X29" s="82"/>
-      <c r="Y29" s="82"/>
-      <c r="Z29" s="82"/>
-      <c r="AA29" s="82"/>
-      <c r="AB29" s="82"/>
-      <c r="AC29" s="55"/>
+      <c r="M29" s="70"/>
+      <c r="N29" s="70"/>
+      <c r="O29" s="70"/>
+      <c r="P29" s="70"/>
+      <c r="Q29" s="70"/>
+      <c r="R29" s="70"/>
+      <c r="S29" s="70"/>
+      <c r="T29" s="70"/>
+      <c r="U29" s="70"/>
+      <c r="V29" s="70"/>
+      <c r="W29" s="70"/>
+      <c r="X29" s="70"/>
+      <c r="Y29" s="70"/>
+      <c r="Z29" s="70"/>
+      <c r="AA29" s="70"/>
+      <c r="AB29" s="70"/>
+      <c r="AC29" s="64"/>
       <c r="AD29" s="44"/>
       <c r="AE29" s="44"/>
       <c r="AF29" s="44"/>
@@ -16838,7 +16838,7 @@
       <c r="AI29" s="44"/>
       <c r="AJ29" s="44"/>
       <c r="AK29" s="45"/>
-      <c r="AL29" s="59"/>
+      <c r="AL29" s="77"/>
       <c r="AM29" s="44"/>
       <c r="AN29" s="44"/>
       <c r="AO29" s="44"/>
@@ -16847,12 +16847,12 @@
       <c r="AR29" s="44"/>
       <c r="AS29" s="44"/>
       <c r="AT29" s="45"/>
-      <c r="AU29" s="59"/>
+      <c r="AU29" s="77"/>
       <c r="AV29" s="44"/>
       <c r="AW29" s="44"/>
       <c r="AX29" s="44"/>
       <c r="AY29" s="45"/>
-      <c r="AZ29" s="62"/>
+      <c r="AZ29" s="78"/>
       <c r="BA29" s="44"/>
       <c r="BB29" s="44"/>
       <c r="BC29" s="44"/>
@@ -16876,37 +16876,37 @@
         <f ca="1">MAX(B$27:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>2</v>
       </c>
-      <c r="C30" s="78" t="s">
+      <c r="C30" s="66" t="s">
+        <v>119</v>
+      </c>
+      <c r="D30" s="67"/>
+      <c r="E30" s="67"/>
+      <c r="F30" s="67"/>
+      <c r="G30" s="67"/>
+      <c r="H30" s="67"/>
+      <c r="I30" s="67"/>
+      <c r="J30" s="67"/>
+      <c r="K30" s="68"/>
+      <c r="L30" s="69" t="s">
         <v>120</v>
       </c>
-      <c r="D30" s="79"/>
-      <c r="E30" s="79"/>
-      <c r="F30" s="79"/>
-      <c r="G30" s="79"/>
-      <c r="H30" s="79"/>
-      <c r="I30" s="79"/>
-      <c r="J30" s="79"/>
-      <c r="K30" s="80"/>
-      <c r="L30" s="81" t="s">
-        <v>121</v>
-      </c>
-      <c r="M30" s="82"/>
-      <c r="N30" s="82"/>
-      <c r="O30" s="82"/>
-      <c r="P30" s="82"/>
-      <c r="Q30" s="82"/>
-      <c r="R30" s="82"/>
-      <c r="S30" s="82"/>
-      <c r="T30" s="82"/>
-      <c r="U30" s="82"/>
-      <c r="V30" s="82"/>
-      <c r="W30" s="82"/>
-      <c r="X30" s="82"/>
-      <c r="Y30" s="82"/>
-      <c r="Z30" s="82"/>
-      <c r="AA30" s="82"/>
-      <c r="AB30" s="82"/>
-      <c r="AC30" s="55"/>
+      <c r="M30" s="70"/>
+      <c r="N30" s="70"/>
+      <c r="O30" s="70"/>
+      <c r="P30" s="70"/>
+      <c r="Q30" s="70"/>
+      <c r="R30" s="70"/>
+      <c r="S30" s="70"/>
+      <c r="T30" s="70"/>
+      <c r="U30" s="70"/>
+      <c r="V30" s="70"/>
+      <c r="W30" s="70"/>
+      <c r="X30" s="70"/>
+      <c r="Y30" s="70"/>
+      <c r="Z30" s="70"/>
+      <c r="AA30" s="70"/>
+      <c r="AB30" s="70"/>
+      <c r="AC30" s="64"/>
       <c r="AD30" s="44"/>
       <c r="AE30" s="44"/>
       <c r="AF30" s="44"/>
@@ -16915,7 +16915,7 @@
       <c r="AI30" s="44"/>
       <c r="AJ30" s="44"/>
       <c r="AK30" s="45"/>
-      <c r="AL30" s="59"/>
+      <c r="AL30" s="77"/>
       <c r="AM30" s="44"/>
       <c r="AN30" s="44"/>
       <c r="AO30" s="44"/>
@@ -16924,12 +16924,12 @@
       <c r="AR30" s="44"/>
       <c r="AS30" s="44"/>
       <c r="AT30" s="45"/>
-      <c r="AU30" s="59"/>
+      <c r="AU30" s="77"/>
       <c r="AV30" s="44"/>
       <c r="AW30" s="44"/>
       <c r="AX30" s="44"/>
       <c r="AY30" s="45"/>
-      <c r="AZ30" s="62"/>
+      <c r="AZ30" s="78"/>
       <c r="BA30" s="44"/>
       <c r="BB30" s="44"/>
       <c r="BC30" s="44"/>
@@ -16953,35 +16953,35 @@
         <f ca="1">MAX(B$27:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>3</v>
       </c>
-      <c r="C31" s="78" t="s">
-        <v>92</v>
+      <c r="C31" s="66" t="s">
+        <v>91</v>
       </c>
-      <c r="D31" s="79"/>
-      <c r="E31" s="79"/>
-      <c r="F31" s="79"/>
-      <c r="G31" s="79"/>
-      <c r="H31" s="79"/>
-      <c r="I31" s="79"/>
-      <c r="J31" s="79"/>
-      <c r="K31" s="80"/>
-      <c r="L31" s="83"/>
-      <c r="M31" s="84"/>
-      <c r="N31" s="84"/>
-      <c r="O31" s="84"/>
-      <c r="P31" s="84"/>
-      <c r="Q31" s="84"/>
-      <c r="R31" s="84"/>
-      <c r="S31" s="84"/>
-      <c r="T31" s="84"/>
-      <c r="U31" s="84"/>
-      <c r="V31" s="84"/>
-      <c r="W31" s="84"/>
-      <c r="X31" s="84"/>
-      <c r="Y31" s="84"/>
-      <c r="Z31" s="84"/>
-      <c r="AA31" s="84"/>
-      <c r="AB31" s="85"/>
-      <c r="AC31" s="55"/>
+      <c r="D31" s="67"/>
+      <c r="E31" s="67"/>
+      <c r="F31" s="67"/>
+      <c r="G31" s="67"/>
+      <c r="H31" s="67"/>
+      <c r="I31" s="67"/>
+      <c r="J31" s="67"/>
+      <c r="K31" s="68"/>
+      <c r="L31" s="71"/>
+      <c r="M31" s="72"/>
+      <c r="N31" s="72"/>
+      <c r="O31" s="72"/>
+      <c r="P31" s="72"/>
+      <c r="Q31" s="72"/>
+      <c r="R31" s="72"/>
+      <c r="S31" s="72"/>
+      <c r="T31" s="72"/>
+      <c r="U31" s="72"/>
+      <c r="V31" s="72"/>
+      <c r="W31" s="72"/>
+      <c r="X31" s="72"/>
+      <c r="Y31" s="72"/>
+      <c r="Z31" s="72"/>
+      <c r="AA31" s="72"/>
+      <c r="AB31" s="73"/>
+      <c r="AC31" s="64"/>
       <c r="AD31" s="44"/>
       <c r="AE31" s="44"/>
       <c r="AF31" s="44"/>
@@ -16990,7 +16990,7 @@
       <c r="AI31" s="44"/>
       <c r="AJ31" s="44"/>
       <c r="AK31" s="45"/>
-      <c r="AL31" s="59"/>
+      <c r="AL31" s="77"/>
       <c r="AM31" s="44"/>
       <c r="AN31" s="44"/>
       <c r="AO31" s="44"/>
@@ -16999,12 +16999,12 @@
       <c r="AR31" s="44"/>
       <c r="AS31" s="44"/>
       <c r="AT31" s="45"/>
-      <c r="AU31" s="59"/>
+      <c r="AU31" s="77"/>
       <c r="AV31" s="44"/>
       <c r="AW31" s="44"/>
       <c r="AX31" s="44"/>
       <c r="AY31" s="45"/>
-      <c r="AZ31" s="62"/>
+      <c r="AZ31" s="78"/>
       <c r="BA31" s="44"/>
       <c r="BB31" s="44"/>
       <c r="BC31" s="44"/>
@@ -17028,75 +17028,75 @@
         <f ca="1">MAX(B$27:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>4</v>
       </c>
-      <c r="C32" s="77" t="s">
+      <c r="C32" s="63" t="s">
+        <v>68</v>
+      </c>
+      <c r="D32" s="64"/>
+      <c r="E32" s="64"/>
+      <c r="F32" s="64"/>
+      <c r="G32" s="64"/>
+      <c r="H32" s="64"/>
+      <c r="I32" s="64"/>
+      <c r="J32" s="64"/>
+      <c r="K32" s="65"/>
+      <c r="L32" s="62" t="s">
         <v>69</v>
       </c>
-      <c r="D32" s="55"/>
-      <c r="E32" s="55"/>
-      <c r="F32" s="55"/>
-      <c r="G32" s="55"/>
-      <c r="H32" s="55"/>
-      <c r="I32" s="55"/>
-      <c r="J32" s="55"/>
-      <c r="K32" s="56"/>
-      <c r="L32" s="51" t="s">
-        <v>70</v>
-      </c>
-      <c r="M32" s="55"/>
-      <c r="N32" s="55"/>
-      <c r="O32" s="55"/>
-      <c r="P32" s="55"/>
-      <c r="Q32" s="55"/>
-      <c r="R32" s="55"/>
-      <c r="S32" s="55"/>
-      <c r="T32" s="55"/>
-      <c r="U32" s="55"/>
-      <c r="V32" s="55"/>
-      <c r="W32" s="55"/>
-      <c r="X32" s="55"/>
-      <c r="Y32" s="55"/>
-      <c r="Z32" s="55"/>
-      <c r="AA32" s="55"/>
-      <c r="AB32" s="56"/>
-      <c r="AC32" s="51"/>
-      <c r="AD32" s="55"/>
-      <c r="AE32" s="55"/>
-      <c r="AF32" s="55"/>
-      <c r="AG32" s="55"/>
-      <c r="AH32" s="55"/>
-      <c r="AI32" s="55"/>
-      <c r="AJ32" s="55"/>
-      <c r="AK32" s="56"/>
-      <c r="AL32" s="59"/>
-      <c r="AM32" s="60"/>
-      <c r="AN32" s="60"/>
-      <c r="AO32" s="60"/>
-      <c r="AP32" s="60"/>
-      <c r="AQ32" s="60"/>
-      <c r="AR32" s="60"/>
-      <c r="AS32" s="60"/>
-      <c r="AT32" s="61"/>
-      <c r="AU32" s="59"/>
-      <c r="AV32" s="60"/>
-      <c r="AW32" s="60"/>
-      <c r="AX32" s="60"/>
-      <c r="AY32" s="61"/>
-      <c r="AZ32" s="62"/>
-      <c r="BA32" s="63"/>
-      <c r="BB32" s="63"/>
-      <c r="BC32" s="63"/>
-      <c r="BD32" s="63"/>
-      <c r="BE32" s="63"/>
-      <c r="BF32" s="63"/>
-      <c r="BG32" s="63"/>
-      <c r="BH32" s="63"/>
-      <c r="BI32" s="63"/>
-      <c r="BJ32" s="63"/>
-      <c r="BK32" s="63"/>
-      <c r="BL32" s="63"/>
-      <c r="BM32" s="63"/>
-      <c r="BN32" s="63"/>
-      <c r="BO32" s="64"/>
+      <c r="M32" s="64"/>
+      <c r="N32" s="64"/>
+      <c r="O32" s="64"/>
+      <c r="P32" s="64"/>
+      <c r="Q32" s="64"/>
+      <c r="R32" s="64"/>
+      <c r="S32" s="64"/>
+      <c r="T32" s="64"/>
+      <c r="U32" s="64"/>
+      <c r="V32" s="64"/>
+      <c r="W32" s="64"/>
+      <c r="X32" s="64"/>
+      <c r="Y32" s="64"/>
+      <c r="Z32" s="64"/>
+      <c r="AA32" s="64"/>
+      <c r="AB32" s="65"/>
+      <c r="AC32" s="62"/>
+      <c r="AD32" s="64"/>
+      <c r="AE32" s="64"/>
+      <c r="AF32" s="64"/>
+      <c r="AG32" s="64"/>
+      <c r="AH32" s="64"/>
+      <c r="AI32" s="64"/>
+      <c r="AJ32" s="64"/>
+      <c r="AK32" s="65"/>
+      <c r="AL32" s="77"/>
+      <c r="AM32" s="87"/>
+      <c r="AN32" s="87"/>
+      <c r="AO32" s="87"/>
+      <c r="AP32" s="87"/>
+      <c r="AQ32" s="87"/>
+      <c r="AR32" s="87"/>
+      <c r="AS32" s="87"/>
+      <c r="AT32" s="88"/>
+      <c r="AU32" s="77"/>
+      <c r="AV32" s="87"/>
+      <c r="AW32" s="87"/>
+      <c r="AX32" s="87"/>
+      <c r="AY32" s="88"/>
+      <c r="AZ32" s="78"/>
+      <c r="BA32" s="89"/>
+      <c r="BB32" s="89"/>
+      <c r="BC32" s="89"/>
+      <c r="BD32" s="89"/>
+      <c r="BE32" s="89"/>
+      <c r="BF32" s="89"/>
+      <c r="BG32" s="89"/>
+      <c r="BH32" s="89"/>
+      <c r="BI32" s="89"/>
+      <c r="BJ32" s="89"/>
+      <c r="BK32" s="89"/>
+      <c r="BL32" s="89"/>
+      <c r="BM32" s="89"/>
+      <c r="BN32" s="89"/>
+      <c r="BO32" s="90"/>
       <c r="BP32" s="2"/>
     </row>
     <row r="33" spans="1:68" ht="16.5">
@@ -18087,12 +18087,77 @@
     </row>
   </sheetData>
   <mergeCells count="93">
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="I7:BO7"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="I8:BO8"/>
-    <mergeCell ref="C9:H9"/>
-    <mergeCell ref="I9:BO9"/>
+    <mergeCell ref="AZ32:BO32"/>
+    <mergeCell ref="C32:K32"/>
+    <mergeCell ref="L32:AB32"/>
+    <mergeCell ref="AC32:AK32"/>
+    <mergeCell ref="AL32:AT32"/>
+    <mergeCell ref="AU32:AY32"/>
+    <mergeCell ref="AZ31:BO31"/>
+    <mergeCell ref="C30:K30"/>
+    <mergeCell ref="L30:AB30"/>
+    <mergeCell ref="AC30:AK30"/>
+    <mergeCell ref="AL30:AT30"/>
+    <mergeCell ref="AU30:AY30"/>
+    <mergeCell ref="AZ30:BO30"/>
+    <mergeCell ref="C31:K31"/>
+    <mergeCell ref="L31:AB31"/>
+    <mergeCell ref="AC31:AK31"/>
+    <mergeCell ref="AL31:AT31"/>
+    <mergeCell ref="AU31:AY31"/>
+    <mergeCell ref="AZ29:BO29"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:K28"/>
+    <mergeCell ref="L27:AB28"/>
+    <mergeCell ref="AC27:AK28"/>
+    <mergeCell ref="AL27:BO27"/>
+    <mergeCell ref="AL28:AT28"/>
+    <mergeCell ref="AU28:AY28"/>
+    <mergeCell ref="AZ28:BO28"/>
+    <mergeCell ref="C29:K29"/>
+    <mergeCell ref="L29:AB29"/>
+    <mergeCell ref="AC29:AK29"/>
+    <mergeCell ref="AL29:AT29"/>
+    <mergeCell ref="AU29:AY29"/>
+    <mergeCell ref="AK22:BO22"/>
+    <mergeCell ref="D23:P23"/>
+    <mergeCell ref="Q23:W23"/>
+    <mergeCell ref="X23:AD23"/>
+    <mergeCell ref="AE23:AG23"/>
+    <mergeCell ref="AH23:AJ23"/>
+    <mergeCell ref="AK23:BO23"/>
+    <mergeCell ref="D22:P22"/>
+    <mergeCell ref="Q22:W22"/>
+    <mergeCell ref="X22:AD22"/>
+    <mergeCell ref="AE22:AG22"/>
+    <mergeCell ref="AH22:AJ22"/>
+    <mergeCell ref="Q21:W21"/>
+    <mergeCell ref="X21:AD21"/>
+    <mergeCell ref="AE21:AG21"/>
+    <mergeCell ref="AH21:AJ21"/>
+    <mergeCell ref="AK21:BO21"/>
+    <mergeCell ref="D20:P20"/>
+    <mergeCell ref="Q20:W20"/>
+    <mergeCell ref="X20:AD20"/>
+    <mergeCell ref="AE20:AG20"/>
+    <mergeCell ref="AH20:AJ20"/>
+    <mergeCell ref="AK20:BO20"/>
+    <mergeCell ref="AK18:BO18"/>
+    <mergeCell ref="Q19:W19"/>
+    <mergeCell ref="X19:AD19"/>
+    <mergeCell ref="AE19:AG19"/>
+    <mergeCell ref="AH19:AJ19"/>
+    <mergeCell ref="AK19:BO19"/>
+    <mergeCell ref="C17:P17"/>
+    <mergeCell ref="Q17:W17"/>
+    <mergeCell ref="X17:AD17"/>
+    <mergeCell ref="AE17:AG17"/>
+    <mergeCell ref="AK17:BO17"/>
+    <mergeCell ref="C18:P18"/>
+    <mergeCell ref="Q18:W18"/>
+    <mergeCell ref="X18:AD18"/>
+    <mergeCell ref="AE18:AG18"/>
+    <mergeCell ref="AH18:AJ18"/>
     <mergeCell ref="C10:H10"/>
     <mergeCell ref="I10:BO10"/>
     <mergeCell ref="B16:D16"/>
@@ -18109,77 +18174,12 @@
     <mergeCell ref="AE15:AG15"/>
     <mergeCell ref="AH15:AJ15"/>
     <mergeCell ref="AK15:BO15"/>
-    <mergeCell ref="C18:P18"/>
-    <mergeCell ref="Q18:W18"/>
-    <mergeCell ref="X18:AD18"/>
-    <mergeCell ref="AE18:AG18"/>
-    <mergeCell ref="AH18:AJ18"/>
-    <mergeCell ref="C17:P17"/>
-    <mergeCell ref="Q17:W17"/>
-    <mergeCell ref="X17:AD17"/>
-    <mergeCell ref="AE17:AG17"/>
-    <mergeCell ref="AK17:BO17"/>
-    <mergeCell ref="AK20:BO20"/>
-    <mergeCell ref="AK18:BO18"/>
-    <mergeCell ref="Q19:W19"/>
-    <mergeCell ref="X19:AD19"/>
-    <mergeCell ref="AE19:AG19"/>
-    <mergeCell ref="AH19:AJ19"/>
-    <mergeCell ref="AK19:BO19"/>
-    <mergeCell ref="D20:P20"/>
-    <mergeCell ref="Q20:W20"/>
-    <mergeCell ref="X20:AD20"/>
-    <mergeCell ref="AE20:AG20"/>
-    <mergeCell ref="AH20:AJ20"/>
-    <mergeCell ref="Q21:W21"/>
-    <mergeCell ref="X21:AD21"/>
-    <mergeCell ref="AE21:AG21"/>
-    <mergeCell ref="AH21:AJ21"/>
-    <mergeCell ref="AK21:BO21"/>
-    <mergeCell ref="AK22:BO22"/>
-    <mergeCell ref="D23:P23"/>
-    <mergeCell ref="Q23:W23"/>
-    <mergeCell ref="X23:AD23"/>
-    <mergeCell ref="AE23:AG23"/>
-    <mergeCell ref="AH23:AJ23"/>
-    <mergeCell ref="AK23:BO23"/>
-    <mergeCell ref="D22:P22"/>
-    <mergeCell ref="Q22:W22"/>
-    <mergeCell ref="X22:AD22"/>
-    <mergeCell ref="AE22:AG22"/>
-    <mergeCell ref="AH22:AJ22"/>
-    <mergeCell ref="AZ29:BO29"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:K28"/>
-    <mergeCell ref="L27:AB28"/>
-    <mergeCell ref="AC27:AK28"/>
-    <mergeCell ref="AL27:BO27"/>
-    <mergeCell ref="AL28:AT28"/>
-    <mergeCell ref="AU28:AY28"/>
-    <mergeCell ref="AZ28:BO28"/>
-    <mergeCell ref="C29:K29"/>
-    <mergeCell ref="L29:AB29"/>
-    <mergeCell ref="AC29:AK29"/>
-    <mergeCell ref="AL29:AT29"/>
-    <mergeCell ref="AU29:AY29"/>
-    <mergeCell ref="AZ31:BO31"/>
-    <mergeCell ref="C30:K30"/>
-    <mergeCell ref="L30:AB30"/>
-    <mergeCell ref="AC30:AK30"/>
-    <mergeCell ref="AL30:AT30"/>
-    <mergeCell ref="AU30:AY30"/>
-    <mergeCell ref="AZ30:BO30"/>
-    <mergeCell ref="C31:K31"/>
-    <mergeCell ref="L31:AB31"/>
-    <mergeCell ref="AC31:AK31"/>
-    <mergeCell ref="AL31:AT31"/>
-    <mergeCell ref="AU31:AY31"/>
-    <mergeCell ref="AZ32:BO32"/>
-    <mergeCell ref="C32:K32"/>
-    <mergeCell ref="L32:AB32"/>
-    <mergeCell ref="AC32:AK32"/>
-    <mergeCell ref="AL32:AT32"/>
-    <mergeCell ref="AU32:AY32"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="I7:BO7"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="I8:BO8"/>
+    <mergeCell ref="C9:H9"/>
+    <mergeCell ref="I9:BO9"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <dataValidations count="1">
@@ -18352,7 +18352,7 @@
     <row r="7" spans="1:9" ht="16.5">
       <c r="A7" s="26"/>
       <c r="B7" s="26" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C7" s="26"/>
       <c r="D7" s="26"/>
@@ -18586,7 +18586,7 @@
     <row r="25" spans="1:9" ht="16.5">
       <c r="A25" s="26"/>
       <c r="B25" s="26" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C25" s="26"/>
       <c r="D25" s="26"/>

--- a/ha-asset/01_design/05_rootapi/設計書_5.9.Top情報取得API.xlsx
+++ b/ha-asset/01_design/05_rootapi/設計書_5.9.Top情報取得API.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\app\git\work-3g\ha-asset\01_design\05_rootapi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{403DF2EE-2A40-4392-8C22-BCB4548F108B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6D35D47-33A8-49B3-83CE-0508C1A50435}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="134">
   <si>
     <t>更新日時</t>
   </si>
@@ -570,6 +570,41 @@
   </si>
   <si>
     <t>エンドポイント</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>errors</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>result=0の場合、設定あり</t>
+    <rPh sb="9" eb="11">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>変換エラー</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンカン</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>リクエスト.YYYYMMが形式でない場合</t>
+    <rPh sb="13" eb="15">
+      <t>ケイシキ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>date format error. date is yyyymm</t>
     <phoneticPr fontId="8"/>
   </si>
 </sst>
@@ -1143,32 +1178,85 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1188,59 +1276,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2340,6 +2375,66 @@
     </row>
   </sheetData>
   <mergeCells count="69">
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="J24:Z24"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="J25:Z25"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="J11:Z11"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="J9:Z9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="F10:I10"/>
+    <mergeCell ref="J10:Z10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="J8:Z8"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="J6:Z6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="J7:Z7"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="J5:Z5"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="J3:Z3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="J4:Z4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="J23:Z23"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="J21:Z21"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="J22:Z22"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="J20:Z20"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="J18:Z18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="J19:Z19"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="J17:Z17"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="J15:Z15"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="J16:Z16"/>
+    <mergeCell ref="B17:E17"/>
     <mergeCell ref="F14:I14"/>
     <mergeCell ref="J14:Z14"/>
     <mergeCell ref="B12:E12"/>
@@ -2349,66 +2444,6 @@
     <mergeCell ref="F13:I13"/>
     <mergeCell ref="J13:Z13"/>
     <mergeCell ref="B14:E14"/>
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="J17:Z17"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="J15:Z15"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="J16:Z16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="J20:Z20"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="F18:I18"/>
-    <mergeCell ref="J18:Z18"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="J19:Z19"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="J23:Z23"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="J21:Z21"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="J22:Z22"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="F5:I5"/>
-    <mergeCell ref="J5:Z5"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="J3:Z3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="J4:Z4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="J8:Z8"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="J6:Z6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="J7:Z7"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="J11:Z11"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="J9:Z9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="F10:I10"/>
-    <mergeCell ref="J10:Z10"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="J24:Z24"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="J25:Z25"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4683,7 +4718,7 @@
     <row r="7" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A7" s="2"/>
       <c r="B7" s="13"/>
-      <c r="C7" s="74" t="s">
+      <c r="C7" s="68" t="s">
         <v>23</v>
       </c>
       <c r="D7" s="44"/>
@@ -4691,7 +4726,7 @@
       <c r="F7" s="44"/>
       <c r="G7" s="44"/>
       <c r="H7" s="45"/>
-      <c r="I7" s="62" t="s">
+      <c r="I7" s="53" t="s">
         <v>35</v>
       </c>
       <c r="J7" s="44"/>
@@ -4757,7 +4792,7 @@
     <row r="8" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A8" s="2"/>
       <c r="B8" s="13"/>
-      <c r="C8" s="74" t="s">
+      <c r="C8" s="68" t="s">
         <v>20</v>
       </c>
       <c r="D8" s="44"/>
@@ -4765,7 +4800,7 @@
       <c r="F8" s="44"/>
       <c r="G8" s="44"/>
       <c r="H8" s="45"/>
-      <c r="I8" s="62" t="s">
+      <c r="I8" s="53" t="s">
         <v>25</v>
       </c>
       <c r="J8" s="44"/>
@@ -4831,7 +4866,7 @@
     <row r="9" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A9" s="2"/>
       <c r="B9" s="13"/>
-      <c r="C9" s="74" t="s">
+      <c r="C9" s="68" t="s">
         <v>26</v>
       </c>
       <c r="D9" s="44"/>
@@ -4839,7 +4874,7 @@
       <c r="F9" s="44"/>
       <c r="G9" s="44"/>
       <c r="H9" s="45"/>
-      <c r="I9" s="62" t="s">
+      <c r="I9" s="53" t="s">
         <v>27</v>
       </c>
       <c r="J9" s="44"/>
@@ -4905,75 +4940,75 @@
     <row r="10" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A10" s="32"/>
       <c r="B10" s="33"/>
-      <c r="C10" s="74" t="s">
+      <c r="C10" s="68" t="s">
         <v>128</v>
       </c>
-      <c r="D10" s="75"/>
-      <c r="E10" s="75"/>
-      <c r="F10" s="75"/>
-      <c r="G10" s="75"/>
-      <c r="H10" s="75"/>
-      <c r="I10" s="76" t="s">
+      <c r="D10" s="70"/>
+      <c r="E10" s="70"/>
+      <c r="F10" s="70"/>
+      <c r="G10" s="70"/>
+      <c r="H10" s="70"/>
+      <c r="I10" s="71" t="s">
         <v>76</v>
       </c>
-      <c r="J10" s="76"/>
-      <c r="K10" s="76"/>
-      <c r="L10" s="76"/>
-      <c r="M10" s="76"/>
-      <c r="N10" s="76"/>
-      <c r="O10" s="76"/>
-      <c r="P10" s="76"/>
-      <c r="Q10" s="76"/>
-      <c r="R10" s="76"/>
-      <c r="S10" s="76"/>
-      <c r="T10" s="76"/>
-      <c r="U10" s="76"/>
-      <c r="V10" s="76"/>
-      <c r="W10" s="76"/>
-      <c r="X10" s="76"/>
-      <c r="Y10" s="76"/>
-      <c r="Z10" s="76"/>
-      <c r="AA10" s="76"/>
-      <c r="AB10" s="76"/>
-      <c r="AC10" s="76"/>
-      <c r="AD10" s="76"/>
-      <c r="AE10" s="76"/>
-      <c r="AF10" s="76"/>
-      <c r="AG10" s="76"/>
-      <c r="AH10" s="76"/>
-      <c r="AI10" s="76"/>
-      <c r="AJ10" s="76"/>
-      <c r="AK10" s="76"/>
-      <c r="AL10" s="76"/>
-      <c r="AM10" s="76"/>
-      <c r="AN10" s="76"/>
-      <c r="AO10" s="76"/>
-      <c r="AP10" s="76"/>
-      <c r="AQ10" s="76"/>
-      <c r="AR10" s="76"/>
-      <c r="AS10" s="76"/>
-      <c r="AT10" s="76"/>
-      <c r="AU10" s="76"/>
-      <c r="AV10" s="76"/>
-      <c r="AW10" s="76"/>
-      <c r="AX10" s="76"/>
-      <c r="AY10" s="76"/>
-      <c r="AZ10" s="76"/>
-      <c r="BA10" s="76"/>
-      <c r="BB10" s="76"/>
-      <c r="BC10" s="76"/>
-      <c r="BD10" s="76"/>
-      <c r="BE10" s="76"/>
-      <c r="BF10" s="76"/>
-      <c r="BG10" s="76"/>
-      <c r="BH10" s="76"/>
-      <c r="BI10" s="76"/>
-      <c r="BJ10" s="76"/>
-      <c r="BK10" s="76"/>
-      <c r="BL10" s="76"/>
-      <c r="BM10" s="76"/>
-      <c r="BN10" s="76"/>
-      <c r="BO10" s="76"/>
+      <c r="J10" s="71"/>
+      <c r="K10" s="71"/>
+      <c r="L10" s="71"/>
+      <c r="M10" s="71"/>
+      <c r="N10" s="71"/>
+      <c r="O10" s="71"/>
+      <c r="P10" s="71"/>
+      <c r="Q10" s="71"/>
+      <c r="R10" s="71"/>
+      <c r="S10" s="71"/>
+      <c r="T10" s="71"/>
+      <c r="U10" s="71"/>
+      <c r="V10" s="71"/>
+      <c r="W10" s="71"/>
+      <c r="X10" s="71"/>
+      <c r="Y10" s="71"/>
+      <c r="Z10" s="71"/>
+      <c r="AA10" s="71"/>
+      <c r="AB10" s="71"/>
+      <c r="AC10" s="71"/>
+      <c r="AD10" s="71"/>
+      <c r="AE10" s="71"/>
+      <c r="AF10" s="71"/>
+      <c r="AG10" s="71"/>
+      <c r="AH10" s="71"/>
+      <c r="AI10" s="71"/>
+      <c r="AJ10" s="71"/>
+      <c r="AK10" s="71"/>
+      <c r="AL10" s="71"/>
+      <c r="AM10" s="71"/>
+      <c r="AN10" s="71"/>
+      <c r="AO10" s="71"/>
+      <c r="AP10" s="71"/>
+      <c r="AQ10" s="71"/>
+      <c r="AR10" s="71"/>
+      <c r="AS10" s="71"/>
+      <c r="AT10" s="71"/>
+      <c r="AU10" s="71"/>
+      <c r="AV10" s="71"/>
+      <c r="AW10" s="71"/>
+      <c r="AX10" s="71"/>
+      <c r="AY10" s="71"/>
+      <c r="AZ10" s="71"/>
+      <c r="BA10" s="71"/>
+      <c r="BB10" s="71"/>
+      <c r="BC10" s="71"/>
+      <c r="BD10" s="71"/>
+      <c r="BE10" s="71"/>
+      <c r="BF10" s="71"/>
+      <c r="BG10" s="71"/>
+      <c r="BH10" s="71"/>
+      <c r="BI10" s="71"/>
+      <c r="BJ10" s="71"/>
+      <c r="BK10" s="71"/>
+      <c r="BL10" s="71"/>
+      <c r="BM10" s="71"/>
+      <c r="BN10" s="71"/>
+      <c r="BO10" s="71"/>
       <c r="BP10" s="32"/>
     </row>
     <row r="11" spans="1:68" ht="16.5" outlineLevel="1">
@@ -5052,14 +5087,14 @@
       <c r="A12" s="2"/>
       <c r="B12" s="13"/>
       <c r="C12" s="17"/>
-      <c r="D12" s="62" t="s">
+      <c r="D12" s="53" t="s">
         <v>77</v>
       </c>
       <c r="E12" s="44"/>
       <c r="F12" s="44"/>
       <c r="G12" s="44"/>
       <c r="H12" s="45"/>
-      <c r="I12" s="64" t="s">
+      <c r="I12" s="58" t="s">
         <v>78</v>
       </c>
       <c r="J12" s="44"/>
@@ -5124,11 +5159,11 @@
     </row>
     <row r="13" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A13" s="2"/>
-      <c r="B13" s="80" t="s">
+      <c r="B13" s="78" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="55"/>
-      <c r="D13" s="55"/>
+      <c r="C13" s="73"/>
+      <c r="D13" s="73"/>
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
       <c r="G13" s="10"/>
@@ -5231,7 +5266,7 @@
       <c r="AB14" s="44"/>
       <c r="AC14" s="44"/>
       <c r="AD14" s="45"/>
-      <c r="AE14" s="74" t="s">
+      <c r="AE14" s="68" t="s">
         <v>21</v>
       </c>
       <c r="AF14" s="44"/>
@@ -5295,7 +5330,7 @@
       <c r="N15" s="22"/>
       <c r="O15" s="22"/>
       <c r="P15" s="23"/>
-      <c r="Q15" s="82" t="s">
+      <c r="Q15" s="57" t="s">
         <v>56</v>
       </c>
       <c r="R15" s="44"/>
@@ -5304,7 +5339,7 @@
       <c r="U15" s="44"/>
       <c r="V15" s="44"/>
       <c r="W15" s="45"/>
-      <c r="X15" s="81" t="s">
+      <c r="X15" s="52" t="s">
         <v>38</v>
       </c>
       <c r="Y15" s="44"/>
@@ -5313,15 +5348,15 @@
       <c r="AB15" s="44"/>
       <c r="AC15" s="44"/>
       <c r="AD15" s="45"/>
-      <c r="AE15" s="62">
+      <c r="AE15" s="53">
         <v>6</v>
       </c>
       <c r="AF15" s="44"/>
       <c r="AG15" s="45"/>
-      <c r="AH15" s="83"/>
-      <c r="AI15" s="84"/>
-      <c r="AJ15" s="85"/>
-      <c r="AK15" s="81"/>
+      <c r="AH15" s="54"/>
+      <c r="AI15" s="55"/>
+      <c r="AJ15" s="56"/>
+      <c r="AK15" s="52"/>
       <c r="AL15" s="44"/>
       <c r="AM15" s="44"/>
       <c r="AN15" s="44"/>
@@ -5356,11 +5391,11 @@
     </row>
     <row r="16" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A16" s="2"/>
-      <c r="B16" s="80" t="s">
+      <c r="B16" s="78" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="55"/>
-      <c r="D16" s="55"/>
+      <c r="C16" s="73"/>
+      <c r="D16" s="73"/>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
@@ -5463,7 +5498,7 @@
       <c r="AB17" s="44"/>
       <c r="AC17" s="44"/>
       <c r="AD17" s="45"/>
-      <c r="AE17" s="74" t="s">
+      <c r="AE17" s="68" t="s">
         <v>21</v>
       </c>
       <c r="AF17" s="44"/>
@@ -5511,7 +5546,7 @@
     <row r="18" spans="1:68" ht="33" customHeight="1" outlineLevel="1">
       <c r="A18" s="2"/>
       <c r="B18" s="13"/>
-      <c r="C18" s="62" t="s">
+      <c r="C18" s="53" t="s">
         <v>80</v>
       </c>
       <c r="D18" s="44"/>
@@ -5527,7 +5562,7 @@
       <c r="N18" s="44"/>
       <c r="O18" s="44"/>
       <c r="P18" s="45"/>
-      <c r="Q18" s="82" t="s">
+      <c r="Q18" s="57" t="s">
         <v>33</v>
       </c>
       <c r="R18" s="44"/>
@@ -5536,7 +5571,7 @@
       <c r="U18" s="44"/>
       <c r="V18" s="44"/>
       <c r="W18" s="45"/>
-      <c r="X18" s="81" t="s">
+      <c r="X18" s="52" t="s">
         <v>34</v>
       </c>
       <c r="Y18" s="44"/>
@@ -5545,15 +5580,15 @@
       <c r="AB18" s="44"/>
       <c r="AC18" s="44"/>
       <c r="AD18" s="45"/>
-      <c r="AE18" s="62">
+      <c r="AE18" s="53">
         <v>1</v>
       </c>
       <c r="AF18" s="44"/>
       <c r="AG18" s="45"/>
-      <c r="AH18" s="83"/>
-      <c r="AI18" s="84"/>
-      <c r="AJ18" s="85"/>
-      <c r="AK18" s="86" t="s">
+      <c r="AH18" s="54"/>
+      <c r="AI18" s="55"/>
+      <c r="AJ18" s="56"/>
+      <c r="AK18" s="69" t="s">
         <v>81</v>
       </c>
       <c r="AL18" s="44"/>
@@ -5592,7 +5627,7 @@
       <c r="A19" s="2"/>
       <c r="B19" s="13"/>
       <c r="C19" s="20" t="s">
-        <v>82</v>
+        <v>129</v>
       </c>
       <c r="D19" s="21"/>
       <c r="E19" s="21"/>
@@ -5607,14 +5642,14 @@
       <c r="N19" s="22"/>
       <c r="O19" s="22"/>
       <c r="P19" s="23"/>
-      <c r="Q19" s="82"/>
+      <c r="Q19" s="57"/>
       <c r="R19" s="44"/>
       <c r="S19" s="44"/>
       <c r="T19" s="44"/>
       <c r="U19" s="44"/>
       <c r="V19" s="44"/>
       <c r="W19" s="45"/>
-      <c r="X19" s="81" t="s">
+      <c r="X19" s="52" t="s">
         <v>41</v>
       </c>
       <c r="Y19" s="44"/>
@@ -5623,13 +5658,13 @@
       <c r="AB19" s="44"/>
       <c r="AC19" s="44"/>
       <c r="AD19" s="45"/>
-      <c r="AE19" s="62"/>
+      <c r="AE19" s="53"/>
       <c r="AF19" s="44"/>
       <c r="AG19" s="45"/>
-      <c r="AH19" s="83"/>
-      <c r="AI19" s="84"/>
-      <c r="AJ19" s="85"/>
-      <c r="AK19" s="81" t="s">
+      <c r="AH19" s="54"/>
+      <c r="AI19" s="55"/>
+      <c r="AJ19" s="56"/>
+      <c r="AK19" s="52" t="s">
         <v>83</v>
       </c>
       <c r="AL19" s="44"/>
@@ -5668,22 +5703,22 @@
       <c r="A20" s="2"/>
       <c r="B20" s="13"/>
       <c r="C20" s="37"/>
-      <c r="D20" s="62" t="s">
+      <c r="D20" s="53" t="s">
         <v>84</v>
       </c>
-      <c r="E20" s="64"/>
-      <c r="F20" s="64"/>
-      <c r="G20" s="64"/>
-      <c r="H20" s="64"/>
-      <c r="I20" s="64"/>
-      <c r="J20" s="64"/>
-      <c r="K20" s="64"/>
-      <c r="L20" s="64"/>
-      <c r="M20" s="64"/>
-      <c r="N20" s="64"/>
-      <c r="O20" s="64"/>
-      <c r="P20" s="65"/>
-      <c r="Q20" s="82" t="s">
+      <c r="E20" s="58"/>
+      <c r="F20" s="58"/>
+      <c r="G20" s="58"/>
+      <c r="H20" s="58"/>
+      <c r="I20" s="58"/>
+      <c r="J20" s="58"/>
+      <c r="K20" s="58"/>
+      <c r="L20" s="58"/>
+      <c r="M20" s="58"/>
+      <c r="N20" s="58"/>
+      <c r="O20" s="58"/>
+      <c r="P20" s="59"/>
+      <c r="Q20" s="57" t="s">
         <v>126</v>
       </c>
       <c r="R20" s="44"/>
@@ -5692,20 +5727,20 @@
       <c r="U20" s="44"/>
       <c r="V20" s="44"/>
       <c r="W20" s="45"/>
-      <c r="X20" s="81"/>
+      <c r="X20" s="52"/>
       <c r="Y20" s="44"/>
       <c r="Z20" s="44"/>
       <c r="AA20" s="44"/>
       <c r="AB20" s="44"/>
       <c r="AC20" s="44"/>
       <c r="AD20" s="45"/>
-      <c r="AE20" s="62"/>
+      <c r="AE20" s="53"/>
       <c r="AF20" s="44"/>
       <c r="AG20" s="45"/>
-      <c r="AH20" s="83"/>
-      <c r="AI20" s="84"/>
-      <c r="AJ20" s="85"/>
-      <c r="AK20" s="81"/>
+      <c r="AH20" s="54"/>
+      <c r="AI20" s="55"/>
+      <c r="AJ20" s="56"/>
+      <c r="AK20" s="52"/>
       <c r="AL20" s="44"/>
       <c r="AM20" s="44"/>
       <c r="AN20" s="44"/>
@@ -5757,30 +5792,32 @@
       <c r="N21" s="22"/>
       <c r="O21" s="22"/>
       <c r="P21" s="23"/>
-      <c r="Q21" s="82"/>
+      <c r="Q21" s="57"/>
       <c r="R21" s="44"/>
       <c r="S21" s="44"/>
       <c r="T21" s="44"/>
       <c r="U21" s="44"/>
       <c r="V21" s="44"/>
       <c r="W21" s="45"/>
-      <c r="X21" s="81"/>
+      <c r="X21" s="52" t="s">
+        <v>41</v>
+      </c>
       <c r="Y21" s="44"/>
       <c r="Z21" s="44"/>
       <c r="AA21" s="44"/>
       <c r="AB21" s="44"/>
       <c r="AC21" s="44"/>
       <c r="AD21" s="45"/>
-      <c r="AE21" s="62"/>
+      <c r="AE21" s="53"/>
       <c r="AF21" s="44"/>
       <c r="AG21" s="45"/>
-      <c r="AH21" s="83" t="s">
+      <c r="AH21" s="54" t="s">
         <v>87</v>
       </c>
-      <c r="AI21" s="84"/>
-      <c r="AJ21" s="85"/>
-      <c r="AK21" s="81" t="s">
-        <v>122</v>
+      <c r="AI21" s="55"/>
+      <c r="AJ21" s="56"/>
+      <c r="AK21" s="52" t="s">
+        <v>130</v>
       </c>
       <c r="AL21" s="44"/>
       <c r="AM21" s="44"/>
@@ -5818,22 +5855,22 @@
       <c r="A22" s="2"/>
       <c r="B22" s="13"/>
       <c r="C22" s="24"/>
-      <c r="D22" s="62" t="s">
+      <c r="D22" s="53" t="s">
         <v>86</v>
       </c>
-      <c r="E22" s="64"/>
-      <c r="F22" s="64"/>
-      <c r="G22" s="64"/>
-      <c r="H22" s="64"/>
-      <c r="I22" s="64"/>
-      <c r="J22" s="64"/>
-      <c r="K22" s="64"/>
-      <c r="L22" s="64"/>
-      <c r="M22" s="64"/>
-      <c r="N22" s="64"/>
-      <c r="O22" s="64"/>
-      <c r="P22" s="65"/>
-      <c r="Q22" s="82" t="s">
+      <c r="E22" s="58"/>
+      <c r="F22" s="58"/>
+      <c r="G22" s="58"/>
+      <c r="H22" s="58"/>
+      <c r="I22" s="58"/>
+      <c r="J22" s="58"/>
+      <c r="K22" s="58"/>
+      <c r="L22" s="58"/>
+      <c r="M22" s="58"/>
+      <c r="N22" s="58"/>
+      <c r="O22" s="58"/>
+      <c r="P22" s="59"/>
+      <c r="Q22" s="57" t="s">
         <v>33</v>
       </c>
       <c r="R22" s="44"/>
@@ -5842,20 +5879,20 @@
       <c r="U22" s="44"/>
       <c r="V22" s="44"/>
       <c r="W22" s="45"/>
-      <c r="X22" s="81"/>
+      <c r="X22" s="52"/>
       <c r="Y22" s="44"/>
       <c r="Z22" s="44"/>
       <c r="AA22" s="44"/>
       <c r="AB22" s="44"/>
       <c r="AC22" s="44"/>
       <c r="AD22" s="45"/>
-      <c r="AE22" s="62"/>
+      <c r="AE22" s="53"/>
       <c r="AF22" s="44"/>
       <c r="AG22" s="45"/>
-      <c r="AH22" s="83"/>
-      <c r="AI22" s="84"/>
-      <c r="AJ22" s="85"/>
-      <c r="AK22" s="81"/>
+      <c r="AH22" s="54"/>
+      <c r="AI22" s="55"/>
+      <c r="AJ22" s="56"/>
+      <c r="AK22" s="52"/>
       <c r="AL22" s="44"/>
       <c r="AM22" s="44"/>
       <c r="AN22" s="44"/>
@@ -5892,22 +5929,22 @@
       <c r="A23" s="2"/>
       <c r="B23" s="13"/>
       <c r="C23" s="24"/>
-      <c r="D23" s="62" t="s">
+      <c r="D23" s="53" t="s">
         <v>79</v>
       </c>
-      <c r="E23" s="64"/>
-      <c r="F23" s="64"/>
-      <c r="G23" s="64"/>
-      <c r="H23" s="64"/>
-      <c r="I23" s="64"/>
-      <c r="J23" s="64"/>
-      <c r="K23" s="64"/>
-      <c r="L23" s="64"/>
-      <c r="M23" s="64"/>
-      <c r="N23" s="64"/>
-      <c r="O23" s="64"/>
-      <c r="P23" s="65"/>
-      <c r="Q23" s="82" t="s">
+      <c r="E23" s="58"/>
+      <c r="F23" s="58"/>
+      <c r="G23" s="58"/>
+      <c r="H23" s="58"/>
+      <c r="I23" s="58"/>
+      <c r="J23" s="58"/>
+      <c r="K23" s="58"/>
+      <c r="L23" s="58"/>
+      <c r="M23" s="58"/>
+      <c r="N23" s="58"/>
+      <c r="O23" s="58"/>
+      <c r="P23" s="59"/>
+      <c r="Q23" s="57" t="s">
         <v>62</v>
       </c>
       <c r="R23" s="44"/>
@@ -5916,22 +5953,22 @@
       <c r="U23" s="44"/>
       <c r="V23" s="44"/>
       <c r="W23" s="45"/>
-      <c r="X23" s="81"/>
+      <c r="X23" s="52"/>
       <c r="Y23" s="44"/>
       <c r="Z23" s="44"/>
       <c r="AA23" s="44"/>
       <c r="AB23" s="44"/>
       <c r="AC23" s="44"/>
       <c r="AD23" s="45"/>
-      <c r="AE23" s="62">
+      <c r="AE23" s="53">
         <v>10</v>
       </c>
       <c r="AF23" s="44"/>
       <c r="AG23" s="45"/>
-      <c r="AH23" s="83"/>
-      <c r="AI23" s="84"/>
-      <c r="AJ23" s="85"/>
-      <c r="AK23" s="81"/>
+      <c r="AH23" s="54"/>
+      <c r="AI23" s="55"/>
+      <c r="AJ23" s="56"/>
+      <c r="AK23" s="52"/>
       <c r="AL23" s="44"/>
       <c r="AM23" s="44"/>
       <c r="AN23" s="44"/>
@@ -5983,30 +6020,32 @@
       <c r="N24" s="22"/>
       <c r="O24" s="22"/>
       <c r="P24" s="23"/>
-      <c r="Q24" s="82"/>
+      <c r="Q24" s="57"/>
       <c r="R24" s="44"/>
       <c r="S24" s="44"/>
       <c r="T24" s="44"/>
       <c r="U24" s="44"/>
       <c r="V24" s="44"/>
       <c r="W24" s="45"/>
-      <c r="X24" s="81"/>
+      <c r="X24" s="52" t="s">
+        <v>41</v>
+      </c>
       <c r="Y24" s="44"/>
       <c r="Z24" s="44"/>
       <c r="AA24" s="44"/>
       <c r="AB24" s="44"/>
       <c r="AC24" s="44"/>
       <c r="AD24" s="45"/>
-      <c r="AE24" s="62"/>
+      <c r="AE24" s="53"/>
       <c r="AF24" s="44"/>
       <c r="AG24" s="45"/>
-      <c r="AH24" s="83" t="s">
+      <c r="AH24" s="54" t="s">
         <v>87</v>
       </c>
-      <c r="AI24" s="84"/>
-      <c r="AJ24" s="85"/>
-      <c r="AK24" s="81" t="s">
-        <v>121</v>
+      <c r="AI24" s="55"/>
+      <c r="AJ24" s="56"/>
+      <c r="AK24" s="52" t="s">
+        <v>130</v>
       </c>
       <c r="AL24" s="44"/>
       <c r="AM24" s="44"/>
@@ -6044,22 +6083,22 @@
       <c r="A25" s="2"/>
       <c r="B25" s="13"/>
       <c r="C25" s="24"/>
-      <c r="D25" s="62" t="s">
+      <c r="D25" s="53" t="s">
         <v>86</v>
       </c>
-      <c r="E25" s="64"/>
-      <c r="F25" s="64"/>
-      <c r="G25" s="64"/>
-      <c r="H25" s="64"/>
-      <c r="I25" s="64"/>
-      <c r="J25" s="64"/>
-      <c r="K25" s="64"/>
-      <c r="L25" s="64"/>
-      <c r="M25" s="64"/>
-      <c r="N25" s="64"/>
-      <c r="O25" s="64"/>
-      <c r="P25" s="65"/>
-      <c r="Q25" s="82" t="s">
+      <c r="E25" s="58"/>
+      <c r="F25" s="58"/>
+      <c r="G25" s="58"/>
+      <c r="H25" s="58"/>
+      <c r="I25" s="58"/>
+      <c r="J25" s="58"/>
+      <c r="K25" s="58"/>
+      <c r="L25" s="58"/>
+      <c r="M25" s="58"/>
+      <c r="N25" s="58"/>
+      <c r="O25" s="58"/>
+      <c r="P25" s="59"/>
+      <c r="Q25" s="57" t="s">
         <v>33</v>
       </c>
       <c r="R25" s="44"/>
@@ -6068,20 +6107,20 @@
       <c r="U25" s="44"/>
       <c r="V25" s="44"/>
       <c r="W25" s="45"/>
-      <c r="X25" s="81"/>
+      <c r="X25" s="52"/>
       <c r="Y25" s="44"/>
       <c r="Z25" s="44"/>
       <c r="AA25" s="44"/>
       <c r="AB25" s="44"/>
       <c r="AC25" s="44"/>
       <c r="AD25" s="45"/>
-      <c r="AE25" s="62"/>
+      <c r="AE25" s="53"/>
       <c r="AF25" s="44"/>
       <c r="AG25" s="45"/>
-      <c r="AH25" s="83"/>
-      <c r="AI25" s="84"/>
-      <c r="AJ25" s="85"/>
-      <c r="AK25" s="81"/>
+      <c r="AH25" s="54"/>
+      <c r="AI25" s="55"/>
+      <c r="AJ25" s="56"/>
+      <c r="AK25" s="52"/>
       <c r="AL25" s="44"/>
       <c r="AM25" s="44"/>
       <c r="AN25" s="44"/>
@@ -6118,22 +6157,22 @@
       <c r="A26" s="2"/>
       <c r="B26" s="39"/>
       <c r="C26" s="37"/>
-      <c r="D26" s="62" t="s">
+      <c r="D26" s="53" t="s">
         <v>79</v>
       </c>
-      <c r="E26" s="64"/>
-      <c r="F26" s="64"/>
-      <c r="G26" s="64"/>
-      <c r="H26" s="64"/>
-      <c r="I26" s="64"/>
-      <c r="J26" s="64"/>
-      <c r="K26" s="64"/>
-      <c r="L26" s="64"/>
-      <c r="M26" s="64"/>
-      <c r="N26" s="64"/>
-      <c r="O26" s="64"/>
-      <c r="P26" s="65"/>
-      <c r="Q26" s="82" t="s">
+      <c r="E26" s="58"/>
+      <c r="F26" s="58"/>
+      <c r="G26" s="58"/>
+      <c r="H26" s="58"/>
+      <c r="I26" s="58"/>
+      <c r="J26" s="58"/>
+      <c r="K26" s="58"/>
+      <c r="L26" s="58"/>
+      <c r="M26" s="58"/>
+      <c r="N26" s="58"/>
+      <c r="O26" s="58"/>
+      <c r="P26" s="59"/>
+      <c r="Q26" s="57" t="s">
         <v>62</v>
       </c>
       <c r="R26" s="44"/>
@@ -6142,22 +6181,22 @@
       <c r="U26" s="44"/>
       <c r="V26" s="44"/>
       <c r="W26" s="45"/>
-      <c r="X26" s="81"/>
+      <c r="X26" s="52"/>
       <c r="Y26" s="44"/>
       <c r="Z26" s="44"/>
       <c r="AA26" s="44"/>
       <c r="AB26" s="44"/>
       <c r="AC26" s="44"/>
       <c r="AD26" s="45"/>
-      <c r="AE26" s="62">
+      <c r="AE26" s="53">
         <v>10</v>
       </c>
       <c r="AF26" s="44"/>
       <c r="AG26" s="45"/>
-      <c r="AH26" s="83"/>
-      <c r="AI26" s="84"/>
-      <c r="AJ26" s="85"/>
-      <c r="AK26" s="81"/>
+      <c r="AH26" s="54"/>
+      <c r="AI26" s="55"/>
+      <c r="AJ26" s="56"/>
+      <c r="AK26" s="52"/>
       <c r="AL26" s="44"/>
       <c r="AM26" s="44"/>
       <c r="AN26" s="44"/>
@@ -6405,51 +6444,51 @@
     </row>
     <row r="30" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A30" s="5"/>
-      <c r="B30" s="52" t="s">
+      <c r="B30" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="C30" s="54" t="s">
+      <c r="C30" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="D30" s="55"/>
-      <c r="E30" s="55"/>
-      <c r="F30" s="55"/>
-      <c r="G30" s="55"/>
-      <c r="H30" s="55"/>
-      <c r="I30" s="55"/>
-      <c r="J30" s="55"/>
-      <c r="K30" s="56"/>
-      <c r="L30" s="54" t="s">
+      <c r="D30" s="73"/>
+      <c r="E30" s="73"/>
+      <c r="F30" s="73"/>
+      <c r="G30" s="73"/>
+      <c r="H30" s="73"/>
+      <c r="I30" s="73"/>
+      <c r="J30" s="73"/>
+      <c r="K30" s="74"/>
+      <c r="L30" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="M30" s="55"/>
-      <c r="N30" s="55"/>
-      <c r="O30" s="55"/>
-      <c r="P30" s="55"/>
-      <c r="Q30" s="55"/>
-      <c r="R30" s="55"/>
-      <c r="S30" s="55"/>
-      <c r="T30" s="55"/>
-      <c r="U30" s="55"/>
-      <c r="V30" s="55"/>
-      <c r="W30" s="55"/>
-      <c r="X30" s="55"/>
-      <c r="Y30" s="55"/>
-      <c r="Z30" s="55"/>
-      <c r="AA30" s="55"/>
-      <c r="AB30" s="56"/>
-      <c r="AC30" s="54" t="s">
+      <c r="M30" s="73"/>
+      <c r="N30" s="73"/>
+      <c r="O30" s="73"/>
+      <c r="P30" s="73"/>
+      <c r="Q30" s="73"/>
+      <c r="R30" s="73"/>
+      <c r="S30" s="73"/>
+      <c r="T30" s="73"/>
+      <c r="U30" s="73"/>
+      <c r="V30" s="73"/>
+      <c r="W30" s="73"/>
+      <c r="X30" s="73"/>
+      <c r="Y30" s="73"/>
+      <c r="Z30" s="73"/>
+      <c r="AA30" s="73"/>
+      <c r="AB30" s="74"/>
+      <c r="AC30" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="AD30" s="55"/>
-      <c r="AE30" s="55"/>
-      <c r="AF30" s="55"/>
-      <c r="AG30" s="55"/>
-      <c r="AH30" s="55"/>
-      <c r="AI30" s="55"/>
-      <c r="AJ30" s="55"/>
-      <c r="AK30" s="56"/>
-      <c r="AL30" s="91" t="s">
+      <c r="AD30" s="73"/>
+      <c r="AE30" s="73"/>
+      <c r="AF30" s="73"/>
+      <c r="AG30" s="73"/>
+      <c r="AH30" s="73"/>
+      <c r="AI30" s="73"/>
+      <c r="AJ30" s="73"/>
+      <c r="AK30" s="74"/>
+      <c r="AL30" s="66" t="s">
         <v>12</v>
       </c>
       <c r="AM30" s="44"/>
@@ -6485,43 +6524,43 @@
     </row>
     <row r="31" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A31" s="5"/>
-      <c r="B31" s="53"/>
-      <c r="C31" s="57"/>
-      <c r="D31" s="58"/>
-      <c r="E31" s="58"/>
-      <c r="F31" s="58"/>
-      <c r="G31" s="58"/>
-      <c r="H31" s="58"/>
-      <c r="I31" s="58"/>
-      <c r="J31" s="58"/>
-      <c r="K31" s="59"/>
-      <c r="L31" s="57"/>
-      <c r="M31" s="58"/>
-      <c r="N31" s="58"/>
-      <c r="O31" s="58"/>
-      <c r="P31" s="58"/>
-      <c r="Q31" s="58"/>
-      <c r="R31" s="58"/>
-      <c r="S31" s="58"/>
-      <c r="T31" s="58"/>
-      <c r="U31" s="58"/>
-      <c r="V31" s="58"/>
-      <c r="W31" s="58"/>
-      <c r="X31" s="58"/>
-      <c r="Y31" s="58"/>
-      <c r="Z31" s="58"/>
-      <c r="AA31" s="58"/>
-      <c r="AB31" s="59"/>
-      <c r="AC31" s="79"/>
-      <c r="AD31" s="61"/>
-      <c r="AE31" s="61"/>
-      <c r="AF31" s="61"/>
-      <c r="AG31" s="61"/>
-      <c r="AH31" s="61"/>
-      <c r="AI31" s="61"/>
-      <c r="AJ31" s="61"/>
-      <c r="AK31" s="53"/>
-      <c r="AL31" s="92" t="s">
+      <c r="B31" s="77"/>
+      <c r="C31" s="80"/>
+      <c r="D31" s="81"/>
+      <c r="E31" s="81"/>
+      <c r="F31" s="81"/>
+      <c r="G31" s="81"/>
+      <c r="H31" s="81"/>
+      <c r="I31" s="81"/>
+      <c r="J31" s="81"/>
+      <c r="K31" s="82"/>
+      <c r="L31" s="80"/>
+      <c r="M31" s="81"/>
+      <c r="N31" s="81"/>
+      <c r="O31" s="81"/>
+      <c r="P31" s="81"/>
+      <c r="Q31" s="81"/>
+      <c r="R31" s="81"/>
+      <c r="S31" s="81"/>
+      <c r="T31" s="81"/>
+      <c r="U31" s="81"/>
+      <c r="V31" s="81"/>
+      <c r="W31" s="81"/>
+      <c r="X31" s="81"/>
+      <c r="Y31" s="81"/>
+      <c r="Z31" s="81"/>
+      <c r="AA31" s="81"/>
+      <c r="AB31" s="82"/>
+      <c r="AC31" s="75"/>
+      <c r="AD31" s="76"/>
+      <c r="AE31" s="76"/>
+      <c r="AF31" s="76"/>
+      <c r="AG31" s="76"/>
+      <c r="AH31" s="76"/>
+      <c r="AI31" s="76"/>
+      <c r="AJ31" s="76"/>
+      <c r="AK31" s="77"/>
+      <c r="AL31" s="67" t="s">
         <v>13</v>
       </c>
       <c r="AM31" s="44"/>
@@ -6532,14 +6571,14 @@
       <c r="AR31" s="44"/>
       <c r="AS31" s="44"/>
       <c r="AT31" s="45"/>
-      <c r="AU31" s="92" t="s">
+      <c r="AU31" s="67" t="s">
         <v>14</v>
       </c>
       <c r="AV31" s="44"/>
       <c r="AW31" s="44"/>
       <c r="AX31" s="44"/>
       <c r="AY31" s="45"/>
-      <c r="AZ31" s="92" t="s">
+      <c r="AZ31" s="67" t="s">
         <v>15</v>
       </c>
       <c r="BA31" s="44"/>
@@ -6565,37 +6604,39 @@
         <f ca="1">MAX(B$30:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>1</v>
       </c>
-      <c r="C32" s="66" t="s">
+      <c r="C32" s="85" t="s">
         <v>117</v>
       </c>
-      <c r="D32" s="67"/>
-      <c r="E32" s="67"/>
-      <c r="F32" s="67"/>
-      <c r="G32" s="67"/>
-      <c r="H32" s="67"/>
-      <c r="I32" s="67"/>
-      <c r="J32" s="67"/>
-      <c r="K32" s="68"/>
-      <c r="L32" s="69" t="s">
+      <c r="D32" s="86"/>
+      <c r="E32" s="86"/>
+      <c r="F32" s="86"/>
+      <c r="G32" s="86"/>
+      <c r="H32" s="86"/>
+      <c r="I32" s="86"/>
+      <c r="J32" s="86"/>
+      <c r="K32" s="87"/>
+      <c r="L32" s="88" t="s">
         <v>118</v>
       </c>
-      <c r="M32" s="70"/>
-      <c r="N32" s="70"/>
-      <c r="O32" s="70"/>
-      <c r="P32" s="70"/>
-      <c r="Q32" s="70"/>
-      <c r="R32" s="70"/>
-      <c r="S32" s="70"/>
-      <c r="T32" s="70"/>
-      <c r="U32" s="70"/>
-      <c r="V32" s="70"/>
-      <c r="W32" s="70"/>
-      <c r="X32" s="70"/>
-      <c r="Y32" s="70"/>
-      <c r="Z32" s="70"/>
-      <c r="AA32" s="70"/>
-      <c r="AB32" s="70"/>
-      <c r="AC32" s="64"/>
+      <c r="M32" s="89"/>
+      <c r="N32" s="89"/>
+      <c r="O32" s="89"/>
+      <c r="P32" s="89"/>
+      <c r="Q32" s="89"/>
+      <c r="R32" s="89"/>
+      <c r="S32" s="89"/>
+      <c r="T32" s="89"/>
+      <c r="U32" s="89"/>
+      <c r="V32" s="89"/>
+      <c r="W32" s="89"/>
+      <c r="X32" s="89"/>
+      <c r="Y32" s="89"/>
+      <c r="Z32" s="89"/>
+      <c r="AA32" s="89"/>
+      <c r="AB32" s="89"/>
+      <c r="AC32" s="58" t="s">
+        <v>131</v>
+      </c>
       <c r="AD32" s="44"/>
       <c r="AE32" s="44"/>
       <c r="AF32" s="44"/>
@@ -6604,7 +6645,9 @@
       <c r="AI32" s="44"/>
       <c r="AJ32" s="44"/>
       <c r="AK32" s="45"/>
-      <c r="AL32" s="77"/>
+      <c r="AL32" s="60" t="s">
+        <v>132</v>
+      </c>
       <c r="AM32" s="44"/>
       <c r="AN32" s="44"/>
       <c r="AO32" s="44"/>
@@ -6613,12 +6656,14 @@
       <c r="AR32" s="44"/>
       <c r="AS32" s="44"/>
       <c r="AT32" s="45"/>
-      <c r="AU32" s="77"/>
+      <c r="AU32" s="60"/>
       <c r="AV32" s="44"/>
       <c r="AW32" s="44"/>
       <c r="AX32" s="44"/>
       <c r="AY32" s="45"/>
-      <c r="AZ32" s="78"/>
+      <c r="AZ32" s="63" t="s">
+        <v>133</v>
+      </c>
       <c r="BA32" s="44"/>
       <c r="BB32" s="44"/>
       <c r="BC32" s="44"/>
@@ -6642,37 +6687,39 @@
         <f ca="1">MAX(B$30:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>2</v>
       </c>
-      <c r="C33" s="66" t="s">
+      <c r="C33" s="85" t="s">
         <v>119</v>
       </c>
-      <c r="D33" s="67"/>
-      <c r="E33" s="67"/>
-      <c r="F33" s="67"/>
-      <c r="G33" s="67"/>
-      <c r="H33" s="67"/>
-      <c r="I33" s="67"/>
-      <c r="J33" s="67"/>
-      <c r="K33" s="68"/>
-      <c r="L33" s="69" t="s">
+      <c r="D33" s="86"/>
+      <c r="E33" s="86"/>
+      <c r="F33" s="86"/>
+      <c r="G33" s="86"/>
+      <c r="H33" s="86"/>
+      <c r="I33" s="86"/>
+      <c r="J33" s="86"/>
+      <c r="K33" s="87"/>
+      <c r="L33" s="88" t="s">
         <v>120</v>
       </c>
-      <c r="M33" s="70"/>
-      <c r="N33" s="70"/>
-      <c r="O33" s="70"/>
-      <c r="P33" s="70"/>
-      <c r="Q33" s="70"/>
-      <c r="R33" s="70"/>
-      <c r="S33" s="70"/>
-      <c r="T33" s="70"/>
-      <c r="U33" s="70"/>
-      <c r="V33" s="70"/>
-      <c r="W33" s="70"/>
-      <c r="X33" s="70"/>
-      <c r="Y33" s="70"/>
-      <c r="Z33" s="70"/>
-      <c r="AA33" s="70"/>
-      <c r="AB33" s="70"/>
-      <c r="AC33" s="64"/>
+      <c r="M33" s="89"/>
+      <c r="N33" s="89"/>
+      <c r="O33" s="89"/>
+      <c r="P33" s="89"/>
+      <c r="Q33" s="89"/>
+      <c r="R33" s="89"/>
+      <c r="S33" s="89"/>
+      <c r="T33" s="89"/>
+      <c r="U33" s="89"/>
+      <c r="V33" s="89"/>
+      <c r="W33" s="89"/>
+      <c r="X33" s="89"/>
+      <c r="Y33" s="89"/>
+      <c r="Z33" s="89"/>
+      <c r="AA33" s="89"/>
+      <c r="AB33" s="89"/>
+      <c r="AC33" s="58" t="s">
+        <v>131</v>
+      </c>
       <c r="AD33" s="44"/>
       <c r="AE33" s="44"/>
       <c r="AF33" s="44"/>
@@ -6681,7 +6728,9 @@
       <c r="AI33" s="44"/>
       <c r="AJ33" s="44"/>
       <c r="AK33" s="45"/>
-      <c r="AL33" s="77"/>
+      <c r="AL33" s="60" t="s">
+        <v>132</v>
+      </c>
       <c r="AM33" s="44"/>
       <c r="AN33" s="44"/>
       <c r="AO33" s="44"/>
@@ -6690,12 +6739,14 @@
       <c r="AR33" s="44"/>
       <c r="AS33" s="44"/>
       <c r="AT33" s="45"/>
-      <c r="AU33" s="77"/>
+      <c r="AU33" s="60"/>
       <c r="AV33" s="44"/>
       <c r="AW33" s="44"/>
       <c r="AX33" s="44"/>
       <c r="AY33" s="45"/>
-      <c r="AZ33" s="78"/>
+      <c r="AZ33" s="63" t="s">
+        <v>133</v>
+      </c>
       <c r="BA33" s="44"/>
       <c r="BB33" s="44"/>
       <c r="BC33" s="44"/>
@@ -6719,35 +6770,35 @@
         <f ca="1">MAX(B$30:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>3</v>
       </c>
-      <c r="C34" s="66" t="s">
+      <c r="C34" s="85" t="s">
         <v>91</v>
       </c>
-      <c r="D34" s="67"/>
-      <c r="E34" s="67"/>
-      <c r="F34" s="67"/>
-      <c r="G34" s="67"/>
-      <c r="H34" s="67"/>
-      <c r="I34" s="67"/>
-      <c r="J34" s="67"/>
-      <c r="K34" s="68"/>
-      <c r="L34" s="71"/>
-      <c r="M34" s="72"/>
-      <c r="N34" s="72"/>
-      <c r="O34" s="72"/>
-      <c r="P34" s="72"/>
-      <c r="Q34" s="72"/>
-      <c r="R34" s="72"/>
-      <c r="S34" s="72"/>
-      <c r="T34" s="72"/>
-      <c r="U34" s="72"/>
-      <c r="V34" s="72"/>
-      <c r="W34" s="72"/>
-      <c r="X34" s="72"/>
-      <c r="Y34" s="72"/>
-      <c r="Z34" s="72"/>
-      <c r="AA34" s="72"/>
-      <c r="AB34" s="73"/>
-      <c r="AC34" s="64"/>
+      <c r="D34" s="86"/>
+      <c r="E34" s="86"/>
+      <c r="F34" s="86"/>
+      <c r="G34" s="86"/>
+      <c r="H34" s="86"/>
+      <c r="I34" s="86"/>
+      <c r="J34" s="86"/>
+      <c r="K34" s="87"/>
+      <c r="L34" s="90"/>
+      <c r="M34" s="91"/>
+      <c r="N34" s="91"/>
+      <c r="O34" s="91"/>
+      <c r="P34" s="91"/>
+      <c r="Q34" s="91"/>
+      <c r="R34" s="91"/>
+      <c r="S34" s="91"/>
+      <c r="T34" s="91"/>
+      <c r="U34" s="91"/>
+      <c r="V34" s="91"/>
+      <c r="W34" s="91"/>
+      <c r="X34" s="91"/>
+      <c r="Y34" s="91"/>
+      <c r="Z34" s="91"/>
+      <c r="AA34" s="91"/>
+      <c r="AB34" s="92"/>
+      <c r="AC34" s="58"/>
       <c r="AD34" s="44"/>
       <c r="AE34" s="44"/>
       <c r="AF34" s="44"/>
@@ -6756,7 +6807,7 @@
       <c r="AI34" s="44"/>
       <c r="AJ34" s="44"/>
       <c r="AK34" s="45"/>
-      <c r="AL34" s="77"/>
+      <c r="AL34" s="60"/>
       <c r="AM34" s="44"/>
       <c r="AN34" s="44"/>
       <c r="AO34" s="44"/>
@@ -6765,12 +6816,12 @@
       <c r="AR34" s="44"/>
       <c r="AS34" s="44"/>
       <c r="AT34" s="45"/>
-      <c r="AU34" s="77"/>
+      <c r="AU34" s="60"/>
       <c r="AV34" s="44"/>
       <c r="AW34" s="44"/>
       <c r="AX34" s="44"/>
       <c r="AY34" s="45"/>
-      <c r="AZ34" s="78"/>
+      <c r="AZ34" s="63"/>
       <c r="BA34" s="44"/>
       <c r="BB34" s="44"/>
       <c r="BC34" s="44"/>
@@ -6805,24 +6856,24 @@
       <c r="I35" s="41"/>
       <c r="J35" s="41"/>
       <c r="K35" s="42"/>
-      <c r="L35" s="60"/>
-      <c r="M35" s="61"/>
-      <c r="N35" s="61"/>
-      <c r="O35" s="61"/>
-      <c r="P35" s="61"/>
-      <c r="Q35" s="61"/>
-      <c r="R35" s="61"/>
-      <c r="S35" s="61"/>
-      <c r="T35" s="61"/>
-      <c r="U35" s="61"/>
-      <c r="V35" s="61"/>
-      <c r="W35" s="61"/>
-      <c r="X35" s="61"/>
-      <c r="Y35" s="61"/>
-      <c r="Z35" s="61"/>
-      <c r="AA35" s="61"/>
-      <c r="AB35" s="61"/>
-      <c r="AC35" s="62"/>
+      <c r="L35" s="83"/>
+      <c r="M35" s="76"/>
+      <c r="N35" s="76"/>
+      <c r="O35" s="76"/>
+      <c r="P35" s="76"/>
+      <c r="Q35" s="76"/>
+      <c r="R35" s="76"/>
+      <c r="S35" s="76"/>
+      <c r="T35" s="76"/>
+      <c r="U35" s="76"/>
+      <c r="V35" s="76"/>
+      <c r="W35" s="76"/>
+      <c r="X35" s="76"/>
+      <c r="Y35" s="76"/>
+      <c r="Z35" s="76"/>
+      <c r="AA35" s="76"/>
+      <c r="AB35" s="76"/>
+      <c r="AC35" s="53"/>
       <c r="AD35" s="44"/>
       <c r="AE35" s="44"/>
       <c r="AF35" s="44"/>
@@ -6831,7 +6882,7 @@
       <c r="AI35" s="44"/>
       <c r="AJ35" s="44"/>
       <c r="AK35" s="45"/>
-      <c r="AL35" s="77"/>
+      <c r="AL35" s="60"/>
       <c r="AM35" s="44"/>
       <c r="AN35" s="44"/>
       <c r="AO35" s="44"/>
@@ -6840,12 +6891,12 @@
       <c r="AR35" s="44"/>
       <c r="AS35" s="44"/>
       <c r="AT35" s="45"/>
-      <c r="AU35" s="77"/>
+      <c r="AU35" s="60"/>
       <c r="AV35" s="44"/>
       <c r="AW35" s="44"/>
       <c r="AX35" s="44"/>
       <c r="AY35" s="45"/>
-      <c r="AZ35" s="78"/>
+      <c r="AZ35" s="63"/>
       <c r="BA35" s="44"/>
       <c r="BB35" s="44"/>
       <c r="BC35" s="44"/>
@@ -6869,75 +6920,75 @@
         <f ca="1">MAX(B$30:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>5</v>
       </c>
-      <c r="C36" s="63" t="s">
+      <c r="C36" s="84" t="s">
         <v>68</v>
       </c>
-      <c r="D36" s="64"/>
-      <c r="E36" s="64"/>
-      <c r="F36" s="64"/>
-      <c r="G36" s="64"/>
-      <c r="H36" s="64"/>
-      <c r="I36" s="64"/>
-      <c r="J36" s="64"/>
-      <c r="K36" s="65"/>
-      <c r="L36" s="62" t="s">
+      <c r="D36" s="58"/>
+      <c r="E36" s="58"/>
+      <c r="F36" s="58"/>
+      <c r="G36" s="58"/>
+      <c r="H36" s="58"/>
+      <c r="I36" s="58"/>
+      <c r="J36" s="58"/>
+      <c r="K36" s="59"/>
+      <c r="L36" s="53" t="s">
         <v>69</v>
       </c>
-      <c r="M36" s="64"/>
-      <c r="N36" s="64"/>
-      <c r="O36" s="64"/>
-      <c r="P36" s="64"/>
-      <c r="Q36" s="64"/>
-      <c r="R36" s="64"/>
-      <c r="S36" s="64"/>
-      <c r="T36" s="64"/>
-      <c r="U36" s="64"/>
-      <c r="V36" s="64"/>
-      <c r="W36" s="64"/>
-      <c r="X36" s="64"/>
-      <c r="Y36" s="64"/>
-      <c r="Z36" s="64"/>
-      <c r="AA36" s="64"/>
-      <c r="AB36" s="65"/>
-      <c r="AC36" s="62"/>
-      <c r="AD36" s="64"/>
-      <c r="AE36" s="64"/>
-      <c r="AF36" s="64"/>
-      <c r="AG36" s="64"/>
-      <c r="AH36" s="64"/>
-      <c r="AI36" s="64"/>
-      <c r="AJ36" s="64"/>
-      <c r="AK36" s="65"/>
-      <c r="AL36" s="77"/>
-      <c r="AM36" s="87"/>
-      <c r="AN36" s="87"/>
-      <c r="AO36" s="87"/>
-      <c r="AP36" s="87"/>
-      <c r="AQ36" s="87"/>
-      <c r="AR36" s="87"/>
-      <c r="AS36" s="87"/>
-      <c r="AT36" s="88"/>
-      <c r="AU36" s="77"/>
-      <c r="AV36" s="87"/>
-      <c r="AW36" s="87"/>
-      <c r="AX36" s="87"/>
-      <c r="AY36" s="88"/>
-      <c r="AZ36" s="78"/>
-      <c r="BA36" s="89"/>
-      <c r="BB36" s="89"/>
-      <c r="BC36" s="89"/>
-      <c r="BD36" s="89"/>
-      <c r="BE36" s="89"/>
-      <c r="BF36" s="89"/>
-      <c r="BG36" s="89"/>
-      <c r="BH36" s="89"/>
-      <c r="BI36" s="89"/>
-      <c r="BJ36" s="89"/>
-      <c r="BK36" s="89"/>
-      <c r="BL36" s="89"/>
-      <c r="BM36" s="89"/>
-      <c r="BN36" s="89"/>
-      <c r="BO36" s="90"/>
+      <c r="M36" s="58"/>
+      <c r="N36" s="58"/>
+      <c r="O36" s="58"/>
+      <c r="P36" s="58"/>
+      <c r="Q36" s="58"/>
+      <c r="R36" s="58"/>
+      <c r="S36" s="58"/>
+      <c r="T36" s="58"/>
+      <c r="U36" s="58"/>
+      <c r="V36" s="58"/>
+      <c r="W36" s="58"/>
+      <c r="X36" s="58"/>
+      <c r="Y36" s="58"/>
+      <c r="Z36" s="58"/>
+      <c r="AA36" s="58"/>
+      <c r="AB36" s="59"/>
+      <c r="AC36" s="53"/>
+      <c r="AD36" s="58"/>
+      <c r="AE36" s="58"/>
+      <c r="AF36" s="58"/>
+      <c r="AG36" s="58"/>
+      <c r="AH36" s="58"/>
+      <c r="AI36" s="58"/>
+      <c r="AJ36" s="58"/>
+      <c r="AK36" s="59"/>
+      <c r="AL36" s="60"/>
+      <c r="AM36" s="61"/>
+      <c r="AN36" s="61"/>
+      <c r="AO36" s="61"/>
+      <c r="AP36" s="61"/>
+      <c r="AQ36" s="61"/>
+      <c r="AR36" s="61"/>
+      <c r="AS36" s="61"/>
+      <c r="AT36" s="62"/>
+      <c r="AU36" s="60"/>
+      <c r="AV36" s="61"/>
+      <c r="AW36" s="61"/>
+      <c r="AX36" s="61"/>
+      <c r="AY36" s="62"/>
+      <c r="AZ36" s="63"/>
+      <c r="BA36" s="64"/>
+      <c r="BB36" s="64"/>
+      <c r="BC36" s="64"/>
+      <c r="BD36" s="64"/>
+      <c r="BE36" s="64"/>
+      <c r="BF36" s="64"/>
+      <c r="BG36" s="64"/>
+      <c r="BH36" s="64"/>
+      <c r="BI36" s="64"/>
+      <c r="BJ36" s="64"/>
+      <c r="BK36" s="64"/>
+      <c r="BL36" s="64"/>
+      <c r="BM36" s="64"/>
+      <c r="BN36" s="64"/>
+      <c r="BO36" s="65"/>
       <c r="BP36" s="2"/>
     </row>
     <row r="37" spans="1:68" ht="16.5">
@@ -11018,15 +11069,88 @@
     </row>
   </sheetData>
   <mergeCells count="115">
-    <mergeCell ref="X23:AD23"/>
-    <mergeCell ref="AE23:AG23"/>
-    <mergeCell ref="AH23:AJ23"/>
-    <mergeCell ref="AK23:BO23"/>
-    <mergeCell ref="Q24:W24"/>
-    <mergeCell ref="X24:AD24"/>
-    <mergeCell ref="AE24:AG24"/>
-    <mergeCell ref="AH24:AJ24"/>
-    <mergeCell ref="AK24:BO24"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:K31"/>
+    <mergeCell ref="L30:AB31"/>
+    <mergeCell ref="L35:AB35"/>
+    <mergeCell ref="AC35:AK35"/>
+    <mergeCell ref="C36:K36"/>
+    <mergeCell ref="L36:AB36"/>
+    <mergeCell ref="AC36:AK36"/>
+    <mergeCell ref="C32:K32"/>
+    <mergeCell ref="L32:AB32"/>
+    <mergeCell ref="AC32:AK32"/>
+    <mergeCell ref="C34:K34"/>
+    <mergeCell ref="L34:AB34"/>
+    <mergeCell ref="AC34:AK34"/>
+    <mergeCell ref="C33:K33"/>
+    <mergeCell ref="L33:AB33"/>
+    <mergeCell ref="AC33:AK33"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="I7:BO7"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="I8:BO8"/>
+    <mergeCell ref="C9:H9"/>
+    <mergeCell ref="I9:BO9"/>
+    <mergeCell ref="C10:H10"/>
+    <mergeCell ref="I10:BO10"/>
+    <mergeCell ref="AL35:AT35"/>
+    <mergeCell ref="AU35:AY35"/>
+    <mergeCell ref="AZ35:BO35"/>
+    <mergeCell ref="AC30:AK31"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="C17:P17"/>
+    <mergeCell ref="AK14:BO14"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="Q14:W14"/>
+    <mergeCell ref="X14:AD14"/>
+    <mergeCell ref="AK15:BO15"/>
+    <mergeCell ref="C14:P14"/>
+    <mergeCell ref="Q15:W15"/>
+    <mergeCell ref="X15:AD15"/>
+    <mergeCell ref="AE15:AG15"/>
+    <mergeCell ref="AH15:AJ15"/>
+    <mergeCell ref="AE14:AG14"/>
+    <mergeCell ref="Q17:W17"/>
+    <mergeCell ref="X17:AD17"/>
+    <mergeCell ref="AE17:AG17"/>
+    <mergeCell ref="AK17:BO17"/>
+    <mergeCell ref="D12:H12"/>
+    <mergeCell ref="I12:BO12"/>
+    <mergeCell ref="C18:P18"/>
+    <mergeCell ref="Q18:W18"/>
+    <mergeCell ref="X18:AD18"/>
+    <mergeCell ref="AE18:AG18"/>
+    <mergeCell ref="AH18:AJ18"/>
+    <mergeCell ref="AK18:BO18"/>
+    <mergeCell ref="AL36:AT36"/>
+    <mergeCell ref="AU36:AY36"/>
+    <mergeCell ref="AZ36:BO36"/>
+    <mergeCell ref="AL30:BO30"/>
+    <mergeCell ref="AL31:AT31"/>
+    <mergeCell ref="AU31:AY31"/>
+    <mergeCell ref="AZ31:BO31"/>
+    <mergeCell ref="AL32:AT32"/>
+    <mergeCell ref="AU32:AY32"/>
+    <mergeCell ref="AZ32:BO32"/>
+    <mergeCell ref="AL34:AT34"/>
+    <mergeCell ref="AU34:AY34"/>
+    <mergeCell ref="AZ34:BO34"/>
+    <mergeCell ref="AL33:AT33"/>
+    <mergeCell ref="AU33:AY33"/>
+    <mergeCell ref="AZ33:BO33"/>
+    <mergeCell ref="AH21:AJ21"/>
+    <mergeCell ref="AE19:AG19"/>
+    <mergeCell ref="AH19:AJ19"/>
+    <mergeCell ref="AK19:BO19"/>
+    <mergeCell ref="D20:P20"/>
+    <mergeCell ref="Q20:W20"/>
+    <mergeCell ref="X20:AD20"/>
+    <mergeCell ref="AE20:AG20"/>
+    <mergeCell ref="AH20:AJ20"/>
+    <mergeCell ref="AK20:BO20"/>
+    <mergeCell ref="Q19:W19"/>
+    <mergeCell ref="X19:AD19"/>
     <mergeCell ref="AK26:BO26"/>
     <mergeCell ref="D26:P26"/>
     <mergeCell ref="Q26:W26"/>
@@ -11051,88 +11175,15 @@
     <mergeCell ref="Q21:W21"/>
     <mergeCell ref="X21:AD21"/>
     <mergeCell ref="AE21:AG21"/>
-    <mergeCell ref="AH21:AJ21"/>
-    <mergeCell ref="AE19:AG19"/>
-    <mergeCell ref="AH19:AJ19"/>
-    <mergeCell ref="AK19:BO19"/>
-    <mergeCell ref="D20:P20"/>
-    <mergeCell ref="Q20:W20"/>
-    <mergeCell ref="X20:AD20"/>
-    <mergeCell ref="AE20:AG20"/>
-    <mergeCell ref="AH20:AJ20"/>
-    <mergeCell ref="AK20:BO20"/>
-    <mergeCell ref="Q19:W19"/>
-    <mergeCell ref="X19:AD19"/>
-    <mergeCell ref="AL36:AT36"/>
-    <mergeCell ref="AU36:AY36"/>
-    <mergeCell ref="AZ36:BO36"/>
-    <mergeCell ref="AL30:BO30"/>
-    <mergeCell ref="AL31:AT31"/>
-    <mergeCell ref="AU31:AY31"/>
-    <mergeCell ref="AZ31:BO31"/>
-    <mergeCell ref="AL32:AT32"/>
-    <mergeCell ref="AU32:AY32"/>
-    <mergeCell ref="AZ32:BO32"/>
-    <mergeCell ref="AL34:AT34"/>
-    <mergeCell ref="AU34:AY34"/>
-    <mergeCell ref="AZ34:BO34"/>
-    <mergeCell ref="AL33:AT33"/>
-    <mergeCell ref="AU33:AY33"/>
-    <mergeCell ref="AZ33:BO33"/>
-    <mergeCell ref="AE14:AG14"/>
-    <mergeCell ref="Q17:W17"/>
-    <mergeCell ref="X17:AD17"/>
-    <mergeCell ref="AE17:AG17"/>
-    <mergeCell ref="AK17:BO17"/>
-    <mergeCell ref="D12:H12"/>
-    <mergeCell ref="I12:BO12"/>
-    <mergeCell ref="C18:P18"/>
-    <mergeCell ref="Q18:W18"/>
-    <mergeCell ref="X18:AD18"/>
-    <mergeCell ref="AE18:AG18"/>
-    <mergeCell ref="AH18:AJ18"/>
-    <mergeCell ref="AK18:BO18"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="I7:BO7"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="I8:BO8"/>
-    <mergeCell ref="C9:H9"/>
-    <mergeCell ref="I9:BO9"/>
-    <mergeCell ref="C10:H10"/>
-    <mergeCell ref="I10:BO10"/>
-    <mergeCell ref="AL35:AT35"/>
-    <mergeCell ref="AU35:AY35"/>
-    <mergeCell ref="AZ35:BO35"/>
-    <mergeCell ref="AC30:AK31"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="C17:P17"/>
-    <mergeCell ref="AK14:BO14"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="Q14:W14"/>
-    <mergeCell ref="X14:AD14"/>
-    <mergeCell ref="AK15:BO15"/>
-    <mergeCell ref="C14:P14"/>
-    <mergeCell ref="Q15:W15"/>
-    <mergeCell ref="X15:AD15"/>
-    <mergeCell ref="AE15:AG15"/>
-    <mergeCell ref="AH15:AJ15"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C30:K31"/>
-    <mergeCell ref="L30:AB31"/>
-    <mergeCell ref="L35:AB35"/>
-    <mergeCell ref="AC35:AK35"/>
-    <mergeCell ref="C36:K36"/>
-    <mergeCell ref="L36:AB36"/>
-    <mergeCell ref="AC36:AK36"/>
-    <mergeCell ref="C32:K32"/>
-    <mergeCell ref="L32:AB32"/>
-    <mergeCell ref="AC32:AK32"/>
-    <mergeCell ref="C34:K34"/>
-    <mergeCell ref="L34:AB34"/>
-    <mergeCell ref="AC34:AK34"/>
-    <mergeCell ref="C33:K33"/>
-    <mergeCell ref="L33:AB33"/>
-    <mergeCell ref="AC33:AK33"/>
+    <mergeCell ref="X23:AD23"/>
+    <mergeCell ref="AE23:AG23"/>
+    <mergeCell ref="AH23:AJ23"/>
+    <mergeCell ref="AK23:BO23"/>
+    <mergeCell ref="Q24:W24"/>
+    <mergeCell ref="X24:AD24"/>
+    <mergeCell ref="AE24:AG24"/>
+    <mergeCell ref="AH24:AJ24"/>
+    <mergeCell ref="AK24:BO24"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <dataValidations count="1">
@@ -11167,7 +11218,7 @@
           <x14:formula1>
             <xm:f>データ入力例!$C$1:$C$27</xm:f>
           </x14:formula1>
-          <xm:sqref>X15 X21:X26</xm:sqref>
+          <xm:sqref>X15 X22:X23 X25:X26</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -11620,7 +11671,7 @@
     <row r="7" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A7" s="2"/>
       <c r="B7" s="13"/>
-      <c r="C7" s="74" t="s">
+      <c r="C7" s="68" t="s">
         <v>23</v>
       </c>
       <c r="D7" s="44"/>
@@ -11628,7 +11679,7 @@
       <c r="F7" s="44"/>
       <c r="G7" s="44"/>
       <c r="H7" s="45"/>
-      <c r="I7" s="62" t="s">
+      <c r="I7" s="53" t="s">
         <v>35</v>
       </c>
       <c r="J7" s="44"/>
@@ -11694,7 +11745,7 @@
     <row r="8" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A8" s="2"/>
       <c r="B8" s="13"/>
-      <c r="C8" s="74" t="s">
+      <c r="C8" s="68" t="s">
         <v>20</v>
       </c>
       <c r="D8" s="44"/>
@@ -11702,7 +11753,7 @@
       <c r="F8" s="44"/>
       <c r="G8" s="44"/>
       <c r="H8" s="45"/>
-      <c r="I8" s="62" t="s">
+      <c r="I8" s="53" t="s">
         <v>25</v>
       </c>
       <c r="J8" s="44"/>
@@ -11768,7 +11819,7 @@
     <row r="9" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A9" s="2"/>
       <c r="B9" s="13"/>
-      <c r="C9" s="74" t="s">
+      <c r="C9" s="68" t="s">
         <v>26</v>
       </c>
       <c r="D9" s="44"/>
@@ -11776,7 +11827,7 @@
       <c r="F9" s="44"/>
       <c r="G9" s="44"/>
       <c r="H9" s="45"/>
-      <c r="I9" s="62" t="s">
+      <c r="I9" s="53" t="s">
         <v>27</v>
       </c>
       <c r="J9" s="44"/>
@@ -11842,75 +11893,75 @@
     <row r="10" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A10" s="32"/>
       <c r="B10" s="33"/>
-      <c r="C10" s="74" t="s">
+      <c r="C10" s="68" t="s">
         <v>128</v>
       </c>
-      <c r="D10" s="75"/>
-      <c r="E10" s="75"/>
-      <c r="F10" s="75"/>
-      <c r="G10" s="75"/>
-      <c r="H10" s="75"/>
-      <c r="I10" s="76" t="s">
+      <c r="D10" s="70"/>
+      <c r="E10" s="70"/>
+      <c r="F10" s="70"/>
+      <c r="G10" s="70"/>
+      <c r="H10" s="70"/>
+      <c r="I10" s="71" t="s">
         <v>123</v>
       </c>
-      <c r="J10" s="76"/>
-      <c r="K10" s="76"/>
-      <c r="L10" s="76"/>
-      <c r="M10" s="76"/>
-      <c r="N10" s="76"/>
-      <c r="O10" s="76"/>
-      <c r="P10" s="76"/>
-      <c r="Q10" s="76"/>
-      <c r="R10" s="76"/>
-      <c r="S10" s="76"/>
-      <c r="T10" s="76"/>
-      <c r="U10" s="76"/>
-      <c r="V10" s="76"/>
-      <c r="W10" s="76"/>
-      <c r="X10" s="76"/>
-      <c r="Y10" s="76"/>
-      <c r="Z10" s="76"/>
-      <c r="AA10" s="76"/>
-      <c r="AB10" s="76"/>
-      <c r="AC10" s="76"/>
-      <c r="AD10" s="76"/>
-      <c r="AE10" s="76"/>
-      <c r="AF10" s="76"/>
-      <c r="AG10" s="76"/>
-      <c r="AH10" s="76"/>
-      <c r="AI10" s="76"/>
-      <c r="AJ10" s="76"/>
-      <c r="AK10" s="76"/>
-      <c r="AL10" s="76"/>
-      <c r="AM10" s="76"/>
-      <c r="AN10" s="76"/>
-      <c r="AO10" s="76"/>
-      <c r="AP10" s="76"/>
-      <c r="AQ10" s="76"/>
-      <c r="AR10" s="76"/>
-      <c r="AS10" s="76"/>
-      <c r="AT10" s="76"/>
-      <c r="AU10" s="76"/>
-      <c r="AV10" s="76"/>
-      <c r="AW10" s="76"/>
-      <c r="AX10" s="76"/>
-      <c r="AY10" s="76"/>
-      <c r="AZ10" s="76"/>
-      <c r="BA10" s="76"/>
-      <c r="BB10" s="76"/>
-      <c r="BC10" s="76"/>
-      <c r="BD10" s="76"/>
-      <c r="BE10" s="76"/>
-      <c r="BF10" s="76"/>
-      <c r="BG10" s="76"/>
-      <c r="BH10" s="76"/>
-      <c r="BI10" s="76"/>
-      <c r="BJ10" s="76"/>
-      <c r="BK10" s="76"/>
-      <c r="BL10" s="76"/>
-      <c r="BM10" s="76"/>
-      <c r="BN10" s="76"/>
-      <c r="BO10" s="76"/>
+      <c r="J10" s="71"/>
+      <c r="K10" s="71"/>
+      <c r="L10" s="71"/>
+      <c r="M10" s="71"/>
+      <c r="N10" s="71"/>
+      <c r="O10" s="71"/>
+      <c r="P10" s="71"/>
+      <c r="Q10" s="71"/>
+      <c r="R10" s="71"/>
+      <c r="S10" s="71"/>
+      <c r="T10" s="71"/>
+      <c r="U10" s="71"/>
+      <c r="V10" s="71"/>
+      <c r="W10" s="71"/>
+      <c r="X10" s="71"/>
+      <c r="Y10" s="71"/>
+      <c r="Z10" s="71"/>
+      <c r="AA10" s="71"/>
+      <c r="AB10" s="71"/>
+      <c r="AC10" s="71"/>
+      <c r="AD10" s="71"/>
+      <c r="AE10" s="71"/>
+      <c r="AF10" s="71"/>
+      <c r="AG10" s="71"/>
+      <c r="AH10" s="71"/>
+      <c r="AI10" s="71"/>
+      <c r="AJ10" s="71"/>
+      <c r="AK10" s="71"/>
+      <c r="AL10" s="71"/>
+      <c r="AM10" s="71"/>
+      <c r="AN10" s="71"/>
+      <c r="AO10" s="71"/>
+      <c r="AP10" s="71"/>
+      <c r="AQ10" s="71"/>
+      <c r="AR10" s="71"/>
+      <c r="AS10" s="71"/>
+      <c r="AT10" s="71"/>
+      <c r="AU10" s="71"/>
+      <c r="AV10" s="71"/>
+      <c r="AW10" s="71"/>
+      <c r="AX10" s="71"/>
+      <c r="AY10" s="71"/>
+      <c r="AZ10" s="71"/>
+      <c r="BA10" s="71"/>
+      <c r="BB10" s="71"/>
+      <c r="BC10" s="71"/>
+      <c r="BD10" s="71"/>
+      <c r="BE10" s="71"/>
+      <c r="BF10" s="71"/>
+      <c r="BG10" s="71"/>
+      <c r="BH10" s="71"/>
+      <c r="BI10" s="71"/>
+      <c r="BJ10" s="71"/>
+      <c r="BK10" s="71"/>
+      <c r="BL10" s="71"/>
+      <c r="BM10" s="71"/>
+      <c r="BN10" s="71"/>
+      <c r="BO10" s="71"/>
       <c r="BP10" s="32"/>
     </row>
     <row r="11" spans="1:68" ht="16.5" outlineLevel="1">
@@ -11989,14 +12040,14 @@
       <c r="A12" s="2"/>
       <c r="B12" s="13"/>
       <c r="C12" s="17"/>
-      <c r="D12" s="62" t="s">
+      <c r="D12" s="53" t="s">
         <v>77</v>
       </c>
       <c r="E12" s="44"/>
       <c r="F12" s="44"/>
       <c r="G12" s="44"/>
       <c r="H12" s="45"/>
-      <c r="I12" s="64" t="s">
+      <c r="I12" s="58" t="s">
         <v>78</v>
       </c>
       <c r="J12" s="44"/>
@@ -12061,11 +12112,11 @@
     </row>
     <row r="13" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A13" s="2"/>
-      <c r="B13" s="80" t="s">
+      <c r="B13" s="78" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="55"/>
-      <c r="D13" s="55"/>
+      <c r="C13" s="73"/>
+      <c r="D13" s="73"/>
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
       <c r="G13" s="10"/>
@@ -12168,7 +12219,7 @@
       <c r="AB14" s="44"/>
       <c r="AC14" s="44"/>
       <c r="AD14" s="45"/>
-      <c r="AE14" s="74" t="s">
+      <c r="AE14" s="68" t="s">
         <v>21</v>
       </c>
       <c r="AF14" s="44"/>
@@ -12232,7 +12283,7 @@
       <c r="N15" s="22"/>
       <c r="O15" s="22"/>
       <c r="P15" s="23"/>
-      <c r="Q15" s="82" t="s">
+      <c r="Q15" s="57" t="s">
         <v>56</v>
       </c>
       <c r="R15" s="44"/>
@@ -12241,7 +12292,7 @@
       <c r="U15" s="44"/>
       <c r="V15" s="44"/>
       <c r="W15" s="45"/>
-      <c r="X15" s="81" t="s">
+      <c r="X15" s="52" t="s">
         <v>38</v>
       </c>
       <c r="Y15" s="44"/>
@@ -12250,15 +12301,15 @@
       <c r="AB15" s="44"/>
       <c r="AC15" s="44"/>
       <c r="AD15" s="45"/>
-      <c r="AE15" s="62">
+      <c r="AE15" s="53">
         <v>6</v>
       </c>
       <c r="AF15" s="44"/>
       <c r="AG15" s="45"/>
-      <c r="AH15" s="83"/>
-      <c r="AI15" s="84"/>
-      <c r="AJ15" s="85"/>
-      <c r="AK15" s="81"/>
+      <c r="AH15" s="54"/>
+      <c r="AI15" s="55"/>
+      <c r="AJ15" s="56"/>
+      <c r="AK15" s="52"/>
       <c r="AL15" s="44"/>
       <c r="AM15" s="44"/>
       <c r="AN15" s="44"/>
@@ -12293,11 +12344,11 @@
     </row>
     <row r="16" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A16" s="2"/>
-      <c r="B16" s="80" t="s">
+      <c r="B16" s="78" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="55"/>
-      <c r="D16" s="55"/>
+      <c r="C16" s="73"/>
+      <c r="D16" s="73"/>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
@@ -12400,7 +12451,7 @@
       <c r="AB17" s="44"/>
       <c r="AC17" s="44"/>
       <c r="AD17" s="45"/>
-      <c r="AE17" s="74" t="s">
+      <c r="AE17" s="68" t="s">
         <v>21</v>
       </c>
       <c r="AF17" s="44"/>
@@ -12448,7 +12499,7 @@
     <row r="18" spans="1:68" ht="33" customHeight="1" outlineLevel="1">
       <c r="A18" s="2"/>
       <c r="B18" s="13"/>
-      <c r="C18" s="62" t="s">
+      <c r="C18" s="53" t="s">
         <v>80</v>
       </c>
       <c r="D18" s="44"/>
@@ -12464,7 +12515,7 @@
       <c r="N18" s="44"/>
       <c r="O18" s="44"/>
       <c r="P18" s="45"/>
-      <c r="Q18" s="82" t="s">
+      <c r="Q18" s="57" t="s">
         <v>33</v>
       </c>
       <c r="R18" s="44"/>
@@ -12473,7 +12524,7 @@
       <c r="U18" s="44"/>
       <c r="V18" s="44"/>
       <c r="W18" s="45"/>
-      <c r="X18" s="81" t="s">
+      <c r="X18" s="52" t="s">
         <v>34</v>
       </c>
       <c r="Y18" s="44"/>
@@ -12482,15 +12533,15 @@
       <c r="AB18" s="44"/>
       <c r="AC18" s="44"/>
       <c r="AD18" s="45"/>
-      <c r="AE18" s="62">
+      <c r="AE18" s="53">
         <v>1</v>
       </c>
       <c r="AF18" s="44"/>
       <c r="AG18" s="45"/>
-      <c r="AH18" s="83"/>
-      <c r="AI18" s="84"/>
-      <c r="AJ18" s="85"/>
-      <c r="AK18" s="86" t="s">
+      <c r="AH18" s="54"/>
+      <c r="AI18" s="55"/>
+      <c r="AJ18" s="56"/>
+      <c r="AK18" s="69" t="s">
         <v>81</v>
       </c>
       <c r="AL18" s="44"/>
@@ -12544,14 +12595,14 @@
       <c r="N19" s="22"/>
       <c r="O19" s="22"/>
       <c r="P19" s="23"/>
-      <c r="Q19" s="82"/>
+      <c r="Q19" s="57"/>
       <c r="R19" s="44"/>
       <c r="S19" s="44"/>
       <c r="T19" s="44"/>
       <c r="U19" s="44"/>
       <c r="V19" s="44"/>
       <c r="W19" s="45"/>
-      <c r="X19" s="81" t="s">
+      <c r="X19" s="52" t="s">
         <v>41</v>
       </c>
       <c r="Y19" s="44"/>
@@ -12560,13 +12611,13 @@
       <c r="AB19" s="44"/>
       <c r="AC19" s="44"/>
       <c r="AD19" s="45"/>
-      <c r="AE19" s="62"/>
+      <c r="AE19" s="53"/>
       <c r="AF19" s="44"/>
       <c r="AG19" s="45"/>
-      <c r="AH19" s="83"/>
-      <c r="AI19" s="84"/>
-      <c r="AJ19" s="85"/>
-      <c r="AK19" s="81" t="s">
+      <c r="AH19" s="54"/>
+      <c r="AI19" s="55"/>
+      <c r="AJ19" s="56"/>
+      <c r="AK19" s="52" t="s">
         <v>83</v>
       </c>
       <c r="AL19" s="44"/>
@@ -12605,22 +12656,22 @@
       <c r="A20" s="2"/>
       <c r="B20" s="13"/>
       <c r="C20" s="37"/>
-      <c r="D20" s="62" t="s">
+      <c r="D20" s="53" t="s">
         <v>84</v>
       </c>
-      <c r="E20" s="64"/>
-      <c r="F20" s="64"/>
-      <c r="G20" s="64"/>
-      <c r="H20" s="64"/>
-      <c r="I20" s="64"/>
-      <c r="J20" s="64"/>
-      <c r="K20" s="64"/>
-      <c r="L20" s="64"/>
-      <c r="M20" s="64"/>
-      <c r="N20" s="64"/>
-      <c r="O20" s="64"/>
-      <c r="P20" s="65"/>
-      <c r="Q20" s="82" t="s">
+      <c r="E20" s="58"/>
+      <c r="F20" s="58"/>
+      <c r="G20" s="58"/>
+      <c r="H20" s="58"/>
+      <c r="I20" s="58"/>
+      <c r="J20" s="58"/>
+      <c r="K20" s="58"/>
+      <c r="L20" s="58"/>
+      <c r="M20" s="58"/>
+      <c r="N20" s="58"/>
+      <c r="O20" s="58"/>
+      <c r="P20" s="59"/>
+      <c r="Q20" s="57" t="s">
         <v>126</v>
       </c>
       <c r="R20" s="44"/>
@@ -12629,20 +12680,20 @@
       <c r="U20" s="44"/>
       <c r="V20" s="44"/>
       <c r="W20" s="45"/>
-      <c r="X20" s="81"/>
+      <c r="X20" s="52"/>
       <c r="Y20" s="44"/>
       <c r="Z20" s="44"/>
       <c r="AA20" s="44"/>
       <c r="AB20" s="44"/>
       <c r="AC20" s="44"/>
       <c r="AD20" s="45"/>
-      <c r="AE20" s="62"/>
+      <c r="AE20" s="53"/>
       <c r="AF20" s="44"/>
       <c r="AG20" s="45"/>
-      <c r="AH20" s="83"/>
-      <c r="AI20" s="84"/>
-      <c r="AJ20" s="85"/>
-      <c r="AK20" s="81"/>
+      <c r="AH20" s="54"/>
+      <c r="AI20" s="55"/>
+      <c r="AJ20" s="56"/>
+      <c r="AK20" s="52"/>
       <c r="AL20" s="44"/>
       <c r="AM20" s="44"/>
       <c r="AN20" s="44"/>
@@ -12694,29 +12745,29 @@
       <c r="N21" s="22"/>
       <c r="O21" s="22"/>
       <c r="P21" s="23"/>
-      <c r="Q21" s="81"/>
+      <c r="Q21" s="52"/>
       <c r="R21" s="44"/>
       <c r="S21" s="44"/>
       <c r="T21" s="44"/>
       <c r="U21" s="44"/>
       <c r="V21" s="44"/>
       <c r="W21" s="45"/>
-      <c r="X21" s="81"/>
+      <c r="X21" s="52"/>
       <c r="Y21" s="44"/>
       <c r="Z21" s="44"/>
       <c r="AA21" s="44"/>
       <c r="AB21" s="44"/>
       <c r="AC21" s="44"/>
       <c r="AD21" s="45"/>
-      <c r="AE21" s="62"/>
+      <c r="AE21" s="53"/>
       <c r="AF21" s="44"/>
       <c r="AG21" s="45"/>
-      <c r="AH21" s="83" t="s">
+      <c r="AH21" s="54" t="s">
         <v>87</v>
       </c>
-      <c r="AI21" s="84"/>
-      <c r="AJ21" s="85"/>
-      <c r="AK21" s="81" t="s">
+      <c r="AI21" s="55"/>
+      <c r="AJ21" s="56"/>
+      <c r="AK21" s="52" t="s">
         <v>122</v>
       </c>
       <c r="AL21" s="44"/>
@@ -12755,22 +12806,22 @@
       <c r="A22" s="2"/>
       <c r="B22" s="13"/>
       <c r="C22" s="24"/>
-      <c r="D22" s="62" t="s">
+      <c r="D22" s="53" t="s">
         <v>86</v>
       </c>
-      <c r="E22" s="64"/>
-      <c r="F22" s="64"/>
-      <c r="G22" s="64"/>
-      <c r="H22" s="64"/>
-      <c r="I22" s="64"/>
-      <c r="J22" s="64"/>
-      <c r="K22" s="64"/>
-      <c r="L22" s="64"/>
-      <c r="M22" s="64"/>
-      <c r="N22" s="64"/>
-      <c r="O22" s="64"/>
-      <c r="P22" s="65"/>
-      <c r="Q22" s="81" t="s">
+      <c r="E22" s="58"/>
+      <c r="F22" s="58"/>
+      <c r="G22" s="58"/>
+      <c r="H22" s="58"/>
+      <c r="I22" s="58"/>
+      <c r="J22" s="58"/>
+      <c r="K22" s="58"/>
+      <c r="L22" s="58"/>
+      <c r="M22" s="58"/>
+      <c r="N22" s="58"/>
+      <c r="O22" s="58"/>
+      <c r="P22" s="59"/>
+      <c r="Q22" s="52" t="s">
         <v>33</v>
       </c>
       <c r="R22" s="44"/>
@@ -12779,20 +12830,20 @@
       <c r="U22" s="44"/>
       <c r="V22" s="44"/>
       <c r="W22" s="45"/>
-      <c r="X22" s="81"/>
+      <c r="X22" s="52"/>
       <c r="Y22" s="44"/>
       <c r="Z22" s="44"/>
       <c r="AA22" s="44"/>
       <c r="AB22" s="44"/>
       <c r="AC22" s="44"/>
       <c r="AD22" s="45"/>
-      <c r="AE22" s="62"/>
+      <c r="AE22" s="53"/>
       <c r="AF22" s="44"/>
       <c r="AG22" s="45"/>
-      <c r="AH22" s="83"/>
-      <c r="AI22" s="84"/>
-      <c r="AJ22" s="85"/>
-      <c r="AK22" s="81"/>
+      <c r="AH22" s="54"/>
+      <c r="AI22" s="55"/>
+      <c r="AJ22" s="56"/>
+      <c r="AK22" s="52"/>
       <c r="AL22" s="44"/>
       <c r="AM22" s="44"/>
       <c r="AN22" s="44"/>
@@ -12829,22 +12880,22 @@
       <c r="A23" s="2"/>
       <c r="B23" s="39"/>
       <c r="C23" s="37"/>
-      <c r="D23" s="62" t="s">
+      <c r="D23" s="53" t="s">
         <v>79</v>
       </c>
-      <c r="E23" s="64"/>
-      <c r="F23" s="64"/>
-      <c r="G23" s="64"/>
-      <c r="H23" s="64"/>
-      <c r="I23" s="64"/>
-      <c r="J23" s="64"/>
-      <c r="K23" s="64"/>
-      <c r="L23" s="64"/>
-      <c r="M23" s="64"/>
-      <c r="N23" s="64"/>
-      <c r="O23" s="64"/>
-      <c r="P23" s="65"/>
-      <c r="Q23" s="81" t="s">
+      <c r="E23" s="58"/>
+      <c r="F23" s="58"/>
+      <c r="G23" s="58"/>
+      <c r="H23" s="58"/>
+      <c r="I23" s="58"/>
+      <c r="J23" s="58"/>
+      <c r="K23" s="58"/>
+      <c r="L23" s="58"/>
+      <c r="M23" s="58"/>
+      <c r="N23" s="58"/>
+      <c r="O23" s="58"/>
+      <c r="P23" s="59"/>
+      <c r="Q23" s="52" t="s">
         <v>62</v>
       </c>
       <c r="R23" s="44"/>
@@ -12853,22 +12904,22 @@
       <c r="U23" s="44"/>
       <c r="V23" s="44"/>
       <c r="W23" s="45"/>
-      <c r="X23" s="81"/>
+      <c r="X23" s="52"/>
       <c r="Y23" s="44"/>
       <c r="Z23" s="44"/>
       <c r="AA23" s="44"/>
       <c r="AB23" s="44"/>
       <c r="AC23" s="44"/>
       <c r="AD23" s="45"/>
-      <c r="AE23" s="62">
+      <c r="AE23" s="53">
         <v>10</v>
       </c>
       <c r="AF23" s="44"/>
       <c r="AG23" s="45"/>
-      <c r="AH23" s="83"/>
-      <c r="AI23" s="84"/>
-      <c r="AJ23" s="85"/>
-      <c r="AK23" s="81"/>
+      <c r="AH23" s="54"/>
+      <c r="AI23" s="55"/>
+      <c r="AJ23" s="56"/>
+      <c r="AK23" s="52"/>
       <c r="AL23" s="44"/>
       <c r="AM23" s="44"/>
       <c r="AN23" s="44"/>
@@ -13116,51 +13167,51 @@
     </row>
     <row r="27" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A27" s="5"/>
-      <c r="B27" s="52" t="s">
+      <c r="B27" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="C27" s="54" t="s">
+      <c r="C27" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="D27" s="55"/>
-      <c r="E27" s="55"/>
-      <c r="F27" s="55"/>
-      <c r="G27" s="55"/>
-      <c r="H27" s="55"/>
-      <c r="I27" s="55"/>
-      <c r="J27" s="55"/>
-      <c r="K27" s="56"/>
-      <c r="L27" s="54" t="s">
+      <c r="D27" s="73"/>
+      <c r="E27" s="73"/>
+      <c r="F27" s="73"/>
+      <c r="G27" s="73"/>
+      <c r="H27" s="73"/>
+      <c r="I27" s="73"/>
+      <c r="J27" s="73"/>
+      <c r="K27" s="74"/>
+      <c r="L27" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="M27" s="55"/>
-      <c r="N27" s="55"/>
-      <c r="O27" s="55"/>
-      <c r="P27" s="55"/>
-      <c r="Q27" s="55"/>
-      <c r="R27" s="55"/>
-      <c r="S27" s="55"/>
-      <c r="T27" s="55"/>
-      <c r="U27" s="55"/>
-      <c r="V27" s="55"/>
-      <c r="W27" s="55"/>
-      <c r="X27" s="55"/>
-      <c r="Y27" s="55"/>
-      <c r="Z27" s="55"/>
-      <c r="AA27" s="55"/>
-      <c r="AB27" s="56"/>
-      <c r="AC27" s="54" t="s">
+      <c r="M27" s="73"/>
+      <c r="N27" s="73"/>
+      <c r="O27" s="73"/>
+      <c r="P27" s="73"/>
+      <c r="Q27" s="73"/>
+      <c r="R27" s="73"/>
+      <c r="S27" s="73"/>
+      <c r="T27" s="73"/>
+      <c r="U27" s="73"/>
+      <c r="V27" s="73"/>
+      <c r="W27" s="73"/>
+      <c r="X27" s="73"/>
+      <c r="Y27" s="73"/>
+      <c r="Z27" s="73"/>
+      <c r="AA27" s="73"/>
+      <c r="AB27" s="74"/>
+      <c r="AC27" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="AD27" s="55"/>
-      <c r="AE27" s="55"/>
-      <c r="AF27" s="55"/>
-      <c r="AG27" s="55"/>
-      <c r="AH27" s="55"/>
-      <c r="AI27" s="55"/>
-      <c r="AJ27" s="55"/>
-      <c r="AK27" s="56"/>
-      <c r="AL27" s="91" t="s">
+      <c r="AD27" s="73"/>
+      <c r="AE27" s="73"/>
+      <c r="AF27" s="73"/>
+      <c r="AG27" s="73"/>
+      <c r="AH27" s="73"/>
+      <c r="AI27" s="73"/>
+      <c r="AJ27" s="73"/>
+      <c r="AK27" s="74"/>
+      <c r="AL27" s="66" t="s">
         <v>12</v>
       </c>
       <c r="AM27" s="44"/>
@@ -13196,43 +13247,43 @@
     </row>
     <row r="28" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A28" s="5"/>
-      <c r="B28" s="53"/>
-      <c r="C28" s="57"/>
-      <c r="D28" s="58"/>
-      <c r="E28" s="58"/>
-      <c r="F28" s="58"/>
-      <c r="G28" s="58"/>
-      <c r="H28" s="58"/>
-      <c r="I28" s="58"/>
-      <c r="J28" s="58"/>
-      <c r="K28" s="59"/>
-      <c r="L28" s="57"/>
-      <c r="M28" s="58"/>
-      <c r="N28" s="58"/>
-      <c r="O28" s="58"/>
-      <c r="P28" s="58"/>
-      <c r="Q28" s="58"/>
-      <c r="R28" s="58"/>
-      <c r="S28" s="58"/>
-      <c r="T28" s="58"/>
-      <c r="U28" s="58"/>
-      <c r="V28" s="58"/>
-      <c r="W28" s="58"/>
-      <c r="X28" s="58"/>
-      <c r="Y28" s="58"/>
-      <c r="Z28" s="58"/>
-      <c r="AA28" s="58"/>
-      <c r="AB28" s="59"/>
-      <c r="AC28" s="79"/>
-      <c r="AD28" s="61"/>
-      <c r="AE28" s="61"/>
-      <c r="AF28" s="61"/>
-      <c r="AG28" s="61"/>
-      <c r="AH28" s="61"/>
-      <c r="AI28" s="61"/>
-      <c r="AJ28" s="61"/>
-      <c r="AK28" s="53"/>
-      <c r="AL28" s="92" t="s">
+      <c r="B28" s="77"/>
+      <c r="C28" s="80"/>
+      <c r="D28" s="81"/>
+      <c r="E28" s="81"/>
+      <c r="F28" s="81"/>
+      <c r="G28" s="81"/>
+      <c r="H28" s="81"/>
+      <c r="I28" s="81"/>
+      <c r="J28" s="81"/>
+      <c r="K28" s="82"/>
+      <c r="L28" s="80"/>
+      <c r="M28" s="81"/>
+      <c r="N28" s="81"/>
+      <c r="O28" s="81"/>
+      <c r="P28" s="81"/>
+      <c r="Q28" s="81"/>
+      <c r="R28" s="81"/>
+      <c r="S28" s="81"/>
+      <c r="T28" s="81"/>
+      <c r="U28" s="81"/>
+      <c r="V28" s="81"/>
+      <c r="W28" s="81"/>
+      <c r="X28" s="81"/>
+      <c r="Y28" s="81"/>
+      <c r="Z28" s="81"/>
+      <c r="AA28" s="81"/>
+      <c r="AB28" s="82"/>
+      <c r="AC28" s="75"/>
+      <c r="AD28" s="76"/>
+      <c r="AE28" s="76"/>
+      <c r="AF28" s="76"/>
+      <c r="AG28" s="76"/>
+      <c r="AH28" s="76"/>
+      <c r="AI28" s="76"/>
+      <c r="AJ28" s="76"/>
+      <c r="AK28" s="77"/>
+      <c r="AL28" s="67" t="s">
         <v>13</v>
       </c>
       <c r="AM28" s="44"/>
@@ -13243,14 +13294,14 @@
       <c r="AR28" s="44"/>
       <c r="AS28" s="44"/>
       <c r="AT28" s="45"/>
-      <c r="AU28" s="92" t="s">
+      <c r="AU28" s="67" t="s">
         <v>14</v>
       </c>
       <c r="AV28" s="44"/>
       <c r="AW28" s="44"/>
       <c r="AX28" s="44"/>
       <c r="AY28" s="45"/>
-      <c r="AZ28" s="92" t="s">
+      <c r="AZ28" s="67" t="s">
         <v>15</v>
       </c>
       <c r="BA28" s="44"/>
@@ -13276,37 +13327,39 @@
         <f ca="1">MAX(B$27:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>1</v>
       </c>
-      <c r="C29" s="66" t="s">
+      <c r="C29" s="85" t="s">
         <v>117</v>
       </c>
-      <c r="D29" s="67"/>
-      <c r="E29" s="67"/>
-      <c r="F29" s="67"/>
-      <c r="G29" s="67"/>
-      <c r="H29" s="67"/>
-      <c r="I29" s="67"/>
-      <c r="J29" s="67"/>
-      <c r="K29" s="68"/>
-      <c r="L29" s="69" t="s">
+      <c r="D29" s="86"/>
+      <c r="E29" s="86"/>
+      <c r="F29" s="86"/>
+      <c r="G29" s="86"/>
+      <c r="H29" s="86"/>
+      <c r="I29" s="86"/>
+      <c r="J29" s="86"/>
+      <c r="K29" s="87"/>
+      <c r="L29" s="88" t="s">
         <v>118</v>
       </c>
-      <c r="M29" s="70"/>
-      <c r="N29" s="70"/>
-      <c r="O29" s="70"/>
-      <c r="P29" s="70"/>
-      <c r="Q29" s="70"/>
-      <c r="R29" s="70"/>
-      <c r="S29" s="70"/>
-      <c r="T29" s="70"/>
-      <c r="U29" s="70"/>
-      <c r="V29" s="70"/>
-      <c r="W29" s="70"/>
-      <c r="X29" s="70"/>
-      <c r="Y29" s="70"/>
-      <c r="Z29" s="70"/>
-      <c r="AA29" s="70"/>
-      <c r="AB29" s="70"/>
-      <c r="AC29" s="64"/>
+      <c r="M29" s="89"/>
+      <c r="N29" s="89"/>
+      <c r="O29" s="89"/>
+      <c r="P29" s="89"/>
+      <c r="Q29" s="89"/>
+      <c r="R29" s="89"/>
+      <c r="S29" s="89"/>
+      <c r="T29" s="89"/>
+      <c r="U29" s="89"/>
+      <c r="V29" s="89"/>
+      <c r="W29" s="89"/>
+      <c r="X29" s="89"/>
+      <c r="Y29" s="89"/>
+      <c r="Z29" s="89"/>
+      <c r="AA29" s="89"/>
+      <c r="AB29" s="89"/>
+      <c r="AC29" s="58" t="s">
+        <v>131</v>
+      </c>
       <c r="AD29" s="44"/>
       <c r="AE29" s="44"/>
       <c r="AF29" s="44"/>
@@ -13315,7 +13368,9 @@
       <c r="AI29" s="44"/>
       <c r="AJ29" s="44"/>
       <c r="AK29" s="45"/>
-      <c r="AL29" s="77"/>
+      <c r="AL29" s="60" t="s">
+        <v>132</v>
+      </c>
       <c r="AM29" s="44"/>
       <c r="AN29" s="44"/>
       <c r="AO29" s="44"/>
@@ -13324,12 +13379,14 @@
       <c r="AR29" s="44"/>
       <c r="AS29" s="44"/>
       <c r="AT29" s="45"/>
-      <c r="AU29" s="77"/>
+      <c r="AU29" s="60"/>
       <c r="AV29" s="44"/>
       <c r="AW29" s="44"/>
       <c r="AX29" s="44"/>
       <c r="AY29" s="45"/>
-      <c r="AZ29" s="78"/>
+      <c r="AZ29" s="63" t="s">
+        <v>133</v>
+      </c>
       <c r="BA29" s="44"/>
       <c r="BB29" s="44"/>
       <c r="BC29" s="44"/>
@@ -13353,37 +13410,39 @@
         <f ca="1">MAX(B$27:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>2</v>
       </c>
-      <c r="C30" s="66" t="s">
+      <c r="C30" s="85" t="s">
         <v>119</v>
       </c>
-      <c r="D30" s="67"/>
-      <c r="E30" s="67"/>
-      <c r="F30" s="67"/>
-      <c r="G30" s="67"/>
-      <c r="H30" s="67"/>
-      <c r="I30" s="67"/>
-      <c r="J30" s="67"/>
-      <c r="K30" s="68"/>
-      <c r="L30" s="69" t="s">
+      <c r="D30" s="86"/>
+      <c r="E30" s="86"/>
+      <c r="F30" s="86"/>
+      <c r="G30" s="86"/>
+      <c r="H30" s="86"/>
+      <c r="I30" s="86"/>
+      <c r="J30" s="86"/>
+      <c r="K30" s="87"/>
+      <c r="L30" s="88" t="s">
         <v>120</v>
       </c>
-      <c r="M30" s="70"/>
-      <c r="N30" s="70"/>
-      <c r="O30" s="70"/>
-      <c r="P30" s="70"/>
-      <c r="Q30" s="70"/>
-      <c r="R30" s="70"/>
-      <c r="S30" s="70"/>
-      <c r="T30" s="70"/>
-      <c r="U30" s="70"/>
-      <c r="V30" s="70"/>
-      <c r="W30" s="70"/>
-      <c r="X30" s="70"/>
-      <c r="Y30" s="70"/>
-      <c r="Z30" s="70"/>
-      <c r="AA30" s="70"/>
-      <c r="AB30" s="70"/>
-      <c r="AC30" s="64"/>
+      <c r="M30" s="89"/>
+      <c r="N30" s="89"/>
+      <c r="O30" s="89"/>
+      <c r="P30" s="89"/>
+      <c r="Q30" s="89"/>
+      <c r="R30" s="89"/>
+      <c r="S30" s="89"/>
+      <c r="T30" s="89"/>
+      <c r="U30" s="89"/>
+      <c r="V30" s="89"/>
+      <c r="W30" s="89"/>
+      <c r="X30" s="89"/>
+      <c r="Y30" s="89"/>
+      <c r="Z30" s="89"/>
+      <c r="AA30" s="89"/>
+      <c r="AB30" s="89"/>
+      <c r="AC30" s="58" t="s">
+        <v>131</v>
+      </c>
       <c r="AD30" s="44"/>
       <c r="AE30" s="44"/>
       <c r="AF30" s="44"/>
@@ -13392,7 +13451,9 @@
       <c r="AI30" s="44"/>
       <c r="AJ30" s="44"/>
       <c r="AK30" s="45"/>
-      <c r="AL30" s="77"/>
+      <c r="AL30" s="60" t="s">
+        <v>132</v>
+      </c>
       <c r="AM30" s="44"/>
       <c r="AN30" s="44"/>
       <c r="AO30" s="44"/>
@@ -13401,12 +13462,14 @@
       <c r="AR30" s="44"/>
       <c r="AS30" s="44"/>
       <c r="AT30" s="45"/>
-      <c r="AU30" s="77"/>
+      <c r="AU30" s="60"/>
       <c r="AV30" s="44"/>
       <c r="AW30" s="44"/>
       <c r="AX30" s="44"/>
       <c r="AY30" s="45"/>
-      <c r="AZ30" s="78"/>
+      <c r="AZ30" s="63" t="s">
+        <v>133</v>
+      </c>
       <c r="BA30" s="44"/>
       <c r="BB30" s="44"/>
       <c r="BC30" s="44"/>
@@ -13441,24 +13504,24 @@
       <c r="I31" s="41"/>
       <c r="J31" s="41"/>
       <c r="K31" s="42"/>
-      <c r="L31" s="60"/>
-      <c r="M31" s="61"/>
-      <c r="N31" s="61"/>
-      <c r="O31" s="61"/>
-      <c r="P31" s="61"/>
-      <c r="Q31" s="61"/>
-      <c r="R31" s="61"/>
-      <c r="S31" s="61"/>
-      <c r="T31" s="61"/>
-      <c r="U31" s="61"/>
-      <c r="V31" s="61"/>
-      <c r="W31" s="61"/>
-      <c r="X31" s="61"/>
-      <c r="Y31" s="61"/>
-      <c r="Z31" s="61"/>
-      <c r="AA31" s="61"/>
-      <c r="AB31" s="61"/>
-      <c r="AC31" s="62"/>
+      <c r="L31" s="83"/>
+      <c r="M31" s="76"/>
+      <c r="N31" s="76"/>
+      <c r="O31" s="76"/>
+      <c r="P31" s="76"/>
+      <c r="Q31" s="76"/>
+      <c r="R31" s="76"/>
+      <c r="S31" s="76"/>
+      <c r="T31" s="76"/>
+      <c r="U31" s="76"/>
+      <c r="V31" s="76"/>
+      <c r="W31" s="76"/>
+      <c r="X31" s="76"/>
+      <c r="Y31" s="76"/>
+      <c r="Z31" s="76"/>
+      <c r="AA31" s="76"/>
+      <c r="AB31" s="76"/>
+      <c r="AC31" s="53"/>
       <c r="AD31" s="44"/>
       <c r="AE31" s="44"/>
       <c r="AF31" s="44"/>
@@ -13467,7 +13530,7 @@
       <c r="AI31" s="44"/>
       <c r="AJ31" s="44"/>
       <c r="AK31" s="45"/>
-      <c r="AL31" s="77"/>
+      <c r="AL31" s="60"/>
       <c r="AM31" s="44"/>
       <c r="AN31" s="44"/>
       <c r="AO31" s="44"/>
@@ -13476,12 +13539,12 @@
       <c r="AR31" s="44"/>
       <c r="AS31" s="44"/>
       <c r="AT31" s="45"/>
-      <c r="AU31" s="77"/>
+      <c r="AU31" s="60"/>
       <c r="AV31" s="44"/>
       <c r="AW31" s="44"/>
       <c r="AX31" s="44"/>
       <c r="AY31" s="45"/>
-      <c r="AZ31" s="78"/>
+      <c r="AZ31" s="63"/>
       <c r="BA31" s="44"/>
       <c r="BB31" s="44"/>
       <c r="BC31" s="44"/>
@@ -13505,75 +13568,75 @@
         <f ca="1">MAX(B$27:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>4</v>
       </c>
-      <c r="C32" s="63" t="s">
+      <c r="C32" s="84" t="s">
         <v>68</v>
       </c>
-      <c r="D32" s="64"/>
-      <c r="E32" s="64"/>
-      <c r="F32" s="64"/>
-      <c r="G32" s="64"/>
-      <c r="H32" s="64"/>
-      <c r="I32" s="64"/>
-      <c r="J32" s="64"/>
-      <c r="K32" s="65"/>
-      <c r="L32" s="62" t="s">
+      <c r="D32" s="58"/>
+      <c r="E32" s="58"/>
+      <c r="F32" s="58"/>
+      <c r="G32" s="58"/>
+      <c r="H32" s="58"/>
+      <c r="I32" s="58"/>
+      <c r="J32" s="58"/>
+      <c r="K32" s="59"/>
+      <c r="L32" s="53" t="s">
         <v>69</v>
       </c>
-      <c r="M32" s="64"/>
-      <c r="N32" s="64"/>
-      <c r="O32" s="64"/>
-      <c r="P32" s="64"/>
-      <c r="Q32" s="64"/>
-      <c r="R32" s="64"/>
-      <c r="S32" s="64"/>
-      <c r="T32" s="64"/>
-      <c r="U32" s="64"/>
-      <c r="V32" s="64"/>
-      <c r="W32" s="64"/>
-      <c r="X32" s="64"/>
-      <c r="Y32" s="64"/>
-      <c r="Z32" s="64"/>
-      <c r="AA32" s="64"/>
-      <c r="AB32" s="65"/>
-      <c r="AC32" s="62"/>
-      <c r="AD32" s="64"/>
-      <c r="AE32" s="64"/>
-      <c r="AF32" s="64"/>
-      <c r="AG32" s="64"/>
-      <c r="AH32" s="64"/>
-      <c r="AI32" s="64"/>
-      <c r="AJ32" s="64"/>
-      <c r="AK32" s="65"/>
-      <c r="AL32" s="77"/>
-      <c r="AM32" s="87"/>
-      <c r="AN32" s="87"/>
-      <c r="AO32" s="87"/>
-      <c r="AP32" s="87"/>
-      <c r="AQ32" s="87"/>
-      <c r="AR32" s="87"/>
-      <c r="AS32" s="87"/>
-      <c r="AT32" s="88"/>
-      <c r="AU32" s="77"/>
-      <c r="AV32" s="87"/>
-      <c r="AW32" s="87"/>
-      <c r="AX32" s="87"/>
-      <c r="AY32" s="88"/>
-      <c r="AZ32" s="78"/>
-      <c r="BA32" s="89"/>
-      <c r="BB32" s="89"/>
-      <c r="BC32" s="89"/>
-      <c r="BD32" s="89"/>
-      <c r="BE32" s="89"/>
-      <c r="BF32" s="89"/>
-      <c r="BG32" s="89"/>
-      <c r="BH32" s="89"/>
-      <c r="BI32" s="89"/>
-      <c r="BJ32" s="89"/>
-      <c r="BK32" s="89"/>
-      <c r="BL32" s="89"/>
-      <c r="BM32" s="89"/>
-      <c r="BN32" s="89"/>
-      <c r="BO32" s="90"/>
+      <c r="M32" s="58"/>
+      <c r="N32" s="58"/>
+      <c r="O32" s="58"/>
+      <c r="P32" s="58"/>
+      <c r="Q32" s="58"/>
+      <c r="R32" s="58"/>
+      <c r="S32" s="58"/>
+      <c r="T32" s="58"/>
+      <c r="U32" s="58"/>
+      <c r="V32" s="58"/>
+      <c r="W32" s="58"/>
+      <c r="X32" s="58"/>
+      <c r="Y32" s="58"/>
+      <c r="Z32" s="58"/>
+      <c r="AA32" s="58"/>
+      <c r="AB32" s="59"/>
+      <c r="AC32" s="53"/>
+      <c r="AD32" s="58"/>
+      <c r="AE32" s="58"/>
+      <c r="AF32" s="58"/>
+      <c r="AG32" s="58"/>
+      <c r="AH32" s="58"/>
+      <c r="AI32" s="58"/>
+      <c r="AJ32" s="58"/>
+      <c r="AK32" s="59"/>
+      <c r="AL32" s="60"/>
+      <c r="AM32" s="61"/>
+      <c r="AN32" s="61"/>
+      <c r="AO32" s="61"/>
+      <c r="AP32" s="61"/>
+      <c r="AQ32" s="61"/>
+      <c r="AR32" s="61"/>
+      <c r="AS32" s="61"/>
+      <c r="AT32" s="62"/>
+      <c r="AU32" s="60"/>
+      <c r="AV32" s="61"/>
+      <c r="AW32" s="61"/>
+      <c r="AX32" s="61"/>
+      <c r="AY32" s="62"/>
+      <c r="AZ32" s="63"/>
+      <c r="BA32" s="64"/>
+      <c r="BB32" s="64"/>
+      <c r="BC32" s="64"/>
+      <c r="BD32" s="64"/>
+      <c r="BE32" s="64"/>
+      <c r="BF32" s="64"/>
+      <c r="BG32" s="64"/>
+      <c r="BH32" s="64"/>
+      <c r="BI32" s="64"/>
+      <c r="BJ32" s="64"/>
+      <c r="BK32" s="64"/>
+      <c r="BL32" s="64"/>
+      <c r="BM32" s="64"/>
+      <c r="BN32" s="64"/>
+      <c r="BO32" s="65"/>
       <c r="BP32" s="2"/>
     </row>
     <row r="33" spans="1:68" ht="16.5">
@@ -14564,76 +14627,12 @@
     </row>
   </sheetData>
   <mergeCells count="92">
-    <mergeCell ref="AZ32:BO32"/>
-    <mergeCell ref="L31:AB31"/>
-    <mergeCell ref="AC31:AK31"/>
-    <mergeCell ref="AL31:AT31"/>
-    <mergeCell ref="AU31:AY31"/>
-    <mergeCell ref="AZ31:BO31"/>
-    <mergeCell ref="C32:K32"/>
-    <mergeCell ref="L32:AB32"/>
-    <mergeCell ref="AC32:AK32"/>
-    <mergeCell ref="AL32:AT32"/>
-    <mergeCell ref="AU32:AY32"/>
-    <mergeCell ref="AZ30:BO30"/>
-    <mergeCell ref="C29:K29"/>
-    <mergeCell ref="L29:AB29"/>
-    <mergeCell ref="AC29:AK29"/>
-    <mergeCell ref="AL29:AT29"/>
-    <mergeCell ref="AU29:AY29"/>
-    <mergeCell ref="AZ29:BO29"/>
-    <mergeCell ref="C30:K30"/>
-    <mergeCell ref="L30:AB30"/>
-    <mergeCell ref="AC30:AK30"/>
-    <mergeCell ref="AL30:AT30"/>
-    <mergeCell ref="AU30:AY30"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:K28"/>
-    <mergeCell ref="L27:AB28"/>
-    <mergeCell ref="AC27:AK28"/>
-    <mergeCell ref="AL27:BO27"/>
-    <mergeCell ref="AL28:AT28"/>
-    <mergeCell ref="AU28:AY28"/>
-    <mergeCell ref="AZ28:BO28"/>
-    <mergeCell ref="AK22:BO22"/>
-    <mergeCell ref="D23:P23"/>
-    <mergeCell ref="Q23:W23"/>
-    <mergeCell ref="X23:AD23"/>
-    <mergeCell ref="AE23:AG23"/>
-    <mergeCell ref="AH23:AJ23"/>
-    <mergeCell ref="AK23:BO23"/>
-    <mergeCell ref="D22:P22"/>
-    <mergeCell ref="Q22:W22"/>
-    <mergeCell ref="X22:AD22"/>
-    <mergeCell ref="AE22:AG22"/>
-    <mergeCell ref="AH22:AJ22"/>
-    <mergeCell ref="Q21:W21"/>
-    <mergeCell ref="X21:AD21"/>
-    <mergeCell ref="AE21:AG21"/>
-    <mergeCell ref="AH21:AJ21"/>
-    <mergeCell ref="AK21:BO21"/>
-    <mergeCell ref="D20:P20"/>
-    <mergeCell ref="Q20:W20"/>
-    <mergeCell ref="X20:AD20"/>
-    <mergeCell ref="AE20:AG20"/>
-    <mergeCell ref="AH20:AJ20"/>
-    <mergeCell ref="AK20:BO20"/>
-    <mergeCell ref="AK18:BO18"/>
-    <mergeCell ref="Q19:W19"/>
-    <mergeCell ref="X19:AD19"/>
-    <mergeCell ref="AE19:AG19"/>
-    <mergeCell ref="AH19:AJ19"/>
-    <mergeCell ref="AK19:BO19"/>
-    <mergeCell ref="C17:P17"/>
-    <mergeCell ref="Q17:W17"/>
-    <mergeCell ref="X17:AD17"/>
-    <mergeCell ref="AE17:AG17"/>
-    <mergeCell ref="AK17:BO17"/>
-    <mergeCell ref="C18:P18"/>
-    <mergeCell ref="Q18:W18"/>
-    <mergeCell ref="X18:AD18"/>
-    <mergeCell ref="AE18:AG18"/>
-    <mergeCell ref="AH18:AJ18"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="I7:BO7"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="I8:BO8"/>
+    <mergeCell ref="C9:H9"/>
+    <mergeCell ref="I9:BO9"/>
     <mergeCell ref="C10:H10"/>
     <mergeCell ref="I10:BO10"/>
     <mergeCell ref="B16:D16"/>
@@ -14650,12 +14649,76 @@
     <mergeCell ref="AE15:AG15"/>
     <mergeCell ref="AH15:AJ15"/>
     <mergeCell ref="AK15:BO15"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="I7:BO7"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="I8:BO8"/>
-    <mergeCell ref="C9:H9"/>
-    <mergeCell ref="I9:BO9"/>
+    <mergeCell ref="C18:P18"/>
+    <mergeCell ref="Q18:W18"/>
+    <mergeCell ref="X18:AD18"/>
+    <mergeCell ref="AE18:AG18"/>
+    <mergeCell ref="AH18:AJ18"/>
+    <mergeCell ref="C17:P17"/>
+    <mergeCell ref="Q17:W17"/>
+    <mergeCell ref="X17:AD17"/>
+    <mergeCell ref="AE17:AG17"/>
+    <mergeCell ref="AK17:BO17"/>
+    <mergeCell ref="AK20:BO20"/>
+    <mergeCell ref="AK18:BO18"/>
+    <mergeCell ref="Q19:W19"/>
+    <mergeCell ref="X19:AD19"/>
+    <mergeCell ref="AE19:AG19"/>
+    <mergeCell ref="AH19:AJ19"/>
+    <mergeCell ref="AK19:BO19"/>
+    <mergeCell ref="D20:P20"/>
+    <mergeCell ref="Q20:W20"/>
+    <mergeCell ref="X20:AD20"/>
+    <mergeCell ref="AE20:AG20"/>
+    <mergeCell ref="AH20:AJ20"/>
+    <mergeCell ref="Q21:W21"/>
+    <mergeCell ref="X21:AD21"/>
+    <mergeCell ref="AE21:AG21"/>
+    <mergeCell ref="AH21:AJ21"/>
+    <mergeCell ref="AK21:BO21"/>
+    <mergeCell ref="AK22:BO22"/>
+    <mergeCell ref="D23:P23"/>
+    <mergeCell ref="Q23:W23"/>
+    <mergeCell ref="X23:AD23"/>
+    <mergeCell ref="AE23:AG23"/>
+    <mergeCell ref="AH23:AJ23"/>
+    <mergeCell ref="AK23:BO23"/>
+    <mergeCell ref="D22:P22"/>
+    <mergeCell ref="Q22:W22"/>
+    <mergeCell ref="X22:AD22"/>
+    <mergeCell ref="AE22:AG22"/>
+    <mergeCell ref="AH22:AJ22"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:K28"/>
+    <mergeCell ref="L27:AB28"/>
+    <mergeCell ref="AC27:AK28"/>
+    <mergeCell ref="AL27:BO27"/>
+    <mergeCell ref="AL28:AT28"/>
+    <mergeCell ref="AU28:AY28"/>
+    <mergeCell ref="AZ28:BO28"/>
+    <mergeCell ref="AZ30:BO30"/>
+    <mergeCell ref="C29:K29"/>
+    <mergeCell ref="L29:AB29"/>
+    <mergeCell ref="AC29:AK29"/>
+    <mergeCell ref="AL29:AT29"/>
+    <mergeCell ref="AU29:AY29"/>
+    <mergeCell ref="AZ29:BO29"/>
+    <mergeCell ref="C30:K30"/>
+    <mergeCell ref="L30:AB30"/>
+    <mergeCell ref="AC30:AK30"/>
+    <mergeCell ref="AL30:AT30"/>
+    <mergeCell ref="AU30:AY30"/>
+    <mergeCell ref="C32:K32"/>
+    <mergeCell ref="L32:AB32"/>
+    <mergeCell ref="AC32:AK32"/>
+    <mergeCell ref="AL32:AT32"/>
+    <mergeCell ref="AU32:AY32"/>
+    <mergeCell ref="AZ32:BO32"/>
+    <mergeCell ref="L31:AB31"/>
+    <mergeCell ref="AC31:AK31"/>
+    <mergeCell ref="AL31:AT31"/>
+    <mergeCell ref="AU31:AY31"/>
+    <mergeCell ref="AZ31:BO31"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <dataValidations count="1">
@@ -15143,7 +15206,7 @@
     <row r="7" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A7" s="2"/>
       <c r="B7" s="13"/>
-      <c r="C7" s="74" t="s">
+      <c r="C7" s="68" t="s">
         <v>23</v>
       </c>
       <c r="D7" s="44"/>
@@ -15151,7 +15214,7 @@
       <c r="F7" s="44"/>
       <c r="G7" s="44"/>
       <c r="H7" s="45"/>
-      <c r="I7" s="62" t="s">
+      <c r="I7" s="53" t="s">
         <v>35</v>
       </c>
       <c r="J7" s="44"/>
@@ -15217,7 +15280,7 @@
     <row r="8" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A8" s="2"/>
       <c r="B8" s="13"/>
-      <c r="C8" s="74" t="s">
+      <c r="C8" s="68" t="s">
         <v>20</v>
       </c>
       <c r="D8" s="44"/>
@@ -15225,7 +15288,7 @@
       <c r="F8" s="44"/>
       <c r="G8" s="44"/>
       <c r="H8" s="45"/>
-      <c r="I8" s="62" t="s">
+      <c r="I8" s="53" t="s">
         <v>25</v>
       </c>
       <c r="J8" s="44"/>
@@ -15291,7 +15354,7 @@
     <row r="9" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A9" s="2"/>
       <c r="B9" s="13"/>
-      <c r="C9" s="74" t="s">
+      <c r="C9" s="68" t="s">
         <v>26</v>
       </c>
       <c r="D9" s="44"/>
@@ -15299,7 +15362,7 @@
       <c r="F9" s="44"/>
       <c r="G9" s="44"/>
       <c r="H9" s="45"/>
-      <c r="I9" s="62" t="s">
+      <c r="I9" s="53" t="s">
         <v>27</v>
       </c>
       <c r="J9" s="44"/>
@@ -15365,75 +15428,75 @@
     <row r="10" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A10" s="32"/>
       <c r="B10" s="33"/>
-      <c r="C10" s="74" t="s">
+      <c r="C10" s="68" t="s">
         <v>128</v>
       </c>
-      <c r="D10" s="75"/>
-      <c r="E10" s="75"/>
-      <c r="F10" s="75"/>
-      <c r="G10" s="75"/>
-      <c r="H10" s="75"/>
-      <c r="I10" s="76" t="s">
+      <c r="D10" s="70"/>
+      <c r="E10" s="70"/>
+      <c r="F10" s="70"/>
+      <c r="G10" s="70"/>
+      <c r="H10" s="70"/>
+      <c r="I10" s="71" t="s">
         <v>124</v>
       </c>
-      <c r="J10" s="76"/>
-      <c r="K10" s="76"/>
-      <c r="L10" s="76"/>
-      <c r="M10" s="76"/>
-      <c r="N10" s="76"/>
-      <c r="O10" s="76"/>
-      <c r="P10" s="76"/>
-      <c r="Q10" s="76"/>
-      <c r="R10" s="76"/>
-      <c r="S10" s="76"/>
-      <c r="T10" s="76"/>
-      <c r="U10" s="76"/>
-      <c r="V10" s="76"/>
-      <c r="W10" s="76"/>
-      <c r="X10" s="76"/>
-      <c r="Y10" s="76"/>
-      <c r="Z10" s="76"/>
-      <c r="AA10" s="76"/>
-      <c r="AB10" s="76"/>
-      <c r="AC10" s="76"/>
-      <c r="AD10" s="76"/>
-      <c r="AE10" s="76"/>
-      <c r="AF10" s="76"/>
-      <c r="AG10" s="76"/>
-      <c r="AH10" s="76"/>
-      <c r="AI10" s="76"/>
-      <c r="AJ10" s="76"/>
-      <c r="AK10" s="76"/>
-      <c r="AL10" s="76"/>
-      <c r="AM10" s="76"/>
-      <c r="AN10" s="76"/>
-      <c r="AO10" s="76"/>
-      <c r="AP10" s="76"/>
-      <c r="AQ10" s="76"/>
-      <c r="AR10" s="76"/>
-      <c r="AS10" s="76"/>
-      <c r="AT10" s="76"/>
-      <c r="AU10" s="76"/>
-      <c r="AV10" s="76"/>
-      <c r="AW10" s="76"/>
-      <c r="AX10" s="76"/>
-      <c r="AY10" s="76"/>
-      <c r="AZ10" s="76"/>
-      <c r="BA10" s="76"/>
-      <c r="BB10" s="76"/>
-      <c r="BC10" s="76"/>
-      <c r="BD10" s="76"/>
-      <c r="BE10" s="76"/>
-      <c r="BF10" s="76"/>
-      <c r="BG10" s="76"/>
-      <c r="BH10" s="76"/>
-      <c r="BI10" s="76"/>
-      <c r="BJ10" s="76"/>
-      <c r="BK10" s="76"/>
-      <c r="BL10" s="76"/>
-      <c r="BM10" s="76"/>
-      <c r="BN10" s="76"/>
-      <c r="BO10" s="76"/>
+      <c r="J10" s="71"/>
+      <c r="K10" s="71"/>
+      <c r="L10" s="71"/>
+      <c r="M10" s="71"/>
+      <c r="N10" s="71"/>
+      <c r="O10" s="71"/>
+      <c r="P10" s="71"/>
+      <c r="Q10" s="71"/>
+      <c r="R10" s="71"/>
+      <c r="S10" s="71"/>
+      <c r="T10" s="71"/>
+      <c r="U10" s="71"/>
+      <c r="V10" s="71"/>
+      <c r="W10" s="71"/>
+      <c r="X10" s="71"/>
+      <c r="Y10" s="71"/>
+      <c r="Z10" s="71"/>
+      <c r="AA10" s="71"/>
+      <c r="AB10" s="71"/>
+      <c r="AC10" s="71"/>
+      <c r="AD10" s="71"/>
+      <c r="AE10" s="71"/>
+      <c r="AF10" s="71"/>
+      <c r="AG10" s="71"/>
+      <c r="AH10" s="71"/>
+      <c r="AI10" s="71"/>
+      <c r="AJ10" s="71"/>
+      <c r="AK10" s="71"/>
+      <c r="AL10" s="71"/>
+      <c r="AM10" s="71"/>
+      <c r="AN10" s="71"/>
+      <c r="AO10" s="71"/>
+      <c r="AP10" s="71"/>
+      <c r="AQ10" s="71"/>
+      <c r="AR10" s="71"/>
+      <c r="AS10" s="71"/>
+      <c r="AT10" s="71"/>
+      <c r="AU10" s="71"/>
+      <c r="AV10" s="71"/>
+      <c r="AW10" s="71"/>
+      <c r="AX10" s="71"/>
+      <c r="AY10" s="71"/>
+      <c r="AZ10" s="71"/>
+      <c r="BA10" s="71"/>
+      <c r="BB10" s="71"/>
+      <c r="BC10" s="71"/>
+      <c r="BD10" s="71"/>
+      <c r="BE10" s="71"/>
+      <c r="BF10" s="71"/>
+      <c r="BG10" s="71"/>
+      <c r="BH10" s="71"/>
+      <c r="BI10" s="71"/>
+      <c r="BJ10" s="71"/>
+      <c r="BK10" s="71"/>
+      <c r="BL10" s="71"/>
+      <c r="BM10" s="71"/>
+      <c r="BN10" s="71"/>
+      <c r="BO10" s="71"/>
       <c r="BP10" s="32"/>
     </row>
     <row r="11" spans="1:68" ht="16.5" outlineLevel="1">
@@ -15512,14 +15575,14 @@
       <c r="A12" s="2"/>
       <c r="B12" s="13"/>
       <c r="C12" s="17"/>
-      <c r="D12" s="62" t="s">
+      <c r="D12" s="53" t="s">
         <v>77</v>
       </c>
       <c r="E12" s="44"/>
       <c r="F12" s="44"/>
       <c r="G12" s="44"/>
       <c r="H12" s="45"/>
-      <c r="I12" s="64" t="s">
+      <c r="I12" s="58" t="s">
         <v>78</v>
       </c>
       <c r="J12" s="44"/>
@@ -15584,11 +15647,11 @@
     </row>
     <row r="13" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A13" s="2"/>
-      <c r="B13" s="80" t="s">
+      <c r="B13" s="78" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="55"/>
-      <c r="D13" s="55"/>
+      <c r="C13" s="73"/>
+      <c r="D13" s="73"/>
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
       <c r="G13" s="10"/>
@@ -15691,7 +15754,7 @@
       <c r="AB14" s="44"/>
       <c r="AC14" s="44"/>
       <c r="AD14" s="45"/>
-      <c r="AE14" s="74" t="s">
+      <c r="AE14" s="68" t="s">
         <v>21</v>
       </c>
       <c r="AF14" s="44"/>
@@ -15755,7 +15818,7 @@
       <c r="N15" s="22"/>
       <c r="O15" s="22"/>
       <c r="P15" s="23"/>
-      <c r="Q15" s="82" t="s">
+      <c r="Q15" s="57" t="s">
         <v>56</v>
       </c>
       <c r="R15" s="44"/>
@@ -15764,7 +15827,7 @@
       <c r="U15" s="44"/>
       <c r="V15" s="44"/>
       <c r="W15" s="45"/>
-      <c r="X15" s="81" t="s">
+      <c r="X15" s="52" t="s">
         <v>38</v>
       </c>
       <c r="Y15" s="44"/>
@@ -15773,15 +15836,15 @@
       <c r="AB15" s="44"/>
       <c r="AC15" s="44"/>
       <c r="AD15" s="45"/>
-      <c r="AE15" s="62">
+      <c r="AE15" s="53">
         <v>6</v>
       </c>
       <c r="AF15" s="44"/>
       <c r="AG15" s="45"/>
-      <c r="AH15" s="83"/>
-      <c r="AI15" s="84"/>
-      <c r="AJ15" s="85"/>
-      <c r="AK15" s="81"/>
+      <c r="AH15" s="54"/>
+      <c r="AI15" s="55"/>
+      <c r="AJ15" s="56"/>
+      <c r="AK15" s="52"/>
       <c r="AL15" s="44"/>
       <c r="AM15" s="44"/>
       <c r="AN15" s="44"/>
@@ -15816,11 +15879,11 @@
     </row>
     <row r="16" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A16" s="2"/>
-      <c r="B16" s="80" t="s">
+      <c r="B16" s="78" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="55"/>
-      <c r="D16" s="55"/>
+      <c r="C16" s="73"/>
+      <c r="D16" s="73"/>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
@@ -15923,7 +15986,7 @@
       <c r="AB17" s="44"/>
       <c r="AC17" s="44"/>
       <c r="AD17" s="45"/>
-      <c r="AE17" s="74" t="s">
+      <c r="AE17" s="68" t="s">
         <v>21</v>
       </c>
       <c r="AF17" s="44"/>
@@ -15971,7 +16034,7 @@
     <row r="18" spans="1:68" ht="33" customHeight="1" outlineLevel="1">
       <c r="A18" s="2"/>
       <c r="B18" s="13"/>
-      <c r="C18" s="62" t="s">
+      <c r="C18" s="53" t="s">
         <v>80</v>
       </c>
       <c r="D18" s="44"/>
@@ -15987,7 +16050,7 @@
       <c r="N18" s="44"/>
       <c r="O18" s="44"/>
       <c r="P18" s="45"/>
-      <c r="Q18" s="82" t="s">
+      <c r="Q18" s="57" t="s">
         <v>33</v>
       </c>
       <c r="R18" s="44"/>
@@ -15996,7 +16059,7 @@
       <c r="U18" s="44"/>
       <c r="V18" s="44"/>
       <c r="W18" s="45"/>
-      <c r="X18" s="81" t="s">
+      <c r="X18" s="52" t="s">
         <v>34</v>
       </c>
       <c r="Y18" s="44"/>
@@ -16005,15 +16068,15 @@
       <c r="AB18" s="44"/>
       <c r="AC18" s="44"/>
       <c r="AD18" s="45"/>
-      <c r="AE18" s="62">
+      <c r="AE18" s="53">
         <v>1</v>
       </c>
       <c r="AF18" s="44"/>
       <c r="AG18" s="45"/>
-      <c r="AH18" s="83"/>
-      <c r="AI18" s="84"/>
-      <c r="AJ18" s="85"/>
-      <c r="AK18" s="86" t="s">
+      <c r="AH18" s="54"/>
+      <c r="AI18" s="55"/>
+      <c r="AJ18" s="56"/>
+      <c r="AK18" s="69" t="s">
         <v>81</v>
       </c>
       <c r="AL18" s="44"/>
@@ -16067,14 +16130,14 @@
       <c r="N19" s="22"/>
       <c r="O19" s="22"/>
       <c r="P19" s="23"/>
-      <c r="Q19" s="82"/>
+      <c r="Q19" s="57"/>
       <c r="R19" s="44"/>
       <c r="S19" s="44"/>
       <c r="T19" s="44"/>
       <c r="U19" s="44"/>
       <c r="V19" s="44"/>
       <c r="W19" s="45"/>
-      <c r="X19" s="81" t="s">
+      <c r="X19" s="52" t="s">
         <v>41</v>
       </c>
       <c r="Y19" s="44"/>
@@ -16083,13 +16146,13 @@
       <c r="AB19" s="44"/>
       <c r="AC19" s="44"/>
       <c r="AD19" s="45"/>
-      <c r="AE19" s="62"/>
+      <c r="AE19" s="53"/>
       <c r="AF19" s="44"/>
       <c r="AG19" s="45"/>
-      <c r="AH19" s="83"/>
-      <c r="AI19" s="84"/>
-      <c r="AJ19" s="85"/>
-      <c r="AK19" s="81" t="s">
+      <c r="AH19" s="54"/>
+      <c r="AI19" s="55"/>
+      <c r="AJ19" s="56"/>
+      <c r="AK19" s="52" t="s">
         <v>83</v>
       </c>
       <c r="AL19" s="44"/>
@@ -16128,22 +16191,22 @@
       <c r="A20" s="2"/>
       <c r="B20" s="13"/>
       <c r="C20" s="37"/>
-      <c r="D20" s="62" t="s">
+      <c r="D20" s="53" t="s">
         <v>84</v>
       </c>
-      <c r="E20" s="64"/>
-      <c r="F20" s="64"/>
-      <c r="G20" s="64"/>
-      <c r="H20" s="64"/>
-      <c r="I20" s="64"/>
-      <c r="J20" s="64"/>
-      <c r="K20" s="64"/>
-      <c r="L20" s="64"/>
-      <c r="M20" s="64"/>
-      <c r="N20" s="64"/>
-      <c r="O20" s="64"/>
-      <c r="P20" s="65"/>
-      <c r="Q20" s="82" t="s">
+      <c r="E20" s="58"/>
+      <c r="F20" s="58"/>
+      <c r="G20" s="58"/>
+      <c r="H20" s="58"/>
+      <c r="I20" s="58"/>
+      <c r="J20" s="58"/>
+      <c r="K20" s="58"/>
+      <c r="L20" s="58"/>
+      <c r="M20" s="58"/>
+      <c r="N20" s="58"/>
+      <c r="O20" s="58"/>
+      <c r="P20" s="59"/>
+      <c r="Q20" s="57" t="s">
         <v>126</v>
       </c>
       <c r="R20" s="44"/>
@@ -16152,20 +16215,20 @@
       <c r="U20" s="44"/>
       <c r="V20" s="44"/>
       <c r="W20" s="45"/>
-      <c r="X20" s="81"/>
+      <c r="X20" s="52"/>
       <c r="Y20" s="44"/>
       <c r="Z20" s="44"/>
       <c r="AA20" s="44"/>
       <c r="AB20" s="44"/>
       <c r="AC20" s="44"/>
       <c r="AD20" s="45"/>
-      <c r="AE20" s="62"/>
+      <c r="AE20" s="53"/>
       <c r="AF20" s="44"/>
       <c r="AG20" s="45"/>
-      <c r="AH20" s="83"/>
-      <c r="AI20" s="84"/>
-      <c r="AJ20" s="85"/>
-      <c r="AK20" s="81"/>
+      <c r="AH20" s="54"/>
+      <c r="AI20" s="55"/>
+      <c r="AJ20" s="56"/>
+      <c r="AK20" s="52"/>
       <c r="AL20" s="44"/>
       <c r="AM20" s="44"/>
       <c r="AN20" s="44"/>
@@ -16217,29 +16280,29 @@
       <c r="N21" s="22"/>
       <c r="O21" s="22"/>
       <c r="P21" s="23"/>
-      <c r="Q21" s="82"/>
+      <c r="Q21" s="57"/>
       <c r="R21" s="44"/>
       <c r="S21" s="44"/>
       <c r="T21" s="44"/>
       <c r="U21" s="44"/>
       <c r="V21" s="44"/>
       <c r="W21" s="45"/>
-      <c r="X21" s="81"/>
+      <c r="X21" s="52"/>
       <c r="Y21" s="44"/>
       <c r="Z21" s="44"/>
       <c r="AA21" s="44"/>
       <c r="AB21" s="44"/>
       <c r="AC21" s="44"/>
       <c r="AD21" s="45"/>
-      <c r="AE21" s="62"/>
+      <c r="AE21" s="53"/>
       <c r="AF21" s="44"/>
       <c r="AG21" s="45"/>
-      <c r="AH21" s="83" t="s">
+      <c r="AH21" s="54" t="s">
         <v>87</v>
       </c>
-      <c r="AI21" s="84"/>
-      <c r="AJ21" s="85"/>
-      <c r="AK21" s="81" t="s">
+      <c r="AI21" s="55"/>
+      <c r="AJ21" s="56"/>
+      <c r="AK21" s="52" t="s">
         <v>121</v>
       </c>
       <c r="AL21" s="44"/>
@@ -16278,22 +16341,22 @@
       <c r="A22" s="2"/>
       <c r="B22" s="13"/>
       <c r="C22" s="24"/>
-      <c r="D22" s="62" t="s">
+      <c r="D22" s="53" t="s">
         <v>86</v>
       </c>
-      <c r="E22" s="64"/>
-      <c r="F22" s="64"/>
-      <c r="G22" s="64"/>
-      <c r="H22" s="64"/>
-      <c r="I22" s="64"/>
-      <c r="J22" s="64"/>
-      <c r="K22" s="64"/>
-      <c r="L22" s="64"/>
-      <c r="M22" s="64"/>
-      <c r="N22" s="64"/>
-      <c r="O22" s="64"/>
-      <c r="P22" s="65"/>
-      <c r="Q22" s="82" t="s">
+      <c r="E22" s="58"/>
+      <c r="F22" s="58"/>
+      <c r="G22" s="58"/>
+      <c r="H22" s="58"/>
+      <c r="I22" s="58"/>
+      <c r="J22" s="58"/>
+      <c r="K22" s="58"/>
+      <c r="L22" s="58"/>
+      <c r="M22" s="58"/>
+      <c r="N22" s="58"/>
+      <c r="O22" s="58"/>
+      <c r="P22" s="59"/>
+      <c r="Q22" s="57" t="s">
         <v>33</v>
       </c>
       <c r="R22" s="44"/>
@@ -16302,20 +16365,20 @@
       <c r="U22" s="44"/>
       <c r="V22" s="44"/>
       <c r="W22" s="45"/>
-      <c r="X22" s="81"/>
+      <c r="X22" s="52"/>
       <c r="Y22" s="44"/>
       <c r="Z22" s="44"/>
       <c r="AA22" s="44"/>
       <c r="AB22" s="44"/>
       <c r="AC22" s="44"/>
       <c r="AD22" s="45"/>
-      <c r="AE22" s="62"/>
+      <c r="AE22" s="53"/>
       <c r="AF22" s="44"/>
       <c r="AG22" s="45"/>
-      <c r="AH22" s="83"/>
-      <c r="AI22" s="84"/>
-      <c r="AJ22" s="85"/>
-      <c r="AK22" s="81"/>
+      <c r="AH22" s="54"/>
+      <c r="AI22" s="55"/>
+      <c r="AJ22" s="56"/>
+      <c r="AK22" s="52"/>
       <c r="AL22" s="44"/>
       <c r="AM22" s="44"/>
       <c r="AN22" s="44"/>
@@ -16352,22 +16415,22 @@
       <c r="A23" s="2"/>
       <c r="B23" s="39"/>
       <c r="C23" s="37"/>
-      <c r="D23" s="62" t="s">
+      <c r="D23" s="53" t="s">
         <v>79</v>
       </c>
-      <c r="E23" s="64"/>
-      <c r="F23" s="64"/>
-      <c r="G23" s="64"/>
-      <c r="H23" s="64"/>
-      <c r="I23" s="64"/>
-      <c r="J23" s="64"/>
-      <c r="K23" s="64"/>
-      <c r="L23" s="64"/>
-      <c r="M23" s="64"/>
-      <c r="N23" s="64"/>
-      <c r="O23" s="64"/>
-      <c r="P23" s="65"/>
-      <c r="Q23" s="82" t="s">
+      <c r="E23" s="58"/>
+      <c r="F23" s="58"/>
+      <c r="G23" s="58"/>
+      <c r="H23" s="58"/>
+      <c r="I23" s="58"/>
+      <c r="J23" s="58"/>
+      <c r="K23" s="58"/>
+      <c r="L23" s="58"/>
+      <c r="M23" s="58"/>
+      <c r="N23" s="58"/>
+      <c r="O23" s="58"/>
+      <c r="P23" s="59"/>
+      <c r="Q23" s="57" t="s">
         <v>62</v>
       </c>
       <c r="R23" s="44"/>
@@ -16376,22 +16439,22 @@
       <c r="U23" s="44"/>
       <c r="V23" s="44"/>
       <c r="W23" s="45"/>
-      <c r="X23" s="81"/>
+      <c r="X23" s="52"/>
       <c r="Y23" s="44"/>
       <c r="Z23" s="44"/>
       <c r="AA23" s="44"/>
       <c r="AB23" s="44"/>
       <c r="AC23" s="44"/>
       <c r="AD23" s="45"/>
-      <c r="AE23" s="62">
+      <c r="AE23" s="53">
         <v>10</v>
       </c>
       <c r="AF23" s="44"/>
       <c r="AG23" s="45"/>
-      <c r="AH23" s="83"/>
-      <c r="AI23" s="84"/>
-      <c r="AJ23" s="85"/>
-      <c r="AK23" s="81"/>
+      <c r="AH23" s="54"/>
+      <c r="AI23" s="55"/>
+      <c r="AJ23" s="56"/>
+      <c r="AK23" s="52"/>
       <c r="AL23" s="44"/>
       <c r="AM23" s="44"/>
       <c r="AN23" s="44"/>
@@ -16639,51 +16702,51 @@
     </row>
     <row r="27" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A27" s="5"/>
-      <c r="B27" s="52" t="s">
+      <c r="B27" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="C27" s="54" t="s">
+      <c r="C27" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="D27" s="55"/>
-      <c r="E27" s="55"/>
-      <c r="F27" s="55"/>
-      <c r="G27" s="55"/>
-      <c r="H27" s="55"/>
-      <c r="I27" s="55"/>
-      <c r="J27" s="55"/>
-      <c r="K27" s="56"/>
-      <c r="L27" s="54" t="s">
+      <c r="D27" s="73"/>
+      <c r="E27" s="73"/>
+      <c r="F27" s="73"/>
+      <c r="G27" s="73"/>
+      <c r="H27" s="73"/>
+      <c r="I27" s="73"/>
+      <c r="J27" s="73"/>
+      <c r="K27" s="74"/>
+      <c r="L27" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="M27" s="55"/>
-      <c r="N27" s="55"/>
-      <c r="O27" s="55"/>
-      <c r="P27" s="55"/>
-      <c r="Q27" s="55"/>
-      <c r="R27" s="55"/>
-      <c r="S27" s="55"/>
-      <c r="T27" s="55"/>
-      <c r="U27" s="55"/>
-      <c r="V27" s="55"/>
-      <c r="W27" s="55"/>
-      <c r="X27" s="55"/>
-      <c r="Y27" s="55"/>
-      <c r="Z27" s="55"/>
-      <c r="AA27" s="55"/>
-      <c r="AB27" s="56"/>
-      <c r="AC27" s="54" t="s">
+      <c r="M27" s="73"/>
+      <c r="N27" s="73"/>
+      <c r="O27" s="73"/>
+      <c r="P27" s="73"/>
+      <c r="Q27" s="73"/>
+      <c r="R27" s="73"/>
+      <c r="S27" s="73"/>
+      <c r="T27" s="73"/>
+      <c r="U27" s="73"/>
+      <c r="V27" s="73"/>
+      <c r="W27" s="73"/>
+      <c r="X27" s="73"/>
+      <c r="Y27" s="73"/>
+      <c r="Z27" s="73"/>
+      <c r="AA27" s="73"/>
+      <c r="AB27" s="74"/>
+      <c r="AC27" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="AD27" s="55"/>
-      <c r="AE27" s="55"/>
-      <c r="AF27" s="55"/>
-      <c r="AG27" s="55"/>
-      <c r="AH27" s="55"/>
-      <c r="AI27" s="55"/>
-      <c r="AJ27" s="55"/>
-      <c r="AK27" s="56"/>
-      <c r="AL27" s="91" t="s">
+      <c r="AD27" s="73"/>
+      <c r="AE27" s="73"/>
+      <c r="AF27" s="73"/>
+      <c r="AG27" s="73"/>
+      <c r="AH27" s="73"/>
+      <c r="AI27" s="73"/>
+      <c r="AJ27" s="73"/>
+      <c r="AK27" s="74"/>
+      <c r="AL27" s="66" t="s">
         <v>12</v>
       </c>
       <c r="AM27" s="44"/>
@@ -16719,43 +16782,43 @@
     </row>
     <row r="28" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A28" s="5"/>
-      <c r="B28" s="53"/>
-      <c r="C28" s="57"/>
-      <c r="D28" s="58"/>
-      <c r="E28" s="58"/>
-      <c r="F28" s="58"/>
-      <c r="G28" s="58"/>
-      <c r="H28" s="58"/>
-      <c r="I28" s="58"/>
-      <c r="J28" s="58"/>
-      <c r="K28" s="59"/>
-      <c r="L28" s="57"/>
-      <c r="M28" s="58"/>
-      <c r="N28" s="58"/>
-      <c r="O28" s="58"/>
-      <c r="P28" s="58"/>
-      <c r="Q28" s="58"/>
-      <c r="R28" s="58"/>
-      <c r="S28" s="58"/>
-      <c r="T28" s="58"/>
-      <c r="U28" s="58"/>
-      <c r="V28" s="58"/>
-      <c r="W28" s="58"/>
-      <c r="X28" s="58"/>
-      <c r="Y28" s="58"/>
-      <c r="Z28" s="58"/>
-      <c r="AA28" s="58"/>
-      <c r="AB28" s="59"/>
-      <c r="AC28" s="79"/>
-      <c r="AD28" s="61"/>
-      <c r="AE28" s="61"/>
-      <c r="AF28" s="61"/>
-      <c r="AG28" s="61"/>
-      <c r="AH28" s="61"/>
-      <c r="AI28" s="61"/>
-      <c r="AJ28" s="61"/>
-      <c r="AK28" s="53"/>
-      <c r="AL28" s="92" t="s">
+      <c r="B28" s="77"/>
+      <c r="C28" s="80"/>
+      <c r="D28" s="81"/>
+      <c r="E28" s="81"/>
+      <c r="F28" s="81"/>
+      <c r="G28" s="81"/>
+      <c r="H28" s="81"/>
+      <c r="I28" s="81"/>
+      <c r="J28" s="81"/>
+      <c r="K28" s="82"/>
+      <c r="L28" s="80"/>
+      <c r="M28" s="81"/>
+      <c r="N28" s="81"/>
+      <c r="O28" s="81"/>
+      <c r="P28" s="81"/>
+      <c r="Q28" s="81"/>
+      <c r="R28" s="81"/>
+      <c r="S28" s="81"/>
+      <c r="T28" s="81"/>
+      <c r="U28" s="81"/>
+      <c r="V28" s="81"/>
+      <c r="W28" s="81"/>
+      <c r="X28" s="81"/>
+      <c r="Y28" s="81"/>
+      <c r="Z28" s="81"/>
+      <c r="AA28" s="81"/>
+      <c r="AB28" s="82"/>
+      <c r="AC28" s="75"/>
+      <c r="AD28" s="76"/>
+      <c r="AE28" s="76"/>
+      <c r="AF28" s="76"/>
+      <c r="AG28" s="76"/>
+      <c r="AH28" s="76"/>
+      <c r="AI28" s="76"/>
+      <c r="AJ28" s="76"/>
+      <c r="AK28" s="77"/>
+      <c r="AL28" s="67" t="s">
         <v>13</v>
       </c>
       <c r="AM28" s="44"/>
@@ -16766,14 +16829,14 @@
       <c r="AR28" s="44"/>
       <c r="AS28" s="44"/>
       <c r="AT28" s="45"/>
-      <c r="AU28" s="92" t="s">
+      <c r="AU28" s="67" t="s">
         <v>14</v>
       </c>
       <c r="AV28" s="44"/>
       <c r="AW28" s="44"/>
       <c r="AX28" s="44"/>
       <c r="AY28" s="45"/>
-      <c r="AZ28" s="92" t="s">
+      <c r="AZ28" s="67" t="s">
         <v>15</v>
       </c>
       <c r="BA28" s="44"/>
@@ -16799,37 +16862,39 @@
         <f ca="1">MAX(B$27:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>1</v>
       </c>
-      <c r="C29" s="66" t="s">
+      <c r="C29" s="85" t="s">
         <v>117</v>
       </c>
-      <c r="D29" s="67"/>
-      <c r="E29" s="67"/>
-      <c r="F29" s="67"/>
-      <c r="G29" s="67"/>
-      <c r="H29" s="67"/>
-      <c r="I29" s="67"/>
-      <c r="J29" s="67"/>
-      <c r="K29" s="68"/>
-      <c r="L29" s="69" t="s">
+      <c r="D29" s="86"/>
+      <c r="E29" s="86"/>
+      <c r="F29" s="86"/>
+      <c r="G29" s="86"/>
+      <c r="H29" s="86"/>
+      <c r="I29" s="86"/>
+      <c r="J29" s="86"/>
+      <c r="K29" s="87"/>
+      <c r="L29" s="88" t="s">
         <v>118</v>
       </c>
-      <c r="M29" s="70"/>
-      <c r="N29" s="70"/>
-      <c r="O29" s="70"/>
-      <c r="P29" s="70"/>
-      <c r="Q29" s="70"/>
-      <c r="R29" s="70"/>
-      <c r="S29" s="70"/>
-      <c r="T29" s="70"/>
-      <c r="U29" s="70"/>
-      <c r="V29" s="70"/>
-      <c r="W29" s="70"/>
-      <c r="X29" s="70"/>
-      <c r="Y29" s="70"/>
-      <c r="Z29" s="70"/>
-      <c r="AA29" s="70"/>
-      <c r="AB29" s="70"/>
-      <c r="AC29" s="64"/>
+      <c r="M29" s="89"/>
+      <c r="N29" s="89"/>
+      <c r="O29" s="89"/>
+      <c r="P29" s="89"/>
+      <c r="Q29" s="89"/>
+      <c r="R29" s="89"/>
+      <c r="S29" s="89"/>
+      <c r="T29" s="89"/>
+      <c r="U29" s="89"/>
+      <c r="V29" s="89"/>
+      <c r="W29" s="89"/>
+      <c r="X29" s="89"/>
+      <c r="Y29" s="89"/>
+      <c r="Z29" s="89"/>
+      <c r="AA29" s="89"/>
+      <c r="AB29" s="89"/>
+      <c r="AC29" s="58" t="s">
+        <v>131</v>
+      </c>
       <c r="AD29" s="44"/>
       <c r="AE29" s="44"/>
       <c r="AF29" s="44"/>
@@ -16838,7 +16903,9 @@
       <c r="AI29" s="44"/>
       <c r="AJ29" s="44"/>
       <c r="AK29" s="45"/>
-      <c r="AL29" s="77"/>
+      <c r="AL29" s="60" t="s">
+        <v>132</v>
+      </c>
       <c r="AM29" s="44"/>
       <c r="AN29" s="44"/>
       <c r="AO29" s="44"/>
@@ -16847,12 +16914,14 @@
       <c r="AR29" s="44"/>
       <c r="AS29" s="44"/>
       <c r="AT29" s="45"/>
-      <c r="AU29" s="77"/>
+      <c r="AU29" s="60"/>
       <c r="AV29" s="44"/>
       <c r="AW29" s="44"/>
       <c r="AX29" s="44"/>
       <c r="AY29" s="45"/>
-      <c r="AZ29" s="78"/>
+      <c r="AZ29" s="63" t="s">
+        <v>133</v>
+      </c>
       <c r="BA29" s="44"/>
       <c r="BB29" s="44"/>
       <c r="BC29" s="44"/>
@@ -16876,37 +16945,39 @@
         <f ca="1">MAX(B$27:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>2</v>
       </c>
-      <c r="C30" s="66" t="s">
+      <c r="C30" s="85" t="s">
         <v>119</v>
       </c>
-      <c r="D30" s="67"/>
-      <c r="E30" s="67"/>
-      <c r="F30" s="67"/>
-      <c r="G30" s="67"/>
-      <c r="H30" s="67"/>
-      <c r="I30" s="67"/>
-      <c r="J30" s="67"/>
-      <c r="K30" s="68"/>
-      <c r="L30" s="69" t="s">
+      <c r="D30" s="86"/>
+      <c r="E30" s="86"/>
+      <c r="F30" s="86"/>
+      <c r="G30" s="86"/>
+      <c r="H30" s="86"/>
+      <c r="I30" s="86"/>
+      <c r="J30" s="86"/>
+      <c r="K30" s="87"/>
+      <c r="L30" s="88" t="s">
         <v>120</v>
       </c>
-      <c r="M30" s="70"/>
-      <c r="N30" s="70"/>
-      <c r="O30" s="70"/>
-      <c r="P30" s="70"/>
-      <c r="Q30" s="70"/>
-      <c r="R30" s="70"/>
-      <c r="S30" s="70"/>
-      <c r="T30" s="70"/>
-      <c r="U30" s="70"/>
-      <c r="V30" s="70"/>
-      <c r="W30" s="70"/>
-      <c r="X30" s="70"/>
-      <c r="Y30" s="70"/>
-      <c r="Z30" s="70"/>
-      <c r="AA30" s="70"/>
-      <c r="AB30" s="70"/>
-      <c r="AC30" s="64"/>
+      <c r="M30" s="89"/>
+      <c r="N30" s="89"/>
+      <c r="O30" s="89"/>
+      <c r="P30" s="89"/>
+      <c r="Q30" s="89"/>
+      <c r="R30" s="89"/>
+      <c r="S30" s="89"/>
+      <c r="T30" s="89"/>
+      <c r="U30" s="89"/>
+      <c r="V30" s="89"/>
+      <c r="W30" s="89"/>
+      <c r="X30" s="89"/>
+      <c r="Y30" s="89"/>
+      <c r="Z30" s="89"/>
+      <c r="AA30" s="89"/>
+      <c r="AB30" s="89"/>
+      <c r="AC30" s="58" t="s">
+        <v>131</v>
+      </c>
       <c r="AD30" s="44"/>
       <c r="AE30" s="44"/>
       <c r="AF30" s="44"/>
@@ -16915,7 +16986,9 @@
       <c r="AI30" s="44"/>
       <c r="AJ30" s="44"/>
       <c r="AK30" s="45"/>
-      <c r="AL30" s="77"/>
+      <c r="AL30" s="60" t="s">
+        <v>132</v>
+      </c>
       <c r="AM30" s="44"/>
       <c r="AN30" s="44"/>
       <c r="AO30" s="44"/>
@@ -16924,12 +16997,14 @@
       <c r="AR30" s="44"/>
       <c r="AS30" s="44"/>
       <c r="AT30" s="45"/>
-      <c r="AU30" s="77"/>
+      <c r="AU30" s="60"/>
       <c r="AV30" s="44"/>
       <c r="AW30" s="44"/>
       <c r="AX30" s="44"/>
       <c r="AY30" s="45"/>
-      <c r="AZ30" s="78"/>
+      <c r="AZ30" s="63" t="s">
+        <v>133</v>
+      </c>
       <c r="BA30" s="44"/>
       <c r="BB30" s="44"/>
       <c r="BC30" s="44"/>
@@ -16953,35 +17028,35 @@
         <f ca="1">MAX(B$27:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>3</v>
       </c>
-      <c r="C31" s="66" t="s">
+      <c r="C31" s="85" t="s">
         <v>91</v>
       </c>
-      <c r="D31" s="67"/>
-      <c r="E31" s="67"/>
-      <c r="F31" s="67"/>
-      <c r="G31" s="67"/>
-      <c r="H31" s="67"/>
-      <c r="I31" s="67"/>
-      <c r="J31" s="67"/>
-      <c r="K31" s="68"/>
-      <c r="L31" s="71"/>
-      <c r="M31" s="72"/>
-      <c r="N31" s="72"/>
-      <c r="O31" s="72"/>
-      <c r="P31" s="72"/>
-      <c r="Q31" s="72"/>
-      <c r="R31" s="72"/>
-      <c r="S31" s="72"/>
-      <c r="T31" s="72"/>
-      <c r="U31" s="72"/>
-      <c r="V31" s="72"/>
-      <c r="W31" s="72"/>
-      <c r="X31" s="72"/>
-      <c r="Y31" s="72"/>
-      <c r="Z31" s="72"/>
-      <c r="AA31" s="72"/>
-      <c r="AB31" s="73"/>
-      <c r="AC31" s="64"/>
+      <c r="D31" s="86"/>
+      <c r="E31" s="86"/>
+      <c r="F31" s="86"/>
+      <c r="G31" s="86"/>
+      <c r="H31" s="86"/>
+      <c r="I31" s="86"/>
+      <c r="J31" s="86"/>
+      <c r="K31" s="87"/>
+      <c r="L31" s="90"/>
+      <c r="M31" s="91"/>
+      <c r="N31" s="91"/>
+      <c r="O31" s="91"/>
+      <c r="P31" s="91"/>
+      <c r="Q31" s="91"/>
+      <c r="R31" s="91"/>
+      <c r="S31" s="91"/>
+      <c r="T31" s="91"/>
+      <c r="U31" s="91"/>
+      <c r="V31" s="91"/>
+      <c r="W31" s="91"/>
+      <c r="X31" s="91"/>
+      <c r="Y31" s="91"/>
+      <c r="Z31" s="91"/>
+      <c r="AA31" s="91"/>
+      <c r="AB31" s="92"/>
+      <c r="AC31" s="58"/>
       <c r="AD31" s="44"/>
       <c r="AE31" s="44"/>
       <c r="AF31" s="44"/>
@@ -16990,7 +17065,7 @@
       <c r="AI31" s="44"/>
       <c r="AJ31" s="44"/>
       <c r="AK31" s="45"/>
-      <c r="AL31" s="77"/>
+      <c r="AL31" s="60"/>
       <c r="AM31" s="44"/>
       <c r="AN31" s="44"/>
       <c r="AO31" s="44"/>
@@ -16999,12 +17074,12 @@
       <c r="AR31" s="44"/>
       <c r="AS31" s="44"/>
       <c r="AT31" s="45"/>
-      <c r="AU31" s="77"/>
+      <c r="AU31" s="60"/>
       <c r="AV31" s="44"/>
       <c r="AW31" s="44"/>
       <c r="AX31" s="44"/>
       <c r="AY31" s="45"/>
-      <c r="AZ31" s="78"/>
+      <c r="AZ31" s="63"/>
       <c r="BA31" s="44"/>
       <c r="BB31" s="44"/>
       <c r="BC31" s="44"/>
@@ -17028,75 +17103,75 @@
         <f ca="1">MAX(B$27:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>4</v>
       </c>
-      <c r="C32" s="63" t="s">
+      <c r="C32" s="84" t="s">
         <v>68</v>
       </c>
-      <c r="D32" s="64"/>
-      <c r="E32" s="64"/>
-      <c r="F32" s="64"/>
-      <c r="G32" s="64"/>
-      <c r="H32" s="64"/>
-      <c r="I32" s="64"/>
-      <c r="J32" s="64"/>
-      <c r="K32" s="65"/>
-      <c r="L32" s="62" t="s">
+      <c r="D32" s="58"/>
+      <c r="E32" s="58"/>
+      <c r="F32" s="58"/>
+      <c r="G32" s="58"/>
+      <c r="H32" s="58"/>
+      <c r="I32" s="58"/>
+      <c r="J32" s="58"/>
+      <c r="K32" s="59"/>
+      <c r="L32" s="53" t="s">
         <v>69</v>
       </c>
-      <c r="M32" s="64"/>
-      <c r="N32" s="64"/>
-      <c r="O32" s="64"/>
-      <c r="P32" s="64"/>
-      <c r="Q32" s="64"/>
-      <c r="R32" s="64"/>
-      <c r="S32" s="64"/>
-      <c r="T32" s="64"/>
-      <c r="U32" s="64"/>
-      <c r="V32" s="64"/>
-      <c r="W32" s="64"/>
-      <c r="X32" s="64"/>
-      <c r="Y32" s="64"/>
-      <c r="Z32" s="64"/>
-      <c r="AA32" s="64"/>
-      <c r="AB32" s="65"/>
-      <c r="AC32" s="62"/>
-      <c r="AD32" s="64"/>
-      <c r="AE32" s="64"/>
-      <c r="AF32" s="64"/>
-      <c r="AG32" s="64"/>
-      <c r="AH32" s="64"/>
-      <c r="AI32" s="64"/>
-      <c r="AJ32" s="64"/>
-      <c r="AK32" s="65"/>
-      <c r="AL32" s="77"/>
-      <c r="AM32" s="87"/>
-      <c r="AN32" s="87"/>
-      <c r="AO32" s="87"/>
-      <c r="AP32" s="87"/>
-      <c r="AQ32" s="87"/>
-      <c r="AR32" s="87"/>
-      <c r="AS32" s="87"/>
-      <c r="AT32" s="88"/>
-      <c r="AU32" s="77"/>
-      <c r="AV32" s="87"/>
-      <c r="AW32" s="87"/>
-      <c r="AX32" s="87"/>
-      <c r="AY32" s="88"/>
-      <c r="AZ32" s="78"/>
-      <c r="BA32" s="89"/>
-      <c r="BB32" s="89"/>
-      <c r="BC32" s="89"/>
-      <c r="BD32" s="89"/>
-      <c r="BE32" s="89"/>
-      <c r="BF32" s="89"/>
-      <c r="BG32" s="89"/>
-      <c r="BH32" s="89"/>
-      <c r="BI32" s="89"/>
-      <c r="BJ32" s="89"/>
-      <c r="BK32" s="89"/>
-      <c r="BL32" s="89"/>
-      <c r="BM32" s="89"/>
-      <c r="BN32" s="89"/>
-      <c r="BO32" s="90"/>
+      <c r="M32" s="58"/>
+      <c r="N32" s="58"/>
+      <c r="O32" s="58"/>
+      <c r="P32" s="58"/>
+      <c r="Q32" s="58"/>
+      <c r="R32" s="58"/>
+      <c r="S32" s="58"/>
+      <c r="T32" s="58"/>
+      <c r="U32" s="58"/>
+      <c r="V32" s="58"/>
+      <c r="W32" s="58"/>
+      <c r="X32" s="58"/>
+      <c r="Y32" s="58"/>
+      <c r="Z32" s="58"/>
+      <c r="AA32" s="58"/>
+      <c r="AB32" s="59"/>
+      <c r="AC32" s="53"/>
+      <c r="AD32" s="58"/>
+      <c r="AE32" s="58"/>
+      <c r="AF32" s="58"/>
+      <c r="AG32" s="58"/>
+      <c r="AH32" s="58"/>
+      <c r="AI32" s="58"/>
+      <c r="AJ32" s="58"/>
+      <c r="AK32" s="59"/>
+      <c r="AL32" s="60"/>
+      <c r="AM32" s="61"/>
+      <c r="AN32" s="61"/>
+      <c r="AO32" s="61"/>
+      <c r="AP32" s="61"/>
+      <c r="AQ32" s="61"/>
+      <c r="AR32" s="61"/>
+      <c r="AS32" s="61"/>
+      <c r="AT32" s="62"/>
+      <c r="AU32" s="60"/>
+      <c r="AV32" s="61"/>
+      <c r="AW32" s="61"/>
+      <c r="AX32" s="61"/>
+      <c r="AY32" s="62"/>
+      <c r="AZ32" s="63"/>
+      <c r="BA32" s="64"/>
+      <c r="BB32" s="64"/>
+      <c r="BC32" s="64"/>
+      <c r="BD32" s="64"/>
+      <c r="BE32" s="64"/>
+      <c r="BF32" s="64"/>
+      <c r="BG32" s="64"/>
+      <c r="BH32" s="64"/>
+      <c r="BI32" s="64"/>
+      <c r="BJ32" s="64"/>
+      <c r="BK32" s="64"/>
+      <c r="BL32" s="64"/>
+      <c r="BM32" s="64"/>
+      <c r="BN32" s="64"/>
+      <c r="BO32" s="65"/>
       <c r="BP32" s="2"/>
     </row>
     <row r="33" spans="1:68" ht="16.5">
@@ -18087,77 +18162,12 @@
     </row>
   </sheetData>
   <mergeCells count="93">
-    <mergeCell ref="AZ32:BO32"/>
-    <mergeCell ref="C32:K32"/>
-    <mergeCell ref="L32:AB32"/>
-    <mergeCell ref="AC32:AK32"/>
-    <mergeCell ref="AL32:AT32"/>
-    <mergeCell ref="AU32:AY32"/>
-    <mergeCell ref="AZ31:BO31"/>
-    <mergeCell ref="C30:K30"/>
-    <mergeCell ref="L30:AB30"/>
-    <mergeCell ref="AC30:AK30"/>
-    <mergeCell ref="AL30:AT30"/>
-    <mergeCell ref="AU30:AY30"/>
-    <mergeCell ref="AZ30:BO30"/>
-    <mergeCell ref="C31:K31"/>
-    <mergeCell ref="L31:AB31"/>
-    <mergeCell ref="AC31:AK31"/>
-    <mergeCell ref="AL31:AT31"/>
-    <mergeCell ref="AU31:AY31"/>
-    <mergeCell ref="AZ29:BO29"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:K28"/>
-    <mergeCell ref="L27:AB28"/>
-    <mergeCell ref="AC27:AK28"/>
-    <mergeCell ref="AL27:BO27"/>
-    <mergeCell ref="AL28:AT28"/>
-    <mergeCell ref="AU28:AY28"/>
-    <mergeCell ref="AZ28:BO28"/>
-    <mergeCell ref="C29:K29"/>
-    <mergeCell ref="L29:AB29"/>
-    <mergeCell ref="AC29:AK29"/>
-    <mergeCell ref="AL29:AT29"/>
-    <mergeCell ref="AU29:AY29"/>
-    <mergeCell ref="AK22:BO22"/>
-    <mergeCell ref="D23:P23"/>
-    <mergeCell ref="Q23:W23"/>
-    <mergeCell ref="X23:AD23"/>
-    <mergeCell ref="AE23:AG23"/>
-    <mergeCell ref="AH23:AJ23"/>
-    <mergeCell ref="AK23:BO23"/>
-    <mergeCell ref="D22:P22"/>
-    <mergeCell ref="Q22:W22"/>
-    <mergeCell ref="X22:AD22"/>
-    <mergeCell ref="AE22:AG22"/>
-    <mergeCell ref="AH22:AJ22"/>
-    <mergeCell ref="Q21:W21"/>
-    <mergeCell ref="X21:AD21"/>
-    <mergeCell ref="AE21:AG21"/>
-    <mergeCell ref="AH21:AJ21"/>
-    <mergeCell ref="AK21:BO21"/>
-    <mergeCell ref="D20:P20"/>
-    <mergeCell ref="Q20:W20"/>
-    <mergeCell ref="X20:AD20"/>
-    <mergeCell ref="AE20:AG20"/>
-    <mergeCell ref="AH20:AJ20"/>
-    <mergeCell ref="AK20:BO20"/>
-    <mergeCell ref="AK18:BO18"/>
-    <mergeCell ref="Q19:W19"/>
-    <mergeCell ref="X19:AD19"/>
-    <mergeCell ref="AE19:AG19"/>
-    <mergeCell ref="AH19:AJ19"/>
-    <mergeCell ref="AK19:BO19"/>
-    <mergeCell ref="C17:P17"/>
-    <mergeCell ref="Q17:W17"/>
-    <mergeCell ref="X17:AD17"/>
-    <mergeCell ref="AE17:AG17"/>
-    <mergeCell ref="AK17:BO17"/>
-    <mergeCell ref="C18:P18"/>
-    <mergeCell ref="Q18:W18"/>
-    <mergeCell ref="X18:AD18"/>
-    <mergeCell ref="AE18:AG18"/>
-    <mergeCell ref="AH18:AJ18"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="I7:BO7"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="I8:BO8"/>
+    <mergeCell ref="C9:H9"/>
+    <mergeCell ref="I9:BO9"/>
     <mergeCell ref="C10:H10"/>
     <mergeCell ref="I10:BO10"/>
     <mergeCell ref="B16:D16"/>
@@ -18174,12 +18184,77 @@
     <mergeCell ref="AE15:AG15"/>
     <mergeCell ref="AH15:AJ15"/>
     <mergeCell ref="AK15:BO15"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="I7:BO7"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="I8:BO8"/>
-    <mergeCell ref="C9:H9"/>
-    <mergeCell ref="I9:BO9"/>
+    <mergeCell ref="C18:P18"/>
+    <mergeCell ref="Q18:W18"/>
+    <mergeCell ref="X18:AD18"/>
+    <mergeCell ref="AE18:AG18"/>
+    <mergeCell ref="AH18:AJ18"/>
+    <mergeCell ref="C17:P17"/>
+    <mergeCell ref="Q17:W17"/>
+    <mergeCell ref="X17:AD17"/>
+    <mergeCell ref="AE17:AG17"/>
+    <mergeCell ref="AK17:BO17"/>
+    <mergeCell ref="AK20:BO20"/>
+    <mergeCell ref="AK18:BO18"/>
+    <mergeCell ref="Q19:W19"/>
+    <mergeCell ref="X19:AD19"/>
+    <mergeCell ref="AE19:AG19"/>
+    <mergeCell ref="AH19:AJ19"/>
+    <mergeCell ref="AK19:BO19"/>
+    <mergeCell ref="D20:P20"/>
+    <mergeCell ref="Q20:W20"/>
+    <mergeCell ref="X20:AD20"/>
+    <mergeCell ref="AE20:AG20"/>
+    <mergeCell ref="AH20:AJ20"/>
+    <mergeCell ref="Q21:W21"/>
+    <mergeCell ref="X21:AD21"/>
+    <mergeCell ref="AE21:AG21"/>
+    <mergeCell ref="AH21:AJ21"/>
+    <mergeCell ref="AK21:BO21"/>
+    <mergeCell ref="AK22:BO22"/>
+    <mergeCell ref="D23:P23"/>
+    <mergeCell ref="Q23:W23"/>
+    <mergeCell ref="X23:AD23"/>
+    <mergeCell ref="AE23:AG23"/>
+    <mergeCell ref="AH23:AJ23"/>
+    <mergeCell ref="AK23:BO23"/>
+    <mergeCell ref="D22:P22"/>
+    <mergeCell ref="Q22:W22"/>
+    <mergeCell ref="X22:AD22"/>
+    <mergeCell ref="AE22:AG22"/>
+    <mergeCell ref="AH22:AJ22"/>
+    <mergeCell ref="AZ29:BO29"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:K28"/>
+    <mergeCell ref="L27:AB28"/>
+    <mergeCell ref="AC27:AK28"/>
+    <mergeCell ref="AL27:BO27"/>
+    <mergeCell ref="AL28:AT28"/>
+    <mergeCell ref="AU28:AY28"/>
+    <mergeCell ref="AZ28:BO28"/>
+    <mergeCell ref="C29:K29"/>
+    <mergeCell ref="L29:AB29"/>
+    <mergeCell ref="AC29:AK29"/>
+    <mergeCell ref="AL29:AT29"/>
+    <mergeCell ref="AU29:AY29"/>
+    <mergeCell ref="AZ31:BO31"/>
+    <mergeCell ref="C30:K30"/>
+    <mergeCell ref="L30:AB30"/>
+    <mergeCell ref="AC30:AK30"/>
+    <mergeCell ref="AL30:AT30"/>
+    <mergeCell ref="AU30:AY30"/>
+    <mergeCell ref="AZ30:BO30"/>
+    <mergeCell ref="C31:K31"/>
+    <mergeCell ref="L31:AB31"/>
+    <mergeCell ref="AC31:AK31"/>
+    <mergeCell ref="AL31:AT31"/>
+    <mergeCell ref="AU31:AY31"/>
+    <mergeCell ref="AZ32:BO32"/>
+    <mergeCell ref="C32:K32"/>
+    <mergeCell ref="L32:AB32"/>
+    <mergeCell ref="AC32:AK32"/>
+    <mergeCell ref="AL32:AT32"/>
+    <mergeCell ref="AU32:AY32"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <dataValidations count="1">
